--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_bar.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_bar.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\auxiliary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74731F83-8573-42B6-B48B-284658D088F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="popg0" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="123">
   <si>
     <t>male</t>
   </si>
@@ -394,361 +400,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -756,255 +426,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,61 +440,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1324,21 +708,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,10 +733,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.00152964</v>
+        <v>1.5296400000000001E-3</v>
       </c>
       <c r="C2">
-        <v>0.00147924</v>
+        <v>1.4792400000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1362,10 +744,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0015372</v>
+        <v>1.5372000000000001E-3</v>
       </c>
       <c r="C3">
-        <v>0.0014868</v>
+        <v>1.4868000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1373,10 +755,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.00154476</v>
+        <v>1.5447600000000001E-3</v>
       </c>
       <c r="C4">
-        <v>0.00149436</v>
+        <v>1.4943600000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1384,10 +766,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.00155232</v>
+        <v>1.55232E-3</v>
       </c>
       <c r="C5">
-        <v>0.00150192</v>
+        <v>1.5019200000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1395,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.00155988</v>
+        <v>1.55988E-3</v>
       </c>
       <c r="C6">
-        <v>0.00150948</v>
+        <v>1.5094800000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1406,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.00156744</v>
+        <v>1.56744E-3</v>
       </c>
       <c r="C7">
-        <v>0.00151704</v>
+        <v>1.5170400000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1417,10 +799,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.001575</v>
+        <v>1.575E-3</v>
       </c>
       <c r="C8">
-        <v>0.0015246</v>
+        <v>1.5246000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1428,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.00161692</v>
+        <v>1.61692E-3</v>
       </c>
       <c r="C9">
-        <v>0.00156464</v>
+        <v>1.56464E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1439,10 +821,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.00165884</v>
+        <v>1.6588400000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.00160468</v>
+        <v>1.6046800000000003E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1450,10 +832,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.00170076</v>
+        <v>1.7007600000000002E-3</v>
       </c>
       <c r="C11">
-        <v>0.00164472</v>
+        <v>1.6447200000000003E-3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1461,10 +843,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.00174268</v>
+        <v>1.7426800000000001E-3</v>
       </c>
       <c r="C12">
-        <v>0.00168476</v>
+        <v>1.68476E-3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1472,10 +854,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0017846</v>
+        <v>1.7846000000000001E-3</v>
       </c>
       <c r="C13">
-        <v>0.0017248</v>
+        <v>1.7248000000000003E-3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1483,10 +865,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.00181756</v>
+        <v>1.81756E-3</v>
       </c>
       <c r="C14">
-        <v>0.00174856</v>
+        <v>1.7485600000000003E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1494,10 +876,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.00185052</v>
+        <v>1.85052E-3</v>
       </c>
       <c r="C15">
-        <v>0.00177232</v>
+        <v>1.7723200000000002E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1505,10 +887,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.00188348</v>
+        <v>1.8834800000000003E-3</v>
       </c>
       <c r="C16">
-        <v>0.00179608</v>
+        <v>1.79608E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1516,10 +898,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.00191644</v>
+        <v>1.9164400000000002E-3</v>
       </c>
       <c r="C17">
-        <v>0.00181984</v>
+        <v>1.8198400000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1527,10 +909,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.0019494</v>
+        <v>1.9494E-3</v>
       </c>
       <c r="C18">
-        <v>0.0018436</v>
+        <v>1.8436000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1538,10 +920,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.00194108</v>
+        <v>1.94108E-3</v>
       </c>
       <c r="C19">
-        <v>0.00184408</v>
+        <v>1.8440800000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1549,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.00193276</v>
+        <v>1.9327600000000002E-3</v>
       </c>
       <c r="C20">
-        <v>0.00184456</v>
+        <v>1.8445600000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1560,10 +942,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.00192444</v>
+        <v>1.9244399999999999E-3</v>
       </c>
       <c r="C21">
-        <v>0.00184504</v>
+        <v>1.8450400000000003E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1571,10 +953,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.00191612</v>
+        <v>1.9161200000000001E-3</v>
       </c>
       <c r="C22">
-        <v>0.00184552</v>
+        <v>1.8455200000000002E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1582,10 +964,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.0019078</v>
+        <v>1.9078000000000001E-3</v>
       </c>
       <c r="C23">
-        <v>0.001846</v>
+        <v>1.8460000000000002E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1593,10 +975,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.00190252</v>
+        <v>1.90252E-3</v>
       </c>
       <c r="C24">
-        <v>0.00185288</v>
+        <v>1.8528800000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1604,10 +986,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.00189724</v>
+        <v>1.8972400000000001E-3</v>
       </c>
       <c r="C25">
-        <v>0.00185976</v>
+        <v>1.85976E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1615,10 +997,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.00189196</v>
+        <v>1.89196E-3</v>
       </c>
       <c r="C26">
-        <v>0.00186664</v>
+        <v>1.8666400000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1626,10 +1008,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.00188668</v>
+        <v>1.8866800000000002E-3</v>
       </c>
       <c r="C27">
-        <v>0.00187352</v>
+        <v>1.87352E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1637,10 +1019,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.0018814</v>
+        <v>1.8814000000000001E-3</v>
       </c>
       <c r="C28">
-        <v>0.0018804</v>
+        <v>1.8804E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1648,10 +1030,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.00186572</v>
+        <v>1.86572E-3</v>
       </c>
       <c r="C29">
-        <v>0.00186776</v>
+        <v>1.86776E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1659,10 +1041,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.00185004</v>
+        <v>1.8500400000000001E-3</v>
       </c>
       <c r="C30">
-        <v>0.00185512</v>
+        <v>1.8551199999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1670,10 +1052,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.00183436</v>
+        <v>1.8343600000000004E-3</v>
       </c>
       <c r="C31">
-        <v>0.00184248</v>
+        <v>1.8424800000000003E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1681,10 +1063,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.00181868</v>
+        <v>1.8186800000000003E-3</v>
       </c>
       <c r="C32">
-        <v>0.00182984</v>
+        <v>1.8298400000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1692,10 +1074,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.001803</v>
+        <v>1.8030000000000001E-3</v>
       </c>
       <c r="C33">
-        <v>0.0018172</v>
+        <v>1.8172000000000002E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1703,10 +1085,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.00181336</v>
+        <v>1.8133600000000002E-3</v>
       </c>
       <c r="C34">
-        <v>0.00184372</v>
+        <v>1.8437200000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1714,10 +1096,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.00182372</v>
+        <v>1.8237200000000002E-3</v>
       </c>
       <c r="C35">
-        <v>0.00187024</v>
+        <v>1.8702400000000002E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1725,10 +1107,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.00183408</v>
+        <v>1.8340799999999999E-3</v>
       </c>
       <c r="C36">
-        <v>0.00189676</v>
+        <v>1.8967600000000002E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1736,10 +1118,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.00184444</v>
+        <v>1.8444399999999999E-3</v>
       </c>
       <c r="C37">
-        <v>0.00192328</v>
+        <v>1.9232800000000001E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1747,10 +1129,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.0018548</v>
+        <v>1.8548E-3</v>
       </c>
       <c r="C38">
-        <v>0.0019498</v>
+        <v>1.9498000000000002E-3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1758,10 +1140,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.00185264</v>
+        <v>1.85264E-3</v>
       </c>
       <c r="C39">
-        <v>0.0019432</v>
+        <v>1.9432000000000004E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1769,10 +1151,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.00185048</v>
+        <v>1.8504800000000001E-3</v>
       </c>
       <c r="C40">
-        <v>0.0019366</v>
+        <v>1.9366000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1780,10 +1162,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.00184832</v>
+        <v>1.8483200000000001E-3</v>
       </c>
       <c r="C41">
-        <v>0.00193</v>
+        <v>1.9300000000000001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1791,10 +1173,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.00184616</v>
+        <v>1.8461600000000001E-3</v>
       </c>
       <c r="C42">
-        <v>0.0019234</v>
+        <v>1.9233999999999998E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1802,10 +1184,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.001844</v>
+        <v>1.8440000000000002E-3</v>
       </c>
       <c r="C43">
-        <v>0.0019168</v>
+        <v>1.9168E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1813,10 +1195,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.00186512</v>
+        <v>1.8651200000000001E-3</v>
       </c>
       <c r="C44">
-        <v>0.00195404</v>
+        <v>1.9540399999999998E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1824,10 +1206,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.00188624</v>
+        <v>1.8862400000000002E-3</v>
       </c>
       <c r="C45">
-        <v>0.00199128</v>
+        <v>1.9912800000000002E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1835,10 +1217,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.00190736</v>
+        <v>1.9073600000000001E-3</v>
       </c>
       <c r="C46">
-        <v>0.00202852</v>
+        <v>2.0285200000000002E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1846,10 +1228,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.00192848</v>
+        <v>1.9284800000000002E-3</v>
       </c>
       <c r="C47">
-        <v>0.00206576</v>
+        <v>2.0657600000000003E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1857,10 +1239,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.0019496</v>
+        <v>1.9495999999999999E-3</v>
       </c>
       <c r="C48">
-        <v>0.002103</v>
+        <v>2.1030000000000003E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1868,10 +1250,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.00193544</v>
+        <v>1.9354399999999999E-3</v>
       </c>
       <c r="C49">
-        <v>0.00209204</v>
+        <v>2.0920400000000003E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1879,10 +1261,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.00192128</v>
+        <v>1.9212799999999998E-3</v>
       </c>
       <c r="C50">
-        <v>0.00208108</v>
+        <v>2.0810800000000003E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1890,10 +1272,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.00190712</v>
+        <v>1.9071200000000002E-3</v>
       </c>
       <c r="C51">
-        <v>0.00207012</v>
+        <v>2.0701199999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1901,10 +1283,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.00189296</v>
+        <v>1.8929600000000002E-3</v>
       </c>
       <c r="C52">
-        <v>0.00205916</v>
+        <v>2.05916E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1912,10 +1294,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.0018788</v>
+        <v>1.8788000000000001E-3</v>
       </c>
       <c r="C53">
-        <v>0.0020482</v>
+        <v>2.0482E-3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1923,10 +1305,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.00188116</v>
+        <v>1.88116E-3</v>
       </c>
       <c r="C54">
-        <v>0.00207248</v>
+        <v>2.0724799999999998E-3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1934,10 +1316,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.00188352</v>
+        <v>1.8835200000000001E-3</v>
       </c>
       <c r="C55">
-        <v>0.00209676</v>
+        <v>2.09676E-3</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1945,10 +1327,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.00188588</v>
+        <v>1.8858799999999999E-3</v>
       </c>
       <c r="C56">
-        <v>0.00212104</v>
+        <v>2.1210400000000003E-3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1956,10 +1338,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.00188824</v>
+        <v>1.8882400000000002E-3</v>
       </c>
       <c r="C57">
-        <v>0.00214532</v>
+        <v>2.1453200000000005E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1967,10 +1349,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.0018906</v>
+        <v>1.8905999999999999E-3</v>
       </c>
       <c r="C58">
-        <v>0.0021696</v>
+        <v>2.1696000000000003E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1978,10 +1360,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.00185408</v>
+        <v>1.8540799999999999E-3</v>
       </c>
       <c r="C59">
-        <v>0.00213568</v>
+        <v>2.13568E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1989,10 +1371,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.00181756</v>
+        <v>1.81756E-3</v>
       </c>
       <c r="C60">
-        <v>0.00210176</v>
+        <v>2.1017600000000003E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2000,10 +1382,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.00178104</v>
+        <v>1.7810399999999998E-3</v>
       </c>
       <c r="C61">
-        <v>0.00206784</v>
+        <v>2.06784E-3</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2011,10 +1393,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.00174452</v>
+        <v>1.7445200000000001E-3</v>
       </c>
       <c r="C62">
-        <v>0.00203392</v>
+        <v>2.0339200000000003E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2022,10 +1404,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.001708</v>
+        <v>1.7079999999999999E-3</v>
       </c>
       <c r="C63">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2033,10 +1415,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.001644</v>
+        <v>1.6439999999999998E-3</v>
       </c>
       <c r="C64">
-        <v>0.00192372</v>
+        <v>1.9237200000000003E-3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2044,10 +1426,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.00158</v>
+        <v>1.58E-3</v>
       </c>
       <c r="C65">
-        <v>0.00184744</v>
+        <v>1.8474400000000001E-3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2055,10 +1437,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.001516</v>
+        <v>1.516E-3</v>
       </c>
       <c r="C66">
-        <v>0.00177116</v>
+        <v>1.7711600000000001E-3</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2066,10 +1448,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.001452</v>
+        <v>1.4519999999999999E-3</v>
       </c>
       <c r="C67">
-        <v>0.00169488</v>
+        <v>1.69488E-3</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2077,10 +1459,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.001388</v>
+        <v>1.3880000000000001E-3</v>
       </c>
       <c r="C68">
-        <v>0.0016186</v>
+        <v>1.6186E-3</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2088,10 +1470,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.00132968</v>
+        <v>1.3296800000000002E-3</v>
       </c>
       <c r="C69">
-        <v>0.00155116</v>
+        <v>1.55116E-3</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2099,10 +1481,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.00127136</v>
+        <v>1.2713600000000002E-3</v>
       </c>
       <c r="C70">
-        <v>0.00148372</v>
+        <v>1.48372E-3</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2110,10 +1492,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.00121304</v>
+        <v>1.2130400000000001E-3</v>
       </c>
       <c r="C71">
-        <v>0.00141628</v>
+        <v>1.4162800000000002E-3</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2121,10 +1503,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.00115472</v>
+        <v>1.1547200000000001E-3</v>
       </c>
       <c r="C72">
-        <v>0.00134884</v>
+        <v>1.34884E-3</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2132,10 +1514,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.0010964</v>
+        <v>1.0964000000000002E-3</v>
       </c>
       <c r="C73">
-        <v>0.0012814</v>
+        <v>1.2814E-3</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2143,10 +1525,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.00102016</v>
+        <v>1.0201600000000002E-3</v>
       </c>
       <c r="C74">
-        <v>0.00121268</v>
+        <v>1.2126800000000001E-3</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2154,10 +1536,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.00094392</v>
+        <v>9.4392E-4</v>
       </c>
       <c r="C75">
-        <v>0.00114396</v>
+        <v>1.1439600000000001E-3</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2165,10 +1547,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.00086768</v>
+        <v>8.6768000000000001E-4</v>
       </c>
       <c r="C76">
-        <v>0.00107524</v>
+        <v>1.0752400000000001E-3</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2176,10 +1558,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.00079144</v>
+        <v>7.9144000000000013E-4</v>
       </c>
       <c r="C77">
-        <v>0.00100652</v>
+        <v>1.0065200000000001E-3</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2187,10 +1569,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.0007152</v>
+        <v>7.1520000000000004E-4</v>
       </c>
       <c r="C78">
-        <v>0.0009378</v>
+        <v>9.3780000000000003E-4</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2198,10 +1580,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.0006762</v>
+        <v>6.7620000000000006E-4</v>
       </c>
       <c r="C79">
-        <v>0.00089056</v>
+        <v>8.9055999999999998E-4</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2209,10 +1591,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.0006372</v>
+        <v>6.3719999999999998E-4</v>
       </c>
       <c r="C80">
-        <v>0.00084332</v>
+        <v>8.4331999999999994E-4</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2220,10 +1602,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.0005982</v>
+        <v>5.9820000000000001E-4</v>
       </c>
       <c r="C81">
-        <v>0.00079608</v>
+        <v>7.9608000000000001E-4</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2231,10 +1613,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.0005592</v>
+        <v>5.5920000000000004E-4</v>
       </c>
       <c r="C82">
-        <v>0.00074884</v>
+        <v>7.4884000000000007E-4</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2242,10 +1624,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.0005202</v>
+        <v>5.2020000000000007E-4</v>
       </c>
       <c r="C83">
-        <v>0.0007016</v>
+        <v>7.0160000000000003E-4</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2253,10 +1635,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.00047688</v>
+        <v>4.7688E-4</v>
       </c>
       <c r="C84">
-        <v>0.00065136</v>
+        <v>6.5136000000000002E-4</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2264,10 +1646,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.00043356</v>
+        <v>4.3355999999999999E-4</v>
       </c>
       <c r="C85">
-        <v>0.00060112</v>
+        <v>6.0112000000000002E-4</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2275,10 +1657,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.00039024</v>
+        <v>3.9024000000000003E-4</v>
       </c>
       <c r="C86">
-        <v>0.00055088</v>
+        <v>5.508799999999999E-4</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2286,10 +1668,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.00034692</v>
+        <v>3.4692000000000002E-4</v>
       </c>
       <c r="C87">
-        <v>0.00050064</v>
+        <v>5.0064E-4</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2297,10 +1679,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.0003036</v>
+        <v>3.0360000000000001E-4</v>
       </c>
       <c r="C88">
-        <v>0.0004504</v>
+        <v>4.504E-4</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2308,10 +1690,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.00027364</v>
+        <v>2.7364000000000002E-4</v>
       </c>
       <c r="C89">
-        <v>0.00041024</v>
+        <v>4.1023999999999998E-4</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2319,10 +1701,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.00024368</v>
+        <v>2.4368E-4</v>
       </c>
       <c r="C90">
-        <v>0.00037008</v>
+        <v>3.7008000000000001E-4</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2330,10 +1712,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.00021372</v>
+        <v>2.1372000000000001E-4</v>
       </c>
       <c r="C91">
-        <v>0.00032992</v>
+        <v>3.2991999999999999E-4</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2341,10 +1723,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.00018376</v>
+        <v>1.8375999999999999E-4</v>
       </c>
       <c r="C92">
-        <v>0.00028976</v>
+        <v>2.8975999999999996E-4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2352,10 +1734,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.0001538</v>
+        <v>1.538E-4</v>
       </c>
       <c r="C93">
-        <v>0.0002496</v>
+        <v>2.496E-4</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2363,10 +1745,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.0001344</v>
+        <v>1.3440000000000001E-4</v>
       </c>
       <c r="C94">
-        <v>0.00021668</v>
+        <v>2.1667999999999999E-4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2374,10 +1756,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.000115</v>
+        <v>1.1499999999999999E-4</v>
       </c>
       <c r="C95">
-        <v>0.00018376</v>
+        <v>1.8376000000000002E-4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2385,10 +1767,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>9.56e-5</v>
+        <v>9.5599999999999993E-5</v>
       </c>
       <c r="C96">
-        <v>0.00015084</v>
+        <v>1.5084000000000001E-4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2396,10 +1778,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>7.62e-5</v>
+        <v>7.6199999999999995E-5</v>
       </c>
       <c r="C97">
-        <v>0.00011792</v>
+        <v>1.1792000000000001E-4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2407,10 +1789,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>5.68e-5</v>
+        <v>5.6799999999999998E-5</v>
       </c>
       <c r="C98">
-        <v>8.5e-5</v>
+        <v>8.5000000000000006E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2418,10 +1800,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>4.916e-5</v>
+        <v>4.9159999999999997E-5</v>
       </c>
       <c r="C99">
-        <v>7.244e-5</v>
+        <v>7.2439999999999991E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2429,10 +1811,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>4.152e-5</v>
+        <v>4.1519999999999995E-5</v>
       </c>
       <c r="C100">
-        <v>5.988e-5</v>
+        <v>5.9880000000000003E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2440,30 +1822,26 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>3.388e-5</v>
+        <v>3.3879999999999994E-5</v>
       </c>
       <c r="C101">
-        <v>4.732e-5</v>
+        <v>4.7319999999999994E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>102</v>
       </c>
@@ -2473,7 +1851,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0.0215</v>
+        <v>2.1500000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2481,7 +1859,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0215</v>
+        <v>2.1500000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2489,7 +1867,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.0215</v>
+        <v>2.1500000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2497,7 +1875,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.0215</v>
+        <v>2.1500000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2505,7 +1883,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.0215</v>
+        <v>2.1500000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2513,7 +1891,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0594</v>
+        <v>5.9400000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2521,7 +1899,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>0.0594</v>
+        <v>5.9400000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2529,7 +1907,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>0.0594</v>
+        <v>5.9400000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2537,7 +1915,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>0.0594</v>
+        <v>5.9400000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2545,7 +1923,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.0594</v>
+        <v>5.9400000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2553,7 +1931,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>0.0818</v>
+        <v>8.1799999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2561,7 +1939,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>0.0818</v>
+        <v>8.1799999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2569,7 +1947,7 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>0.0818</v>
+        <v>8.1799999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2577,7 +1955,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>0.0818</v>
+        <v>8.1799999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2585,7 +1963,7 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>0.0818</v>
+        <v>8.1799999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2593,7 +1971,7 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>0.0851</v>
+        <v>8.5099999999999995E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2601,7 +1979,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>0.0851</v>
+        <v>8.5099999999999995E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2609,7 +1987,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>0.0851</v>
+        <v>8.5099999999999995E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2617,7 +1995,7 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>0.0851</v>
+        <v>8.5099999999999995E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2625,7 +2003,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>0.0851</v>
+        <v>8.5099999999999995E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2633,7 +2011,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>0.0611</v>
+        <v>6.1100000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2641,7 +2019,7 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>0.0611</v>
+        <v>6.1100000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2649,7 +2027,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>0.0611</v>
+        <v>6.1100000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2657,7 +2035,7 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>0.0611</v>
+        <v>6.1100000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2665,7 +2043,7 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>0.0611</v>
+        <v>6.1100000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2673,7 +2051,7 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2681,7 +2059,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2689,7 +2067,7 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2697,7 +2075,7 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2705,7 +2083,7 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2713,7 +2091,7 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>0.0024</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2721,7 +2099,7 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>0.0024</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2729,7 +2107,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>0.0024</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2737,7 +2115,7 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>0.0024</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2745,27 +2123,23 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>0.0024</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>103</v>
       </c>
@@ -2775,7 +2149,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0.0123034016601603</v>
+        <v>1.2303401660160302E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2783,7 +2157,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0123034016601603</v>
+        <v>1.2303401660160302E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2791,7 +2165,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.0123034016601603</v>
+        <v>1.2303401660160302E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2799,7 +2173,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.0123034016601603</v>
+        <v>1.2303401660160302E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2807,7 +2181,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.0123034016601603</v>
+        <v>1.2303401660160302E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2815,7 +2189,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0455932105911354</v>
+        <v>4.5593210591135407E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2823,7 +2197,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>0.0455932105911354</v>
+        <v>4.5593210591135407E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2831,7 +2205,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>0.0455932105911354</v>
+        <v>4.5593210591135407E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2839,7 +2213,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>0.0455932105911354</v>
+        <v>4.5593210591135407E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2847,7 +2221,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.0455932105911354</v>
+        <v>4.5593210591135407E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2855,7 +2229,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>0.0879539333517565</v>
+        <v>8.7953933351756511E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2863,7 +2237,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>0.0879539333517565</v>
+        <v>8.7953933351756511E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2871,7 +2245,7 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>0.0879539333517565</v>
+        <v>8.7953933351756511E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2879,7 +2253,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>0.0879539333517565</v>
+        <v>8.7953933351756511E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2887,7 +2261,7 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>0.0879539333517565</v>
+        <v>8.7953933351756511E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2895,7 +2269,7 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>0.107318717911465</v>
+        <v>0.10731871791146501</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2903,7 +2277,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>0.107318717911465</v>
+        <v>0.10731871791146501</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2911,7 +2285,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>0.107318717911465</v>
+        <v>0.10731871791146501</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2919,7 +2293,7 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>0.107318717911465</v>
+        <v>0.10731871791146501</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2927,7 +2301,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>0.107318717911465</v>
+        <v>0.10731871791146501</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2935,7 +2309,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>0.0646720968737279</v>
+        <v>6.4672096873727894E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2943,7 +2317,7 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>0.0646720968737279</v>
+        <v>6.4672096873727894E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2951,7 +2325,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>0.0646720968737279</v>
+        <v>6.4672096873727894E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2959,7 +2333,7 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>0.0646720968737279</v>
+        <v>6.4672096873727894E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2967,7 +2341,7 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>0.0646720968737279</v>
+        <v>6.4672096873727894E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2975,7 +2349,7 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>0.0154047684335841</v>
+        <v>1.5404768433584102E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2983,7 +2357,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>0.0154047684335841</v>
+        <v>1.5404768433584102E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2991,7 +2365,7 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>0.0154047684335841</v>
+        <v>1.5404768433584102E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2999,7 +2373,7 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>0.0154047684335841</v>
+        <v>1.5404768433584102E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3007,7 +2381,7 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>0.0154047684335841</v>
+        <v>1.5404768433584102E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3015,7 +2389,7 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>0.00143004733583908</v>
+        <v>1.4300473358390799E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3023,7 +2397,7 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>0.00143004733583908</v>
+        <v>1.4300473358390799E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3031,7 +2405,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>0.00143004733583908</v>
+        <v>1.4300473358390799E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3039,7 +2413,7 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>0.00143004733583908</v>
+        <v>1.4300473358390799E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3047,27 +2421,23 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>0.00143004733583908</v>
+        <v>1.4300473358390799E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
@@ -3086,16 +2456,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.990131</v>
+        <v>0.99013100000000009</v>
       </c>
       <c r="C2">
-        <v>0.991691</v>
+        <v>0.9916910000000001</v>
       </c>
       <c r="D2">
-        <v>0.995584662776319</v>
+        <v>0.99558466277631907</v>
       </c>
       <c r="E2">
-        <v>0.996230063930079</v>
+        <v>0.99623006393007918</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3103,16 +2473,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.999489879267379</v>
+        <v>0.99948987926737887</v>
       </c>
       <c r="C3">
-        <v>0.999560081925304</v>
+        <v>0.99956008192530355</v>
       </c>
       <c r="D3">
-        <v>0.999738102818496</v>
+        <v>0.99973810281849629</v>
       </c>
       <c r="E3">
-        <v>0.999774353315056</v>
+        <v>0.99977435331505593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3120,16 +2490,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.999489879267379</v>
+        <v>0.99948987926737898</v>
       </c>
       <c r="C4">
-        <v>0.999560081925304</v>
+        <v>0.99956008192530355</v>
       </c>
       <c r="D4">
-        <v>0.999738102818496</v>
+        <v>0.9997381028184964</v>
       </c>
       <c r="E4">
-        <v>0.999774353315056</v>
+        <v>0.99977435331505582</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3137,16 +2507,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.999489879267379</v>
+        <v>0.99948987926737898</v>
       </c>
       <c r="C5">
-        <v>0.999560081925304</v>
+        <v>0.99956008192530355</v>
       </c>
       <c r="D5">
-        <v>0.999738102818496</v>
+        <v>0.9997381028184964</v>
       </c>
       <c r="E5">
-        <v>0.999774353315056</v>
+        <v>0.99977435331505604</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3154,16 +2524,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.999759405492973</v>
+        <v>0.99975940549297293</v>
       </c>
       <c r="C6">
-        <v>1.00014516403074</v>
+        <v>1.0001451640307411</v>
       </c>
       <c r="D6">
-        <v>0.999879796291628</v>
+        <v>0.99987979629162838</v>
       </c>
       <c r="E6">
-        <v>0.999895583163544</v>
+        <v>0.99989558316354421</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3171,16 +2541,16 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.999759405492973</v>
+        <v>0.99975940549297293</v>
       </c>
       <c r="C7">
-        <v>1.00014516403074</v>
+        <v>1.0001451640307408</v>
       </c>
       <c r="D7">
-        <v>0.999879796291628</v>
+        <v>0.99987979629162838</v>
       </c>
       <c r="E7">
-        <v>0.999895583163544</v>
+        <v>0.99989558316354421</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3188,16 +2558,16 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.999759405492973</v>
+        <v>0.99975940549297293</v>
       </c>
       <c r="C8">
-        <v>1.00014516403074</v>
+        <v>1.0001451640307408</v>
       </c>
       <c r="D8">
-        <v>0.999879796291628</v>
+        <v>0.99987979629162849</v>
       </c>
       <c r="E8">
-        <v>0.999895583163544</v>
+        <v>0.9998955831635441</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3205,16 +2575,16 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.999759405492973</v>
+        <v>0.99975940549297293</v>
       </c>
       <c r="C9">
-        <v>1.00014516403074</v>
+        <v>1.0001451640307411</v>
       </c>
       <c r="D9">
-        <v>0.999879796291628</v>
+        <v>0.99987979629162826</v>
       </c>
       <c r="E9">
-        <v>0.999895583163544</v>
+        <v>0.9998955831635441</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3222,16 +2592,16 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.999759405492973</v>
+        <v>0.99975940549297293</v>
       </c>
       <c r="C10">
-        <v>1.00014516403074</v>
+        <v>1.0001451640307411</v>
       </c>
       <c r="D10">
-        <v>0.999879796291628</v>
+        <v>0.99987979629162838</v>
       </c>
       <c r="E10">
-        <v>0.999895583163544</v>
+        <v>0.99989558316354432</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3239,16 +2609,16 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.99975686412382</v>
+        <v>0.9997568641238197</v>
       </c>
       <c r="C11">
-        <v>1.00017174752038</v>
+        <v>1.0001717475203848</v>
       </c>
       <c r="D11">
-        <v>0.999831112473308</v>
+        <v>0.99983111247330836</v>
       </c>
       <c r="E11">
-        <v>0.999887524578016</v>
+        <v>0.99988752457801644</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3256,16 +2626,16 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.99975686412382</v>
+        <v>0.99975686412381981</v>
       </c>
       <c r="C12">
-        <v>1.00017174752038</v>
+        <v>1.0001717475203848</v>
       </c>
       <c r="D12">
-        <v>0.999831112473308</v>
+        <v>0.99983111247330825</v>
       </c>
       <c r="E12">
-        <v>0.999887524578016</v>
+        <v>0.99988752457801644</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3273,16 +2643,16 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.99975686412382</v>
+        <v>0.99975686412381992</v>
       </c>
       <c r="C13">
-        <v>1.00017174752039</v>
+        <v>1.0001717475203851</v>
       </c>
       <c r="D13">
-        <v>0.999831112473308</v>
+        <v>0.99983111247330825</v>
       </c>
       <c r="E13">
-        <v>0.999887524578017</v>
+        <v>0.99988752457801655</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3290,16 +2660,16 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.99975686412382</v>
+        <v>0.99975686412381981</v>
       </c>
       <c r="C14">
-        <v>1.00017174752038</v>
+        <v>1.0001717475203848</v>
       </c>
       <c r="D14">
-        <v>0.999831112473308</v>
+        <v>0.99983111247330825</v>
       </c>
       <c r="E14">
-        <v>0.999887524578016</v>
+        <v>0.99988752457801622</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3307,16 +2677,16 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.99975686412382</v>
+        <v>0.9997568641238197</v>
       </c>
       <c r="C15">
-        <v>1.00017174752038</v>
+        <v>1.0001717475203848</v>
       </c>
       <c r="D15">
-        <v>0.999831112473308</v>
+        <v>0.99983111247330847</v>
       </c>
       <c r="E15">
-        <v>0.999887524578017</v>
+        <v>0.99988752457801655</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3324,16 +2694,16 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.999303827253424</v>
+        <v>0.99930382725342382</v>
       </c>
       <c r="C16">
-        <v>0.999994684058695</v>
+        <v>0.99999468405869485</v>
       </c>
       <c r="D16">
-        <v>0.999560418814419</v>
+        <v>0.99956041881441948</v>
       </c>
       <c r="E16">
-        <v>0.999806130134754</v>
+        <v>0.99980613013475417</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3341,16 +2711,16 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.999303827253424</v>
+        <v>0.9993038272534237</v>
       </c>
       <c r="C17">
-        <v>0.999994684058695</v>
+        <v>0.99999468405869485</v>
       </c>
       <c r="D17">
-        <v>0.99956041881442</v>
+        <v>0.9995604188144197</v>
       </c>
       <c r="E17">
-        <v>0.999806130134754</v>
+        <v>0.99980613013475417</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3358,16 +2728,16 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.999303827253424</v>
+        <v>0.99930382725342393</v>
       </c>
       <c r="C18">
-        <v>0.999994684058695</v>
+        <v>0.99999468405869507</v>
       </c>
       <c r="D18">
-        <v>0.99956041881442</v>
+        <v>0.99956041881441959</v>
       </c>
       <c r="E18">
-        <v>0.999806130134754</v>
+        <v>0.99980613013475406</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3375,16 +2745,16 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.999303827253424</v>
+        <v>0.9993038272534237</v>
       </c>
       <c r="C19">
-        <v>0.999994684058695</v>
+        <v>0.99999468405869485</v>
       </c>
       <c r="D19">
-        <v>0.99956041881442</v>
+        <v>0.9995604188144197</v>
       </c>
       <c r="E19">
-        <v>0.999806130134754</v>
+        <v>0.99980613013475417</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3392,16 +2762,16 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.999303827253424</v>
+        <v>0.99930382725342382</v>
       </c>
       <c r="C20">
-        <v>0.999994684058695</v>
+        <v>0.99999468405869485</v>
       </c>
       <c r="D20">
-        <v>0.999560418814419</v>
+        <v>0.99956041881441948</v>
       </c>
       <c r="E20">
-        <v>0.999806130134754</v>
+        <v>0.99980613013475417</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3409,16 +2779,16 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.999058861958132</v>
+        <v>0.99905886195813232</v>
       </c>
       <c r="C21">
-        <v>1.00017754080197</v>
+        <v>1.0001775408019666</v>
       </c>
       <c r="D21">
-        <v>0.999219403805382</v>
+        <v>0.99921940380538199</v>
       </c>
       <c r="E21">
-        <v>0.99970132343731</v>
+        <v>0.99970132343730977</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3426,16 +2796,16 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.999058861958132</v>
+        <v>0.99905886195813232</v>
       </c>
       <c r="C22">
-        <v>1.00017754080197</v>
+        <v>1.0001775408019669</v>
       </c>
       <c r="D22">
-        <v>0.999219403805382</v>
+        <v>0.9992194038053821</v>
       </c>
       <c r="E22">
-        <v>0.99970132343731</v>
+        <v>0.99970132343730977</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3443,16 +2813,16 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.999058861958132</v>
+        <v>0.99905886195813232</v>
       </c>
       <c r="C23">
-        <v>1.00017754080197</v>
+        <v>1.0001775408019666</v>
       </c>
       <c r="D23">
-        <v>0.999219403805382</v>
+        <v>0.99921940380538199</v>
       </c>
       <c r="E23">
-        <v>0.99970132343731</v>
+        <v>0.99970132343730989</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3460,16 +2830,16 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.999058861958132</v>
+        <v>0.99905886195813243</v>
       </c>
       <c r="C24">
-        <v>1.00017754080197</v>
+        <v>1.0001775408019664</v>
       </c>
       <c r="D24">
-        <v>0.999219403805382</v>
+        <v>0.99921940380538199</v>
       </c>
       <c r="E24">
-        <v>0.99970132343731</v>
+        <v>0.99970132343730966</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3477,16 +2847,16 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.999058861958132</v>
+        <v>0.99905886195813232</v>
       </c>
       <c r="C25">
-        <v>1.00017754080197</v>
+        <v>1.0001775408019666</v>
       </c>
       <c r="D25">
-        <v>0.999219403805382</v>
+        <v>0.9992194038053821</v>
       </c>
       <c r="E25">
-        <v>0.99970132343731</v>
+        <v>0.99970132343730989</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3494,16 +2864,16 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.999086525493309</v>
+        <v>0.99908652549330934</v>
       </c>
       <c r="C26">
-        <v>1.00052207701043</v>
+        <v>1.0005220770104311</v>
       </c>
       <c r="D26">
-        <v>0.999024102389681</v>
+        <v>0.99902410238968142</v>
       </c>
       <c r="E26">
-        <v>0.99959710625471</v>
+        <v>0.99959710625470966</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3511,16 +2881,16 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.999086525493309</v>
+        <v>0.99908652549330945</v>
       </c>
       <c r="C27">
-        <v>1.00052207701043</v>
+        <v>1.0005220770104308</v>
       </c>
       <c r="D27">
-        <v>0.999024102389681</v>
+        <v>0.99902410238968142</v>
       </c>
       <c r="E27">
-        <v>0.99959710625471</v>
+        <v>0.99959710625470966</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3528,16 +2898,16 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.999086525493309</v>
+        <v>0.99908652549330934</v>
       </c>
       <c r="C28">
-        <v>1.00052207701043</v>
+        <v>1.0005220770104311</v>
       </c>
       <c r="D28">
-        <v>0.999024102389682</v>
+        <v>0.99902410238968153</v>
       </c>
       <c r="E28">
-        <v>0.99959710625471</v>
+        <v>0.99959710625470954</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3545,16 +2915,16 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.999086525493309</v>
+        <v>0.99908652549330945</v>
       </c>
       <c r="C29">
-        <v>1.00052207701043</v>
+        <v>1.0005220770104311</v>
       </c>
       <c r="D29">
-        <v>0.999024102389682</v>
+        <v>0.99902410238968153</v>
       </c>
       <c r="E29">
-        <v>0.99959710625471</v>
+        <v>0.99959710625470977</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3562,16 +2932,16 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.999086525493309</v>
+        <v>0.99908652549330945</v>
       </c>
       <c r="C30">
-        <v>1.00052207701043</v>
+        <v>1.0005220770104311</v>
       </c>
       <c r="D30">
-        <v>0.999024102389681</v>
+        <v>0.99902410238968142</v>
       </c>
       <c r="E30">
-        <v>0.99959710625471</v>
+        <v>0.99959710625470966</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3579,16 +2949,16 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.998962799761555</v>
+        <v>0.99896279976155489</v>
       </c>
       <c r="C31">
-        <v>1.00064075494966</v>
+        <v>1.0006407549496603</v>
       </c>
       <c r="D31">
         <v>0.998907537315608</v>
       </c>
       <c r="E31">
-        <v>0.999470011106953</v>
+        <v>0.99947001110695288</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3596,16 +2966,16 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.998962799761555</v>
+        <v>0.99896279976155489</v>
       </c>
       <c r="C32">
-        <v>1.00064075494966</v>
+        <v>1.0006407549496601</v>
       </c>
       <c r="D32">
-        <v>0.998907537315608</v>
+        <v>0.99890753731560789</v>
       </c>
       <c r="E32">
-        <v>0.999470011106953</v>
+        <v>0.99947001110695288</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3613,16 +2983,16 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.998962799761555</v>
+        <v>0.99896279976155511</v>
       </c>
       <c r="C33">
-        <v>1.00064075494966</v>
+        <v>1.0006407549496603</v>
       </c>
       <c r="D33">
         <v>0.998907537315608</v>
       </c>
       <c r="E33">
-        <v>0.999470011106953</v>
+        <v>0.99947001110695288</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3630,16 +3000,16 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.998962799761555</v>
+        <v>0.99896279976155478</v>
       </c>
       <c r="C34">
-        <v>1.00064075494966</v>
+        <v>1.0006407549496605</v>
       </c>
       <c r="D34">
         <v>0.998907537315608</v>
       </c>
       <c r="E34">
-        <v>0.999470011106953</v>
+        <v>0.99947001110695288</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3650,13 +3020,13 @@
         <v>0.998962799761555</v>
       </c>
       <c r="C35">
-        <v>1.00064075494966</v>
+        <v>1.0006407549496601</v>
       </c>
       <c r="D35">
         <v>0.998907537315608</v>
       </c>
       <c r="E35">
-        <v>0.999470011106953</v>
+        <v>0.99947001110695277</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3664,16 +3034,16 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.9985950321732</v>
+        <v>0.99859503217319956</v>
       </c>
       <c r="C36">
-        <v>1.00052009989016</v>
+        <v>1.0005200998901611</v>
       </c>
       <c r="D36">
-        <v>0.998680360055872</v>
+        <v>0.9986803600558718</v>
       </c>
       <c r="E36">
-        <v>0.999279456839783</v>
+        <v>0.99927945683978259</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3681,16 +3051,16 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.9985950321732</v>
+        <v>0.99859503217319967</v>
       </c>
       <c r="C37">
-        <v>1.00052009989016</v>
+        <v>1.0005200998901611</v>
       </c>
       <c r="D37">
-        <v>0.998680360055872</v>
+        <v>0.99868036005587191</v>
       </c>
       <c r="E37">
-        <v>0.999279456839783</v>
+        <v>0.99927945683978281</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3698,16 +3068,16 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.9985950321732</v>
+        <v>0.99859503217319956</v>
       </c>
       <c r="C38">
-        <v>1.00052009989016</v>
+        <v>1.0005200998901609</v>
       </c>
       <c r="D38">
-        <v>0.998680360055872</v>
+        <v>0.9986803600558718</v>
       </c>
       <c r="E38">
-        <v>0.999279456839783</v>
+        <v>0.9992794568397827</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3715,16 +3085,16 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.9985950321732</v>
+        <v>0.99859503217319956</v>
       </c>
       <c r="C39">
-        <v>1.00052009989016</v>
+        <v>1.0005200998901613</v>
       </c>
       <c r="D39">
-        <v>0.998680360055872</v>
+        <v>0.9986803600558718</v>
       </c>
       <c r="E39">
-        <v>0.999279456839783</v>
+        <v>0.9992794568397827</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3732,16 +3102,16 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.9985950321732</v>
+        <v>0.99859503217319967</v>
       </c>
       <c r="C40">
-        <v>1.00052009989016</v>
+        <v>1.0005200998901611</v>
       </c>
       <c r="D40">
-        <v>0.998680360055872</v>
+        <v>0.99868036005587169</v>
       </c>
       <c r="E40">
-        <v>0.999279456839783</v>
+        <v>0.99927945683978281</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3749,16 +3119,16 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.997873918210856</v>
+        <v>0.99787391821085603</v>
       </c>
       <c r="C41">
-        <v>1.00015620111354</v>
+        <v>1.0001562011135405</v>
       </c>
       <c r="D41">
-        <v>0.998172795753777</v>
+        <v>0.99817279575377749</v>
       </c>
       <c r="E41">
-        <v>0.998942132756624</v>
+        <v>0.99894213275662436</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3766,16 +3136,16 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.997873918210856</v>
+        <v>0.99787391821085603</v>
       </c>
       <c r="C42">
-        <v>1.00015620111354</v>
+        <v>1.0001562011135405</v>
       </c>
       <c r="D42">
-        <v>0.998172795753777</v>
+        <v>0.99817279575377738</v>
       </c>
       <c r="E42">
-        <v>0.998942132756624</v>
+        <v>0.99894213275662436</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3783,16 +3153,16 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.997873918210856</v>
+        <v>0.99787391821085603</v>
       </c>
       <c r="C43">
-        <v>1.00015620111354</v>
+        <v>1.0001562011135405</v>
       </c>
       <c r="D43">
-        <v>0.998172795753777</v>
+        <v>0.99817279575377738</v>
       </c>
       <c r="E43">
-        <v>0.998942132756624</v>
+        <v>0.99894213275662425</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3800,16 +3170,16 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.997873918210856</v>
+        <v>0.99787391821085603</v>
       </c>
       <c r="C44">
-        <v>1.00015620111354</v>
+        <v>1.0001562011135405</v>
       </c>
       <c r="D44">
-        <v>0.998172795753777</v>
+        <v>0.99817279575377726</v>
       </c>
       <c r="E44">
-        <v>0.998942132756624</v>
+        <v>0.99894213275662447</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3817,16 +3187,16 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.997873918210856</v>
+        <v>0.99787391821085614</v>
       </c>
       <c r="C45">
-        <v>1.00015620111354</v>
+        <v>1.0001562011135405</v>
       </c>
       <c r="D45">
-        <v>0.998172795753777</v>
+        <v>0.99817279575377738</v>
       </c>
       <c r="E45">
-        <v>0.998942132756624</v>
+        <v>0.99894213275662425</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3834,16 +3204,16 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.996486872779449</v>
+        <v>0.99648687277944903</v>
       </c>
       <c r="C46">
-        <v>0.999515905934445</v>
+        <v>0.99951590593444473</v>
       </c>
       <c r="D46">
-        <v>0.997225881580674</v>
+        <v>0.99722588158067382</v>
       </c>
       <c r="E46">
-        <v>0.998371128753459</v>
+        <v>0.99837112875345935</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3851,16 +3221,16 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.996486872779449</v>
+        <v>0.99648687277944914</v>
       </c>
       <c r="C47">
-        <v>0.999515905934445</v>
+        <v>0.99951590593444462</v>
       </c>
       <c r="D47">
-        <v>0.997225881580674</v>
+        <v>0.99722588158067382</v>
       </c>
       <c r="E47">
-        <v>0.998371128753459</v>
+        <v>0.99837112875345935</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3868,16 +3238,16 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.996486872779449</v>
+        <v>0.99648687277944903</v>
       </c>
       <c r="C48">
-        <v>0.999515905934445</v>
+        <v>0.99951590593444462</v>
       </c>
       <c r="D48">
-        <v>0.997225881580674</v>
+        <v>0.99722588158067393</v>
       </c>
       <c r="E48">
-        <v>0.998371128753459</v>
+        <v>0.99837112875345935</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3885,16 +3255,16 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.996486872779449</v>
+        <v>0.99648687277944903</v>
       </c>
       <c r="C49">
-        <v>0.999515905934445</v>
+        <v>0.99951590593444484</v>
       </c>
       <c r="D49">
-        <v>0.997225881580674</v>
+        <v>0.99722588158067382</v>
       </c>
       <c r="E49">
-        <v>0.998371128753459</v>
+        <v>0.99837112875345924</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3902,16 +3272,16 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.996486872779449</v>
+        <v>0.99648687277944903</v>
       </c>
       <c r="C50">
-        <v>0.999515905934445</v>
+        <v>0.99951590593444462</v>
       </c>
       <c r="D50">
-        <v>0.997225881580674</v>
+        <v>0.99722588158067393</v>
       </c>
       <c r="E50">
-        <v>0.998371128753459</v>
+        <v>0.99837112875345935</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3919,16 +3289,16 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.994092229514966</v>
+        <v>0.9940922295149659</v>
       </c>
       <c r="C51">
-        <v>0.998816189250684</v>
+        <v>0.99881618925068383</v>
       </c>
       <c r="D51">
-        <v>0.995622303082806</v>
+        <v>0.99562230308280553</v>
       </c>
       <c r="E51">
-        <v>0.99749897621735</v>
+        <v>0.99749897621734984</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3936,16 +3306,16 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.994092229514966</v>
+        <v>0.99409222951496568</v>
       </c>
       <c r="C52">
-        <v>0.998816189250684</v>
+        <v>0.99881618925068394</v>
       </c>
       <c r="D52">
-        <v>0.995622303082805</v>
+        <v>0.99562230308280542</v>
       </c>
       <c r="E52">
-        <v>0.99749897621735</v>
+        <v>0.99749897621734962</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3953,16 +3323,16 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.994092229514966</v>
+        <v>0.99409222951496568</v>
       </c>
       <c r="C53">
-        <v>0.998816189250684</v>
+        <v>0.99881618925068394</v>
       </c>
       <c r="D53">
-        <v>0.995622303082806</v>
+        <v>0.99562230308280553</v>
       </c>
       <c r="E53">
-        <v>0.99749897621735</v>
+        <v>0.99749897621734984</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3970,16 +3340,16 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.994092229514966</v>
+        <v>0.9940922295149659</v>
       </c>
       <c r="C54">
-        <v>0.998816189250684</v>
+        <v>0.99881618925068394</v>
       </c>
       <c r="D54">
-        <v>0.995622303082806</v>
+        <v>0.99562230308280564</v>
       </c>
       <c r="E54">
-        <v>0.99749897621735</v>
+        <v>0.99749897621734973</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3987,16 +3357,16 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.994092229514966</v>
+        <v>0.99409222951496568</v>
       </c>
       <c r="C55">
-        <v>0.998816189250684</v>
+        <v>0.99881618925068394</v>
       </c>
       <c r="D55">
-        <v>0.995622303082805</v>
+        <v>0.99562230308280542</v>
       </c>
       <c r="E55">
-        <v>0.99749897621735</v>
+        <v>0.99749897621734995</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4004,16 +3374,16 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.99012173716201</v>
+        <v>0.99012173716201002</v>
       </c>
       <c r="C56">
-        <v>0.998364981724389</v>
+        <v>0.99836498172438892</v>
       </c>
       <c r="D56">
-        <v>0.993112558244816</v>
+        <v>0.9931125582448157</v>
       </c>
       <c r="E56">
-        <v>0.996215986188665</v>
+        <v>0.99621598618866547</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4021,16 +3391,16 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.99012173716201</v>
+        <v>0.99012173716200991</v>
       </c>
       <c r="C57">
-        <v>0.998364981724389</v>
+        <v>0.99836498172438892</v>
       </c>
       <c r="D57">
-        <v>0.993112558244816</v>
+        <v>0.99311255824481559</v>
       </c>
       <c r="E57">
-        <v>0.996215986188665</v>
+        <v>0.99621598618866536</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4038,16 +3408,16 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.99012173716201</v>
+        <v>0.99012173716201013</v>
       </c>
       <c r="C58">
-        <v>0.998364981724389</v>
+        <v>0.99836498172438881</v>
       </c>
       <c r="D58">
-        <v>0.993112558244816</v>
+        <v>0.9931125582448157</v>
       </c>
       <c r="E58">
-        <v>0.996215986188665</v>
+        <v>0.99621598618866525</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4055,16 +3425,16 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.99012173716201</v>
+        <v>0.99012173716201013</v>
       </c>
       <c r="C59">
-        <v>0.998364981724389</v>
+        <v>0.99836498172438892</v>
       </c>
       <c r="D59">
-        <v>0.993112558244816</v>
+        <v>0.9931125582448157</v>
       </c>
       <c r="E59">
-        <v>0.996215986188666</v>
+        <v>0.99621598618866569</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4072,16 +3442,16 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.99012173716201</v>
+        <v>0.99012173716200991</v>
       </c>
       <c r="C60">
-        <v>0.998364981724389</v>
+        <v>0.99836498172438892</v>
       </c>
       <c r="D60">
-        <v>0.993112558244816</v>
+        <v>0.9931125582448157</v>
       </c>
       <c r="E60">
-        <v>0.996215986188665</v>
+        <v>0.99621598618866536</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4089,16 +3459,16 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.988156367143</v>
+        <v>0.98815636714300026</v>
       </c>
       <c r="C61">
-        <v>1.00011257377793</v>
+        <v>1.0001125737779295</v>
       </c>
       <c r="D61">
-        <v>0.989499648015024</v>
+        <v>0.98949964801502366</v>
       </c>
       <c r="E61">
-        <v>0.994325401552971</v>
+        <v>0.99432540155297122</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4106,16 +3476,16 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.988156367143</v>
+        <v>0.98815636714300026</v>
       </c>
       <c r="C62">
-        <v>1.00011257377793</v>
+        <v>1.0001125737779295</v>
       </c>
       <c r="D62">
-        <v>0.989499648015023</v>
+        <v>0.98949964801502333</v>
       </c>
       <c r="E62">
-        <v>0.994325401552971</v>
+        <v>0.99432540155297133</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4123,16 +3493,16 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.988156367143</v>
+        <v>0.98815636714300026</v>
       </c>
       <c r="C63">
-        <v>1.00011257377793</v>
+        <v>1.0001125737779295</v>
       </c>
       <c r="D63">
-        <v>0.989499648015024</v>
+        <v>0.98949964801502355</v>
       </c>
       <c r="E63">
-        <v>0.994325401552971</v>
+        <v>0.99432540155297111</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4140,16 +3510,16 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.988156367143</v>
+        <v>0.98815636714300026</v>
       </c>
       <c r="C64">
-        <v>1.00011257377793</v>
+        <v>1.0001125737779295</v>
       </c>
       <c r="D64">
-        <v>0.989499648015024</v>
+        <v>0.98949964801502355</v>
       </c>
       <c r="E64">
-        <v>0.994325401552971</v>
+        <v>0.99432540155297144</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4157,16 +3527,16 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.988156367143</v>
+        <v>0.98815636714300026</v>
       </c>
       <c r="C65">
-        <v>1.00011257377793</v>
+        <v>1.0001125737779295</v>
       </c>
       <c r="D65">
-        <v>0.989499648015024</v>
+        <v>0.98949964801502355</v>
       </c>
       <c r="E65">
-        <v>0.994325401552971</v>
+        <v>0.99432540155297111</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4174,16 +3544,16 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.985769090387216</v>
+        <v>0.98576909038721583</v>
       </c>
       <c r="C66">
-        <v>1.00152427615068</v>
+        <v>1.0015242761506795</v>
       </c>
       <c r="D66">
-        <v>0.984995174900838</v>
+        <v>0.98499517490083799</v>
       </c>
       <c r="E66">
-        <v>0.991820947622765</v>
+        <v>0.99182094762276485</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4191,16 +3561,16 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.985769090387216</v>
+        <v>0.98576909038721583</v>
       </c>
       <c r="C67">
-        <v>1.00152427615068</v>
+        <v>1.0015242761506795</v>
       </c>
       <c r="D67">
-        <v>0.984995174900838</v>
+        <v>0.9849951749008381</v>
       </c>
       <c r="E67">
-        <v>0.991820947622765</v>
+        <v>0.99182094762276485</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4208,16 +3578,16 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.985769090387216</v>
+        <v>0.98576909038721572</v>
       </c>
       <c r="C68">
-        <v>1.00152427615068</v>
+        <v>1.0015242761506795</v>
       </c>
       <c r="D68">
-        <v>0.984995174900838</v>
+        <v>0.98499517490083788</v>
       </c>
       <c r="E68">
-        <v>0.991820947622765</v>
+        <v>0.99182094762276485</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4225,16 +3595,16 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.985769090387216</v>
+        <v>0.98576909038721572</v>
       </c>
       <c r="C69">
-        <v>1.00152427615068</v>
+        <v>1.0015242761506793</v>
       </c>
       <c r="D69">
-        <v>0.984995174900838</v>
+        <v>0.9849951749008381</v>
       </c>
       <c r="E69">
-        <v>0.991820947622765</v>
+        <v>0.99182094762276496</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4242,16 +3612,16 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.985769090387216</v>
+        <v>0.98576909038721572</v>
       </c>
       <c r="C70">
-        <v>1.00152427615068</v>
+        <v>1.0015242761506797</v>
       </c>
       <c r="D70">
-        <v>0.984995174900838</v>
+        <v>0.98499517490083788</v>
       </c>
       <c r="E70">
-        <v>0.991820947622765</v>
+        <v>0.99182094762276474</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4259,16 +3629,16 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.979978400819866</v>
+        <v>0.97997840081986565</v>
       </c>
       <c r="C71">
-        <v>0.999571993379942</v>
+        <v>0.99957199337994151</v>
       </c>
       <c r="D71">
-        <v>0.976442932076924</v>
+        <v>0.97644293207692445</v>
       </c>
       <c r="E71">
-        <v>0.986397076525403</v>
+        <v>0.98639707652540298</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4276,16 +3646,16 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.979978400819865</v>
+        <v>0.97997840081986543</v>
       </c>
       <c r="C72">
-        <v>0.999571993379942</v>
+        <v>0.99957199337994163</v>
       </c>
       <c r="D72">
-        <v>0.976442932076924</v>
+        <v>0.97644293207692445</v>
       </c>
       <c r="E72">
-        <v>0.986397076525403</v>
+        <v>0.98639707652540287</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4293,16 +3663,16 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.979978400819866</v>
+        <v>0.97997840081986554</v>
       </c>
       <c r="C73">
-        <v>0.999571993379942</v>
+        <v>0.99957199337994151</v>
       </c>
       <c r="D73">
-        <v>0.976442932076925</v>
+        <v>0.97644293207692456</v>
       </c>
       <c r="E73">
-        <v>0.986397076525403</v>
+        <v>0.98639707652540309</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4310,16 +3680,16 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.979978400819866</v>
+        <v>0.97997840081986554</v>
       </c>
       <c r="C74">
-        <v>0.999571993379941</v>
+        <v>0.9995719933799414</v>
       </c>
       <c r="D74">
-        <v>0.976442932076924</v>
+        <v>0.97644293207692445</v>
       </c>
       <c r="E74">
-        <v>0.986397076525403</v>
+        <v>0.98639707652540298</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4327,16 +3697,16 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.979978400819866</v>
+        <v>0.97997840081986554</v>
       </c>
       <c r="C75">
-        <v>0.999571993379942</v>
+        <v>0.99957199337994163</v>
       </c>
       <c r="D75">
-        <v>0.976442932076924</v>
+        <v>0.97644293207692445</v>
       </c>
       <c r="E75">
-        <v>0.986397076525403</v>
+        <v>0.98639707652540298</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4347,13 +3717,13 @@
         <v>0.96536390222057</v>
       </c>
       <c r="C76">
-        <v>0.989592750240028</v>
+        <v>0.98959275024002846</v>
       </c>
       <c r="D76">
-        <v>0.960117119811948</v>
+        <v>0.96011711981194758</v>
       </c>
       <c r="E76">
-        <v>0.974953072512602</v>
+        <v>0.97495307251260244</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4361,16 +3731,16 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.96536390222057</v>
+        <v>0.96536390222057022</v>
       </c>
       <c r="C77">
-        <v>0.989592750240028</v>
+        <v>0.98959275024002846</v>
       </c>
       <c r="D77">
-        <v>0.960117119811947</v>
+        <v>0.96011711981194736</v>
       </c>
       <c r="E77">
-        <v>0.974953072512602</v>
+        <v>0.97495307251260244</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4381,13 +3751,13 @@
         <v>0.96536390222057</v>
       </c>
       <c r="C78">
-        <v>0.989592750240028</v>
+        <v>0.98959275024002835</v>
       </c>
       <c r="D78">
-        <v>0.960117119811948</v>
+        <v>0.96011711981194758</v>
       </c>
       <c r="E78">
-        <v>0.974953072512603</v>
+        <v>0.97495307251260255</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4395,16 +3765,16 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.96536390222057</v>
+        <v>0.96536390222057022</v>
       </c>
       <c r="C79">
-        <v>0.989592750240029</v>
+        <v>0.98959275024002857</v>
       </c>
       <c r="D79">
-        <v>0.960117119811947</v>
+        <v>0.96011711981194747</v>
       </c>
       <c r="E79">
-        <v>0.974953072512603</v>
+        <v>0.97495307251260266</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4412,16 +3782,16 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.96536390222057</v>
+        <v>0.96536390222057011</v>
       </c>
       <c r="C80">
-        <v>0.989592750240028</v>
+        <v>0.98959275024002846</v>
       </c>
       <c r="D80">
-        <v>0.960117119811947</v>
+        <v>0.96011711981194747</v>
       </c>
       <c r="E80">
-        <v>0.974953072512603</v>
+        <v>0.97495307251260255</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4429,16 +3799,16 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.942620392633147</v>
+        <v>0.9426203926331469</v>
       </c>
       <c r="C81">
-        <v>0.96997756742042</v>
+        <v>0.96997756742042007</v>
       </c>
       <c r="D81">
-        <v>0.933672042233121</v>
+        <v>0.93367204223312084</v>
       </c>
       <c r="E81">
-        <v>0.954566174895859</v>
+        <v>0.95456617489585949</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4446,16 +3816,16 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.942620392633147</v>
+        <v>0.9426203926331469</v>
       </c>
       <c r="C82">
-        <v>0.96997756742042</v>
+        <v>0.96997756742042007</v>
       </c>
       <c r="D82">
-        <v>0.933672042233121</v>
+        <v>0.93367204223312084</v>
       </c>
       <c r="E82">
-        <v>0.95456617489586</v>
+        <v>0.9545661748958596</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4463,16 +3833,16 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.942620392633147</v>
+        <v>0.94262039263314679</v>
       </c>
       <c r="C83">
-        <v>0.96997756742042</v>
+        <v>0.96997756742042007</v>
       </c>
       <c r="D83">
-        <v>0.933672042233121</v>
+        <v>0.93367204223312072</v>
       </c>
       <c r="E83">
-        <v>0.954566174895859</v>
+        <v>0.95456617489585949</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4480,16 +3850,16 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.942620392633147</v>
+        <v>0.94262039263314701</v>
       </c>
       <c r="C84">
-        <v>0.96997756742042</v>
+        <v>0.96997756742041996</v>
       </c>
       <c r="D84">
-        <v>0.933672042233121</v>
+        <v>0.93367204223312084</v>
       </c>
       <c r="E84">
-        <v>0.95456617489586</v>
+        <v>0.9545661748958596</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4497,16 +3867,16 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.942620392633147</v>
+        <v>0.9426203926331469</v>
       </c>
       <c r="C85">
-        <v>0.96997756742042</v>
+        <v>0.96997756742042029</v>
       </c>
       <c r="D85">
-        <v>0.933672042233121</v>
+        <v>0.93367204223312084</v>
       </c>
       <c r="E85">
-        <v>0.954566174895859</v>
+        <v>0.95456617489585949</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4514,16 +3884,16 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.907426925624326</v>
+        <v>0.90742692562432625</v>
       </c>
       <c r="C86">
-        <v>0.933882123145601</v>
+        <v>0.93388212314560148</v>
       </c>
       <c r="D86">
-        <v>0.89277841745369</v>
+        <v>0.89277841745369035</v>
       </c>
       <c r="E86">
-        <v>0.919715241765747</v>
+        <v>0.91971524176574726</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4531,16 +3901,16 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.907426925624326</v>
+        <v>0.90742692562432636</v>
       </c>
       <c r="C87">
-        <v>0.933882123145602</v>
+        <v>0.93388212314560171</v>
       </c>
       <c r="D87">
-        <v>0.89277841745369</v>
+        <v>0.89277841745369046</v>
       </c>
       <c r="E87">
-        <v>0.919715241765747</v>
+        <v>0.91971524176574715</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4548,16 +3918,16 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.907426925624326</v>
+        <v>0.90742692562432625</v>
       </c>
       <c r="C88">
-        <v>0.933882123145601</v>
+        <v>0.93388212314560126</v>
       </c>
       <c r="D88">
-        <v>0.89277841745369</v>
+        <v>0.89277841745369035</v>
       </c>
       <c r="E88">
-        <v>0.919715241765747</v>
+        <v>0.91971524176574726</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4565,16 +3935,16 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.907426925624326</v>
+        <v>0.90742692562432625</v>
       </c>
       <c r="C89">
-        <v>0.933882123145602</v>
+        <v>0.93388212314560171</v>
       </c>
       <c r="D89">
-        <v>0.892778417453691</v>
+        <v>0.89277841745369058</v>
       </c>
       <c r="E89">
-        <v>0.919715241765747</v>
+        <v>0.91971524176574726</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4582,16 +3952,16 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.907426925624326</v>
+        <v>0.90742692562432625</v>
       </c>
       <c r="C90">
-        <v>0.933882123145601</v>
+        <v>0.93388212314560148</v>
       </c>
       <c r="D90">
-        <v>0.89277841745369</v>
+        <v>0.89277841745369035</v>
       </c>
       <c r="E90">
-        <v>0.919715241765747</v>
+        <v>0.91971524176574726</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4599,16 +3969,16 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.860507326381018</v>
+        <v>0.86050732638101768</v>
       </c>
       <c r="C91">
-        <v>0.878778405588662</v>
+        <v>0.87877840558866216</v>
       </c>
       <c r="D91">
-        <v>0.833901898086652</v>
+        <v>0.83390189808665172</v>
       </c>
       <c r="E91">
-        <v>0.864160316760715</v>
+        <v>0.86416031676071459</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4616,16 +3986,16 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.860507326381018</v>
+        <v>0.86050732638101757</v>
       </c>
       <c r="C92">
-        <v>0.878778405588662</v>
+        <v>0.87877840558866205</v>
       </c>
       <c r="D92">
-        <v>0.833901898086652</v>
+        <v>0.83390189808665172</v>
       </c>
       <c r="E92">
-        <v>0.864160316760714</v>
+        <v>0.86416031676071448</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4633,16 +4003,16 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.860507326381018</v>
+        <v>0.8605073263810179</v>
       </c>
       <c r="C93">
-        <v>0.878778405588662</v>
+        <v>0.87877840558866216</v>
       </c>
       <c r="D93">
-        <v>0.833901898086652</v>
+        <v>0.83390189808665194</v>
       </c>
       <c r="E93">
-        <v>0.864160316760714</v>
+        <v>0.86416031676071448</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4650,16 +4020,16 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.860507326381018</v>
+        <v>0.86050732638101768</v>
       </c>
       <c r="C94">
-        <v>0.878778405588662</v>
+        <v>0.87877840558866216</v>
       </c>
       <c r="D94">
-        <v>0.833901898086652</v>
+        <v>0.83390189808665183</v>
       </c>
       <c r="E94">
-        <v>0.864160316760714</v>
+        <v>0.86416031676071448</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4667,16 +4037,16 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.860507326381018</v>
+        <v>0.86050732638101757</v>
       </c>
       <c r="C95">
-        <v>0.878778405588662</v>
+        <v>0.87877840558866205</v>
       </c>
       <c r="D95">
-        <v>0.833901898086652</v>
+        <v>0.83390189808665183</v>
       </c>
       <c r="E95">
-        <v>0.864160316760715</v>
+        <v>0.86416031676071459</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4684,16 +4054,16 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.80511219060001</v>
+        <v>0.80511219060000971</v>
       </c>
       <c r="C96">
-        <v>0.800875368266822</v>
+        <v>0.80087536826682171</v>
       </c>
       <c r="D96">
-        <v>0.757382266778852</v>
+        <v>0.75738226677885234</v>
       </c>
       <c r="E96">
-        <v>0.784839813545977</v>
+        <v>0.78483981354597676</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4701,16 +4071,16 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.80511219060001</v>
+        <v>0.80511219060000971</v>
       </c>
       <c r="C97">
-        <v>0.800875368266822</v>
+        <v>0.80087536826682171</v>
       </c>
       <c r="D97">
-        <v>0.757382266778852</v>
+        <v>0.75738226677885223</v>
       </c>
       <c r="E97">
-        <v>0.784839813545977</v>
+        <v>0.78483981354597676</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4718,16 +4088,16 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.80511219060001</v>
+        <v>0.8051121906000096</v>
       </c>
       <c r="C98">
-        <v>0.800875368266822</v>
+        <v>0.80087536826682171</v>
       </c>
       <c r="D98">
-        <v>0.757382266778852</v>
+        <v>0.75738226677885234</v>
       </c>
       <c r="E98">
-        <v>0.784839813545977</v>
+        <v>0.78483981354597676</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4735,16 +4105,16 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.80511219060001</v>
+        <v>0.80511219060000971</v>
       </c>
       <c r="C99">
-        <v>0.800875368266822</v>
+        <v>0.80087536826682182</v>
       </c>
       <c r="D99">
-        <v>0.757382266778852</v>
+        <v>0.75738226677885245</v>
       </c>
       <c r="E99">
-        <v>0.784839813545977</v>
+        <v>0.78483981354597676</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4752,36 +4122,32 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.80511219060001</v>
+        <v>0.80511219060000982</v>
       </c>
       <c r="C100">
-        <v>0.800875368266822</v>
+        <v>0.80087536826682171</v>
       </c>
       <c r="D100">
-        <v>0.757382266778852</v>
+        <v>0.75738226677885223</v>
       </c>
       <c r="E100">
-        <v>0.784839813545977</v>
+        <v>0.78483981354597687</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D324"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="3:4">
+    <row r="1" spans="1:4">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4797,10 +4163,10 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>0.001781590669356</v>
+        <v>1.7815906693560001E-3</v>
       </c>
       <c r="D2">
-        <v>0.001690066121744</v>
+        <v>1.6900661217440003E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4811,10 +4177,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>2.9745073428e-5</v>
+        <v>2.9745073428000006E-5</v>
       </c>
       <c r="D3">
-        <v>7.04763048e-6</v>
+        <v>7.0476304800000005E-6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4825,10 +4191,10 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.001784153320824</v>
+        <v>1.7841533208240001E-3</v>
       </c>
       <c r="D4">
-        <v>0.001705983657488</v>
+        <v>1.7059836574880004E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4839,10 +4205,10 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>3.0274869172e-5</v>
+        <v>3.027486917200001E-5</v>
       </c>
       <c r="D5">
-        <v>7.14211212e-6</v>
+        <v>7.1421121200000005E-6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4853,10 +4219,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.001815931249976</v>
+        <v>1.8159312499760002E-3</v>
       </c>
       <c r="D6">
-        <v>0.001728854342072</v>
+        <v>1.7288543420720002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4867,10 +4233,10 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>3.0804664916e-5</v>
+        <v>3.0804664916000004E-5</v>
       </c>
       <c r="D7">
-        <v>7.23659376e-6</v>
+        <v>7.2365937600000005E-6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4881,10 +4247,10 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>0.001847709179128</v>
+        <v>1.8477091791280001E-3</v>
       </c>
       <c r="D8">
-        <v>9.060255424e-6</v>
+        <v>9.0602554240000012E-6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4895,7 +4261,7 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>0.001742664771232</v>
+        <v>1.7426647712320002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4906,10 +4272,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.133446066e-5</v>
+        <v>3.1334460660000002E-5</v>
       </c>
       <c r="D10">
-        <v>7.3310754e-6</v>
+        <v>7.3310754000000005E-6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4920,10 +4286,10 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>8.415988668e-5</v>
+        <v>8.4159886680000004E-5</v>
       </c>
       <c r="D11">
-        <v>9.17854696e-6</v>
+        <v>9.1785469600000012E-6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4934,10 +4300,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.0017953272216</v>
+        <v>1.7953272216000001E-3</v>
       </c>
       <c r="D12">
-        <v>0.00176541716428</v>
+        <v>1.7654171642800002E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4948,10 +4314,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>3.1200725812e-5</v>
+        <v>3.1200725812000006E-5</v>
       </c>
       <c r="D13">
-        <v>7.33298412e-6</v>
+        <v>7.3329841200000008E-6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4962,10 +4328,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>8.3800693976e-5</v>
+        <v>8.3800693976000002E-5</v>
       </c>
       <c r="D14">
-        <v>9.180936688e-6</v>
+        <v>9.1809366880000014E-6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4976,10 +4342,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.00178766480112</v>
+        <v>1.78766480112E-3</v>
       </c>
       <c r="D15">
-        <v>0.001765876808584</v>
+        <v>1.7658768085840003E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4990,10 +4356,10 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>3.1066990964e-5</v>
+        <v>3.106699096400001E-5</v>
       </c>
       <c r="D16">
-        <v>7.33489284e-6</v>
+        <v>7.3348928400000001E-6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5004,10 +4370,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>8.3441501272e-5</v>
+        <v>8.3441501272000013E-5</v>
       </c>
       <c r="D17">
-        <v>9.183326416e-6</v>
+        <v>9.1833264160000016E-6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5018,10 +4384,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.00178000238064</v>
+        <v>1.7800023806400001E-3</v>
       </c>
       <c r="D18">
-        <v>0.001766336452888</v>
+        <v>1.7663364528880002E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5032,10 +4398,10 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>3.0933256116e-5</v>
+        <v>3.0933256116E-5</v>
       </c>
       <c r="D19">
-        <v>7.33680156e-6</v>
+        <v>7.3368015600000012E-6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5046,10 +4412,10 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>8.3082308568e-5</v>
+        <v>8.3082308567999997E-5</v>
       </c>
       <c r="D20">
-        <v>9.185716144e-6</v>
+        <v>9.1857161440000018E-6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5060,10 +4426,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.00177233996016</v>
+        <v>1.7723399601599998E-3</v>
       </c>
       <c r="D21">
-        <v>0.001766796097192</v>
+        <v>1.7667960971920003E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5074,10 +4440,10 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>3.0799521268e-5</v>
+        <v>3.0799521268000004E-5</v>
       </c>
       <c r="D22">
-        <v>7.33871028e-6</v>
+        <v>7.3387102800000006E-6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5088,10 +4454,10 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>8.2723115864e-5</v>
+        <v>8.2723115864000008E-5</v>
       </c>
       <c r="D23">
-        <v>9.188105872e-6</v>
+        <v>9.188105872000002E-6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5102,10 +4468,10 @@
         <v>19</v>
       </c>
       <c r="C24">
-        <v>0.00143157061634</v>
+        <v>1.4315706163400002E-3</v>
       </c>
       <c r="D24">
-        <v>0.000992079207616</v>
+        <v>9.9207920761600001E-4</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5116,10 +4482,10 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.00033310692334</v>
+        <v>3.3310692334000006E-4</v>
       </c>
       <c r="D25">
-        <v>0.00077517653388</v>
+        <v>7.7517653388000014E-4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5130,10 +4496,10 @@
         <v>13</v>
       </c>
       <c r="C26">
-        <v>3.066578642e-5</v>
+        <v>3.0665786420000008E-5</v>
       </c>
       <c r="D26">
-        <v>7.340619e-6</v>
+        <v>7.3406190000000008E-6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5144,10 +4510,10 @@
         <v>16</v>
       </c>
       <c r="C27">
-        <v>8.236392316e-5</v>
+        <v>8.2363923160000006E-5</v>
       </c>
       <c r="D27">
-        <v>9.1904956e-6</v>
+        <v>9.1904956000000022E-6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5158,10 +4524,10 @@
         <v>19</v>
       </c>
       <c r="C28">
-        <v>0.0014253545821</v>
+        <v>1.4253545821000001E-3</v>
       </c>
       <c r="D28">
-        <v>0.0009923372368</v>
+        <v>9.923372368E-4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5172,10 +4538,10 @@
         <v>23</v>
       </c>
       <c r="C29">
-        <v>0.0003316605371</v>
+        <v>3.3166053710000006E-4</v>
       </c>
       <c r="D29">
-        <v>0.000775378149</v>
+        <v>7.7537814900000012E-4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5186,10 +4552,10 @@
         <v>13</v>
       </c>
       <c r="C30">
-        <v>3.0580916228e-5</v>
+        <v>3.0580916228000006E-5</v>
       </c>
       <c r="D30">
-        <v>7.36797732e-6</v>
+        <v>7.3679773200000003E-6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5200,10 +4566,10 @@
         <v>16</v>
       </c>
       <c r="C31">
-        <v>8.2135973944e-5</v>
+        <v>8.2135973944000006E-5</v>
       </c>
       <c r="D31">
-        <v>9.224748368e-6</v>
+        <v>9.2247483680000009E-6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5214,10 +4580,10 @@
         <v>19</v>
       </c>
       <c r="C32">
-        <v>0.00142140979114</v>
+        <v>1.4214097911400001E-3</v>
       </c>
       <c r="D32">
-        <v>0.000996035655104</v>
+        <v>9.9603565510400006E-4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5228,10 +4594,10 @@
         <v>23</v>
       </c>
       <c r="C33">
-        <v>0.00033074263814</v>
+        <v>3.3074263814000002E-4</v>
       </c>
       <c r="D33">
-        <v>0.00077826796572</v>
+        <v>7.7826796572000008E-4</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5242,10 +4608,10 @@
         <v>13</v>
       </c>
       <c r="C34">
-        <v>3.0496046036e-5</v>
+        <v>3.0496046036000005E-5</v>
       </c>
       <c r="D34">
-        <v>7.39533564e-6</v>
+        <v>7.3953356399999998E-6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5256,10 +4622,10 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <v>8.1908024728e-5</v>
+        <v>8.1908024728000005E-5</v>
       </c>
       <c r="D35">
-        <v>9.259001136e-6</v>
+        <v>9.2590011360000014E-6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5270,10 +4636,10 @@
         <v>19</v>
       </c>
       <c r="C36">
-        <v>0.00141746500018</v>
+        <v>1.4174650001800002E-3</v>
       </c>
       <c r="D36">
-        <v>0.000999734073408</v>
+        <v>9.997340734079999E-4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5284,10 +4650,10 @@
         <v>23</v>
       </c>
       <c r="C37">
-        <v>0.00032982473918</v>
+        <v>3.2982473918000002E-4</v>
       </c>
       <c r="D37">
-        <v>0.00078115778244</v>
+        <v>7.8115778244000004E-4</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5298,10 +4664,10 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>5.297488e-6</v>
+        <v>5.297488000000001E-6</v>
       </c>
       <c r="D38">
-        <v>1.679976e-6</v>
+        <v>1.679976E-6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5312,10 +4678,10 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>1.89196e-7</v>
+        <v>1.8919600000000005E-7</v>
       </c>
       <c r="D39">
-        <v>3.73328e-7</v>
+        <v>3.7332800000000007E-7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5326,10 +4692,10 @@
         <v>13</v>
       </c>
       <c r="C40">
-        <v>7.56784e-7</v>
+        <v>7.5678400000000009E-7</v>
       </c>
       <c r="D40">
-        <v>5.59992e-7</v>
+        <v>5.5999200000000003E-7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5340,10 +4706,10 @@
         <v>16</v>
       </c>
       <c r="C41">
-        <v>0.001295425012</v>
+        <v>1.295425012E-3</v>
       </c>
       <c r="D41">
-        <v>0.001024598696</v>
+        <v>1.0245986960000001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5354,10 +4720,10 @@
         <v>19</v>
       </c>
       <c r="C42">
-        <v>0.000264496008</v>
+        <v>2.6449600800000005E-4</v>
       </c>
       <c r="D42">
-        <v>0.00032106208</v>
+        <v>3.2106208E-4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5368,10 +4734,10 @@
         <v>21</v>
       </c>
       <c r="C43">
-        <v>0.000133761572</v>
+        <v>1.33761572E-4</v>
       </c>
       <c r="D43">
-        <v>0.000192823912</v>
+        <v>1.9282391200000005E-4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5382,10 +4748,10 @@
         <v>23</v>
       </c>
       <c r="C44">
-        <v>0.000192223136</v>
+        <v>1.9222313600000002E-4</v>
       </c>
       <c r="D44">
-        <v>0.00032572868</v>
+        <v>3.2572868E-4</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5396,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>5.282704e-6</v>
+        <v>5.2827040000000012E-6</v>
       </c>
       <c r="D45">
-        <v>1.686168e-6</v>
+        <v>1.686168E-6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5410,10 +4776,10 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>1.88668e-7</v>
+        <v>1.8866800000000006E-7</v>
       </c>
       <c r="D46">
-        <v>3.74704e-7</v>
+        <v>3.747040000000001E-7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5424,10 +4790,10 @@
         <v>13</v>
       </c>
       <c r="C47">
-        <v>7.54672e-7</v>
+        <v>7.5467200000000013E-7</v>
       </c>
       <c r="D47">
-        <v>5.62056e-7</v>
+        <v>5.6205599999999993E-7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5438,10 +4804,10 @@
         <v>16</v>
       </c>
       <c r="C48">
-        <v>0.001291809796</v>
+        <v>1.2918097960000002E-3</v>
       </c>
       <c r="D48">
-        <v>0.001028375128</v>
+        <v>1.0283751280000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5452,10 +4818,10 @@
         <v>19</v>
       </c>
       <c r="C49">
-        <v>0.000263757864</v>
+        <v>2.6375786400000006E-4</v>
       </c>
       <c r="D49">
-        <v>0.00032224544</v>
+        <v>3.2224544000000001E-4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5466,10 +4832,10 @@
         <v>21</v>
       </c>
       <c r="C50">
-        <v>0.000133388276</v>
+        <v>1.33388276E-4</v>
       </c>
       <c r="D50">
-        <v>0.000193534616</v>
+        <v>1.9353461600000004E-4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5480,10 +4846,10 @@
         <v>23</v>
       </c>
       <c r="C51">
-        <v>0.000191686688</v>
+        <v>1.9168668800000004E-4</v>
       </c>
       <c r="D51">
-        <v>0.00032692924</v>
+        <v>3.2692923999999996E-4</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5494,10 +4860,10 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>5.26792e-6</v>
+        <v>5.2679200000000014E-6</v>
       </c>
       <c r="D52">
-        <v>1.69236e-6</v>
+        <v>1.6923599999999998E-6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5508,10 +4874,10 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>1.8814e-7</v>
+        <v>1.8814000000000004E-7</v>
       </c>
       <c r="D53">
-        <v>3.7608e-7</v>
+        <v>3.7608000000000007E-7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5522,10 +4888,10 @@
         <v>13</v>
       </c>
       <c r="C54">
-        <v>7.5256e-7</v>
+        <v>7.5256000000000006E-7</v>
       </c>
       <c r="D54">
-        <v>5.6412e-7</v>
+        <v>5.6411999999999995E-7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5536,10 +4902,10 @@
         <v>16</v>
       </c>
       <c r="C55">
-        <v>0.00128819458</v>
+        <v>1.28819458E-3</v>
       </c>
       <c r="D55">
-        <v>0.00103215156</v>
+        <v>1.0321515600000002E-3</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5550,10 +4916,10 @@
         <v>19</v>
       </c>
       <c r="C56">
-        <v>0.00026301972</v>
+        <v>2.6301972000000002E-4</v>
       </c>
       <c r="D56">
-        <v>0.0003234288</v>
+        <v>3.2342879999999996E-4</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5564,10 +4930,10 @@
         <v>21</v>
       </c>
       <c r="C57">
-        <v>0.00013301498</v>
+        <v>1.3301498E-4</v>
       </c>
       <c r="D57">
-        <v>0.00019424532</v>
+        <v>1.9424532000000003E-4</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5578,10 +4944,10 @@
         <v>23</v>
       </c>
       <c r="C58">
-        <v>0.00019115024</v>
+        <v>1.9115024000000003E-4</v>
       </c>
       <c r="D58">
-        <v>0.0003281298</v>
+        <v>3.2812979999999998E-4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5592,10 +4958,10 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>5.224016e-6</v>
+        <v>5.2240160000000007E-6</v>
       </c>
       <c r="D59">
-        <v>1.680984e-6</v>
+        <v>1.6809839999999999E-6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5606,10 +4972,10 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>1.86572e-7</v>
+        <v>1.8657200000000004E-7</v>
       </c>
       <c r="D60">
-        <v>3.73552e-7</v>
+        <v>3.7355200000000006E-7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5620,10 +4986,10 @@
         <v>13</v>
       </c>
       <c r="C61">
-        <v>7.46288e-7</v>
+        <v>7.4628800000000005E-7</v>
       </c>
       <c r="D61">
-        <v>5.60328e-7</v>
+        <v>5.6032799999999999E-7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5634,10 +5000,10 @@
         <v>16</v>
       </c>
       <c r="C62">
-        <v>0.001277458484</v>
+        <v>1.277458484E-3</v>
       </c>
       <c r="D62">
-        <v>0.001025213464</v>
+        <v>1.0252134640000002E-3</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5648,10 +5014,10 @@
         <v>19</v>
       </c>
       <c r="C63">
-        <v>0.000260827656</v>
+        <v>2.6082765600000002E-4</v>
       </c>
       <c r="D63">
-        <v>0.00032125472</v>
+        <v>3.2125471999999998E-4</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5662,10 +5028,10 @@
         <v>21</v>
       </c>
       <c r="C64">
-        <v>0.000131906404</v>
+        <v>1.3190640400000001E-4</v>
       </c>
       <c r="D64">
-        <v>0.000192939608</v>
+        <v>1.9293960800000003E-4</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5676,10 +5042,10 @@
         <v>23</v>
       </c>
       <c r="C65">
-        <v>0.000189557152</v>
+        <v>1.8955715200000002E-4</v>
       </c>
       <c r="D65">
-        <v>0.00032592412</v>
+        <v>3.2592411999999996E-4</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5690,10 +5056,10 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>5.180112e-6</v>
+        <v>5.1801120000000009E-6</v>
       </c>
       <c r="D66">
-        <v>1.669608e-6</v>
+        <v>1.6696079999999999E-6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5704,10 +5070,10 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>1.85004e-7</v>
+        <v>1.8500400000000003E-7</v>
       </c>
       <c r="D67">
-        <v>3.71024e-7</v>
+        <v>3.7102400000000005E-7</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5718,10 +5084,10 @@
         <v>13</v>
       </c>
       <c r="C68">
-        <v>7.40016e-7</v>
+        <v>7.4001600000000003E-7</v>
       </c>
       <c r="D68">
-        <v>5.56536e-7</v>
+        <v>5.5653599999999992E-7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5732,10 +5098,10 @@
         <v>16</v>
       </c>
       <c r="C69">
-        <v>0.001266722388</v>
+        <v>1.266722388E-3</v>
       </c>
       <c r="D69">
-        <v>0.001018275368</v>
+        <v>1.018275368E-3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5746,10 +5112,10 @@
         <v>19</v>
       </c>
       <c r="C70">
-        <v>0.000258635592</v>
+        <v>2.5863559200000003E-4</v>
       </c>
       <c r="D70">
-        <v>0.00031908064</v>
+        <v>3.1908063999999995E-4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5760,10 +5126,10 @@
         <v>21</v>
       </c>
       <c r="C71">
-        <v>0.000130797828</v>
+        <v>1.3079782800000001E-4</v>
       </c>
       <c r="D71">
-        <v>0.000191633896</v>
+        <v>1.9163389600000002E-4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5774,10 +5140,10 @@
         <v>23</v>
       </c>
       <c r="C72">
-        <v>0.000187964064</v>
+        <v>1.8796406400000003E-4</v>
       </c>
       <c r="D72">
-        <v>0.00032371844</v>
+        <v>3.2371843999999994E-4</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5788,10 +5154,10 @@
         <v>7</v>
       </c>
       <c r="C73">
-        <v>5.136208e-6</v>
+        <v>5.136208000000002E-6</v>
       </c>
       <c r="D73">
-        <v>1.658232e-6</v>
+        <v>1.6582320000000003E-6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5802,10 +5168,10 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>1.83436e-7</v>
+        <v>1.8343600000000008E-7</v>
       </c>
       <c r="D74">
-        <v>3.68496e-7</v>
+        <v>3.6849600000000015E-7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5816,10 +5182,10 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <v>7.33744e-7</v>
+        <v>7.3374400000000022E-7</v>
       </c>
       <c r="D75">
-        <v>5.52744e-7</v>
+        <v>5.5274400000000007E-7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5830,10 +5196,10 @@
         <v>16</v>
       </c>
       <c r="C76">
-        <v>0.001255986292</v>
+        <v>1.2559862920000003E-3</v>
       </c>
       <c r="D76">
-        <v>0.001011337272</v>
+        <v>1.0113372720000002E-3</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5844,10 +5210,10 @@
         <v>19</v>
       </c>
       <c r="C77">
-        <v>0.000256443528</v>
+        <v>2.5644352800000008E-4</v>
       </c>
       <c r="D77">
-        <v>0.00031690656</v>
+        <v>3.1690656000000003E-4</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5858,10 +5224,10 @@
         <v>21</v>
       </c>
       <c r="C78">
-        <v>0.000129689252</v>
+        <v>1.2968925200000002E-4</v>
       </c>
       <c r="D78">
-        <v>0.000190328184</v>
+        <v>1.9032818400000005E-4</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5872,10 +5238,10 @@
         <v>23</v>
       </c>
       <c r="C79">
-        <v>0.000186370976</v>
+        <v>1.8637097600000005E-4</v>
       </c>
       <c r="D79">
-        <v>0.00032151276</v>
+        <v>3.2151276000000003E-4</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5886,10 +5252,10 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>5.092304e-6</v>
+        <v>5.0923040000000013E-6</v>
       </c>
       <c r="D80">
-        <v>1.646856e-6</v>
+        <v>1.6468560000000001E-6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5900,10 +5266,10 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>1.81868e-7</v>
+        <v>1.8186800000000005E-7</v>
       </c>
       <c r="D81">
-        <v>3.65968e-7</v>
+        <v>3.6596800000000009E-7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5914,10 +5280,10 @@
         <v>13</v>
       </c>
       <c r="C82">
-        <v>7.27472e-7</v>
+        <v>7.274720000000001E-7</v>
       </c>
       <c r="D82">
-        <v>5.48952e-7</v>
+        <v>5.48952E-7</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5928,10 +5294,10 @@
         <v>16</v>
       </c>
       <c r="C83">
-        <v>0.001245250196</v>
+        <v>1.2452501960000001E-3</v>
       </c>
       <c r="D83">
-        <v>0.001004399176</v>
+        <v>1.0043991760000002E-3</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5942,10 +5308,10 @@
         <v>19</v>
       </c>
       <c r="C84">
-        <v>0.000254251464</v>
+        <v>2.5425146400000003E-4</v>
       </c>
       <c r="D84">
-        <v>0.00031473248</v>
+        <v>3.1473248E-4</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5956,10 +5322,10 @@
         <v>21</v>
       </c>
       <c r="C85">
-        <v>0.000128580676</v>
+        <v>1.2858067600000003E-4</v>
       </c>
       <c r="D85">
-        <v>0.000189022472</v>
+        <v>1.8902247200000005E-4</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5970,10 +5336,10 @@
         <v>23</v>
       </c>
       <c r="C86">
-        <v>0.000184777888</v>
+        <v>1.8477788800000004E-4</v>
       </c>
       <c r="D86">
-        <v>0.00031930708</v>
+        <v>3.1930708000000002E-4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5984,10 +5350,10 @@
         <v>7</v>
       </c>
       <c r="C87">
-        <v>5.0484e-6</v>
+        <v>5.0484000000000015E-6</v>
       </c>
       <c r="D87">
-        <v>1.63548e-6</v>
+        <v>1.6354800000000001E-6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5998,10 +5364,10 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>1.803e-7</v>
+        <v>1.8030000000000005E-7</v>
       </c>
       <c r="D88">
-        <v>3.6344e-7</v>
+        <v>3.6344000000000008E-7</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -6012,10 +5378,10 @@
         <v>13</v>
       </c>
       <c r="C89">
-        <v>7.212e-7</v>
+        <v>7.2120000000000008E-7</v>
       </c>
       <c r="D89">
-        <v>5.4516e-7</v>
+        <v>5.4516000000000005E-7</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -6026,10 +5392,10 @@
         <v>16</v>
       </c>
       <c r="C90">
-        <v>0.0012345141</v>
+        <v>1.2345141E-3</v>
       </c>
       <c r="D90">
-        <v>0.00099746108</v>
+        <v>9.9746108000000016E-4</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -6040,10 +5406,10 @@
         <v>19</v>
       </c>
       <c r="C91">
-        <v>0.0002520594</v>
+        <v>2.5205940000000003E-4</v>
       </c>
       <c r="D91">
-        <v>0.0003125584</v>
+        <v>3.1255840000000003E-4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -6054,10 +5420,10 @@
         <v>21</v>
       </c>
       <c r="C92">
-        <v>0.0001274721</v>
+        <v>1.2747210000000001E-4</v>
       </c>
       <c r="D92">
-        <v>0.00018771676</v>
+        <v>1.8771676000000004E-4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -6068,10 +5434,10 @@
         <v>23</v>
       </c>
       <c r="C93">
-        <v>0.0001831848</v>
+        <v>1.8318480000000003E-4</v>
       </c>
       <c r="D93">
-        <v>0.0003171014</v>
+        <v>3.171014E-4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -6082,10 +5448,10 @@
         <v>7</v>
       </c>
       <c r="C94">
-        <v>5.077408e-6</v>
+        <v>5.0774080000000009E-6</v>
       </c>
       <c r="D94">
-        <v>1.659348e-6</v>
+        <v>1.659348E-6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -6096,10 +5462,10 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>1.81336e-7</v>
+        <v>1.8133600000000006E-7</v>
       </c>
       <c r="D95">
-        <v>3.68744e-7</v>
+        <v>3.6874400000000006E-7</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -6110,10 +5476,10 @@
         <v>13</v>
       </c>
       <c r="C96">
-        <v>7.25344e-7</v>
+        <v>7.2534400000000012E-7</v>
       </c>
       <c r="D96">
-        <v>5.53116e-7</v>
+        <v>5.5311599999999996E-7</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6124,10 +5490,10 @@
         <v>16</v>
       </c>
       <c r="C97">
-        <v>0.001241607592</v>
+        <v>1.2416075920000001E-3</v>
       </c>
       <c r="D97">
-        <v>0.001012017908</v>
+        <v>1.0120179080000001E-3</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6138,10 +5504,10 @@
         <v>19</v>
       </c>
       <c r="C98">
-        <v>0.000253507728</v>
+        <v>2.5350772800000006E-4</v>
       </c>
       <c r="D98">
-        <v>0.00031711984</v>
+        <v>3.1711983999999999E-4</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6152,10 +5518,10 @@
         <v>21</v>
       </c>
       <c r="C99">
-        <v>0.000128204552</v>
+        <v>1.2820455200000002E-4</v>
       </c>
       <c r="D99">
-        <v>0.000190456276</v>
+        <v>1.9045627600000004E-4</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -6166,10 +5532,10 @@
         <v>23</v>
       </c>
       <c r="C100">
-        <v>0.000184237376</v>
+        <v>1.8423737600000003E-4</v>
       </c>
       <c r="D100">
-        <v>0.00032172914</v>
+        <v>3.2172914000000002E-4</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -6180,10 +5546,10 @@
         <v>7</v>
       </c>
       <c r="C101">
-        <v>5.106416e-6</v>
+        <v>5.1064160000000012E-6</v>
       </c>
       <c r="D101">
-        <v>1.683216e-6</v>
+        <v>1.6832160000000001E-6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6194,10 +5560,10 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>1.82372e-7</v>
+        <v>1.8237200000000007E-7</v>
       </c>
       <c r="D102">
-        <v>3.74048e-7</v>
+        <v>3.7404800000000009E-7</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -6208,10 +5574,10 @@
         <v>13</v>
       </c>
       <c r="C103">
-        <v>7.29488e-7</v>
+        <v>7.2948800000000016E-7</v>
       </c>
       <c r="D103">
-        <v>5.61072e-7</v>
+        <v>5.6107199999999998E-7</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -6222,10 +5588,10 @@
         <v>16</v>
       </c>
       <c r="C104">
-        <v>0.001248701084</v>
+        <v>1.2487010840000002E-3</v>
       </c>
       <c r="D104">
-        <v>0.001026574736</v>
+        <v>1.0265747360000002E-3</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6236,10 +5602,10 @@
         <v>19</v>
       </c>
       <c r="C105">
-        <v>0.000254956056</v>
+        <v>2.5495605600000002E-4</v>
       </c>
       <c r="D105">
-        <v>0.00032168128</v>
+        <v>3.2168128E-4</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6250,10 +5616,10 @@
         <v>21</v>
       </c>
       <c r="C106">
-        <v>0.000128937004</v>
+        <v>1.2893700400000001E-4</v>
       </c>
       <c r="D106">
-        <v>0.000193195792</v>
+        <v>1.9319579200000004E-4</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -6264,10 +5630,10 @@
         <v>23</v>
       </c>
       <c r="C107">
-        <v>0.000185289952</v>
+        <v>1.8528995200000004E-4</v>
       </c>
       <c r="D107">
-        <v>0.00032635688</v>
+        <v>3.2635688000000004E-4</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -6278,7 +5644,7 @@
         <v>7</v>
       </c>
       <c r="D108">
-        <v>1.89676e-7</v>
+        <v>1.8967600000000004E-7</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6289,10 +5655,10 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>3.9982944e-5</v>
+        <v>3.9982943999999993E-5</v>
       </c>
       <c r="D109">
-        <v>-3.888358e-5</v>
+        <v>2.4088852000000004E-5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -6303,10 +5669,10 @@
         <v>13</v>
       </c>
       <c r="C110">
-        <v>0.000100140768</v>
+        <v>1.0014076799999999E-4</v>
       </c>
       <c r="D110">
-        <v>3.983196e-5</v>
+        <v>3.9831960000000005E-5</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6317,10 +5683,10 @@
         <v>16</v>
       </c>
       <c r="C111">
-        <v>0.001296511152</v>
+        <v>1.2965111519999998E-3</v>
       </c>
       <c r="D111">
-        <v>0.00126703568</v>
+        <v>1.2670356800000004E-3</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -6331,10 +5697,10 @@
         <v>19</v>
       </c>
       <c r="C112">
-        <v>0.000374519136</v>
+        <v>3.7451913600000002E-4</v>
       </c>
       <c r="D112">
-        <v>0.00053867984</v>
+        <v>5.3867984000000003E-4</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -6345,10 +5711,10 @@
         <v>21</v>
       </c>
       <c r="C113">
-        <v>7.33632e-6</v>
+        <v>7.3363199999999992E-6</v>
       </c>
       <c r="D113">
-        <v>8.345744e-6</v>
+        <v>8.3457439999999991E-6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -6359,10 +5725,10 @@
         <v>23</v>
       </c>
       <c r="C114">
-        <v>1.558968e-5</v>
+        <v>1.5589679999999999E-5</v>
       </c>
       <c r="D114">
-        <v>1.8777924e-5</v>
+        <v>1.8777924000000004E-5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -6373,7 +5739,7 @@
         <v>7</v>
       </c>
       <c r="D115">
-        <v>1.92328e-7</v>
+        <v>1.9232800000000003E-7</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6384,10 +5750,10 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>4.0208792e-5</v>
+        <v>4.0208791999999992E-5</v>
       </c>
       <c r="D116">
-        <v>-3.942724e-5</v>
+        <v>2.4425656000000002E-5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6398,10 +5764,10 @@
         <v>13</v>
       </c>
       <c r="C117">
-        <v>0.000100706424</v>
+        <v>1.0070642399999999E-4</v>
       </c>
       <c r="D117">
-        <v>4.038888e-5</v>
+        <v>4.0388880000000008E-5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6412,10 +5778,10 @@
         <v>16</v>
       </c>
       <c r="C118">
-        <v>0.001303834636</v>
+        <v>1.3038346359999999E-3</v>
       </c>
       <c r="D118">
-        <v>0.00128475104</v>
+        <v>1.2847510400000003E-3</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6426,10 +5792,10 @@
         <v>19</v>
       </c>
       <c r="C119">
-        <v>0.000376634648</v>
+        <v>3.76634648E-4</v>
       </c>
       <c r="D119">
-        <v>0.00054621152</v>
+        <v>5.4621151999999999E-4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6440,10 +5806,10 @@
         <v>21</v>
       </c>
       <c r="C120">
-        <v>7.37776e-6</v>
+        <v>7.3777599999999996E-6</v>
       </c>
       <c r="D120">
-        <v>8.462432e-6</v>
+        <v>8.4624319999999997E-6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6454,10 +5820,10 @@
         <v>23</v>
       </c>
       <c r="C121">
-        <v>1.567774e-5</v>
+        <v>1.567774E-5</v>
       </c>
       <c r="D121">
-        <v>1.9040472e-5</v>
+        <v>1.9040472000000002E-5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -6468,7 +5834,7 @@
         <v>7</v>
       </c>
       <c r="D122">
-        <v>1.9498e-7</v>
+        <v>1.9498000000000004E-7</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -6479,10 +5845,10 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>4.043464e-5</v>
+        <v>4.043463999999999E-5</v>
       </c>
       <c r="D123">
-        <v>-3.99709e-5</v>
+        <v>2.4762460000000006E-5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -6493,10 +5859,10 @@
         <v>13</v>
       </c>
       <c r="C124">
-        <v>0.00010127208</v>
+        <v>1.0127208000000001E-4</v>
       </c>
       <c r="D124">
-        <v>4.09458e-5</v>
+        <v>4.094580000000001E-5</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6507,10 +5873,10 @@
         <v>16</v>
       </c>
       <c r="C125">
-        <v>0.00131115812</v>
+        <v>1.3111581199999999E-3</v>
       </c>
       <c r="D125">
-        <v>0.0013024664</v>
+        <v>1.3024664000000005E-3</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6521,10 +5887,10 @@
         <v>19</v>
       </c>
       <c r="C126">
-        <v>0.00037875016</v>
+        <v>3.7875016000000003E-4</v>
       </c>
       <c r="D126">
-        <v>0.0005537432</v>
+        <v>5.5374320000000006E-4</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6535,10 +5901,10 @@
         <v>21</v>
       </c>
       <c r="C127">
-        <v>7.4192e-6</v>
+        <v>7.4192E-6</v>
       </c>
       <c r="D127">
-        <v>8.57912e-6</v>
+        <v>8.5791200000000003E-6</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6549,10 +5915,10 @@
         <v>23</v>
       </c>
       <c r="C128">
-        <v>1.57658e-5</v>
+        <v>1.5765800000000001E-5</v>
       </c>
       <c r="D128">
-        <v>1.930302e-5</v>
+        <v>1.9303020000000003E-5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6563,7 +5929,7 @@
         <v>7</v>
       </c>
       <c r="D129">
-        <v>1.9432e-7</v>
+        <v>1.9432000000000006E-7</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -6574,10 +5940,10 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>4.0387552e-5</v>
+        <v>4.0387551999999995E-5</v>
       </c>
       <c r="D130">
-        <v>-3.98356e-5</v>
+        <v>2.4678640000000007E-5</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -6588,10 +5954,10 @@
         <v>13</v>
       </c>
       <c r="C131">
-        <v>0.000101154144</v>
+        <v>1.0115414400000001E-4</v>
       </c>
       <c r="D131">
-        <v>4.08072e-5</v>
+        <v>4.0807200000000011E-5</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6602,10 +5968,10 @@
         <v>16</v>
       </c>
       <c r="C132">
-        <v>0.001309631216</v>
+        <v>1.3096312159999999E-3</v>
       </c>
       <c r="D132">
-        <v>0.0012980576</v>
+        <v>1.2980576000000005E-3</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6616,10 +5982,10 @@
         <v>19</v>
       </c>
       <c r="C133">
-        <v>0.000378309088</v>
+        <v>3.7830908800000004E-4</v>
       </c>
       <c r="D133">
-        <v>0.0005518688</v>
+        <v>5.5186880000000001E-4</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6630,10 +5996,10 @@
         <v>21</v>
       </c>
       <c r="C134">
-        <v>7.41056e-6</v>
+        <v>7.4105600000000004E-6</v>
       </c>
       <c r="D134">
-        <v>8.55008e-6</v>
+        <v>8.55008E-6</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6644,10 +6010,10 @@
         <v>23</v>
       </c>
       <c r="C135">
-        <v>1.574744e-5</v>
+        <v>1.574744E-5</v>
       </c>
       <c r="D135">
-        <v>1.923768e-5</v>
+        <v>1.9237680000000006E-5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6658,7 +6024,7 @@
         <v>7</v>
       </c>
       <c r="D136">
-        <v>1.9366e-7</v>
+        <v>1.9366000000000003E-7</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6669,10 +6035,10 @@
         <v>10</v>
       </c>
       <c r="C137">
-        <v>4.0340464e-5</v>
+        <v>4.0340463999999992E-5</v>
       </c>
       <c r="D137">
-        <v>-3.97003e-5</v>
+        <v>2.4594820000000005E-5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6683,10 +6049,10 @@
         <v>13</v>
       </c>
       <c r="C138">
-        <v>0.000101036208</v>
+        <v>1.0103620800000001E-4</v>
       </c>
       <c r="D138">
-        <v>4.06686e-5</v>
+        <v>4.0668600000000006E-5</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6697,10 +6063,10 @@
         <v>16</v>
       </c>
       <c r="C139">
-        <v>0.001308104312</v>
+        <v>1.3081043120000001E-3</v>
       </c>
       <c r="D139">
-        <v>0.0012936488</v>
+        <v>1.2936488000000004E-3</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6711,10 +6077,10 @@
         <v>19</v>
       </c>
       <c r="C140">
-        <v>0.000377868016</v>
+        <v>3.7786801600000005E-4</v>
       </c>
       <c r="D140">
-        <v>0.0005499944</v>
+        <v>5.4999439999999997E-4</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6725,10 +6091,10 @@
         <v>21</v>
       </c>
       <c r="C141">
-        <v>7.40192e-6</v>
+        <v>7.4019199999999999E-6</v>
       </c>
       <c r="D141">
-        <v>8.52104e-6</v>
+        <v>8.5210399999999997E-6</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6739,10 +6105,10 @@
         <v>23</v>
       </c>
       <c r="C142">
-        <v>1.572908e-5</v>
+        <v>1.572908E-5</v>
       </c>
       <c r="D142">
-        <v>1.917234e-5</v>
+        <v>1.9172340000000002E-5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6753,7 +6119,7 @@
         <v>7</v>
       </c>
       <c r="D143">
-        <v>1.93e-7</v>
+        <v>1.9300000000000002E-7</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6764,10 +6130,10 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>4.0293376e-5</v>
+        <v>4.0293375999999997E-5</v>
       </c>
       <c r="D144">
-        <v>-3.9565e-5</v>
+        <v>2.4511000000000003E-5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6778,10 +6144,10 @@
         <v>13</v>
       </c>
       <c r="C145">
-        <v>0.000100918272</v>
+        <v>1.0091827200000001E-4</v>
       </c>
       <c r="D145">
-        <v>4.053e-5</v>
+        <v>4.0530000000000007E-5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6792,10 +6158,10 @@
         <v>16</v>
       </c>
       <c r="C146">
-        <v>0.001306577408</v>
+        <v>1.3065774080000001E-3</v>
       </c>
       <c r="D146">
-        <v>0.00128924</v>
+        <v>1.2892400000000003E-3</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6806,10 +6172,10 @@
         <v>19</v>
       </c>
       <c r="C147">
-        <v>0.000377426944</v>
+        <v>3.7742694400000006E-4</v>
       </c>
       <c r="D147">
-        <v>0.00054812</v>
+        <v>5.4811999999999992E-4</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6820,10 +6186,10 @@
         <v>21</v>
       </c>
       <c r="C148">
-        <v>7.39328e-6</v>
+        <v>7.3932800000000003E-6</v>
       </c>
       <c r="D148">
-        <v>8.492e-6</v>
+        <v>8.4919999999999993E-6</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6834,10 +6200,10 @@
         <v>23</v>
       </c>
       <c r="C149">
-        <v>1.571072e-5</v>
+        <v>1.5710720000000003E-5</v>
       </c>
       <c r="D149">
-        <v>1.9107e-5</v>
+        <v>1.9107000000000002E-5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6848,7 +6214,7 @@
         <v>7</v>
       </c>
       <c r="D150">
-        <v>1.9234e-7</v>
+        <v>1.9233999999999999E-7</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6859,10 +6225,10 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>4.0246288e-5</v>
+        <v>4.0246287999999995E-5</v>
       </c>
       <c r="D151">
-        <v>-3.94297e-5</v>
+        <v>2.4427180000000001E-5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6873,10 +6239,10 @@
         <v>13</v>
       </c>
       <c r="C152">
-        <v>0.000100800336</v>
+        <v>1.0080033600000001E-4</v>
       </c>
       <c r="D152">
-        <v>4.03914e-5</v>
+        <v>4.0391400000000001E-5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6887,10 +6253,10 @@
         <v>16</v>
       </c>
       <c r="C153">
-        <v>0.001305050504</v>
+        <v>1.305050504E-3</v>
       </c>
       <c r="D153">
-        <v>0.0012848312</v>
+        <v>1.2848312000000002E-3</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6901,10 +6267,10 @@
         <v>19</v>
       </c>
       <c r="C154">
-        <v>0.000376985872</v>
+        <v>3.7698587200000008E-4</v>
       </c>
       <c r="D154">
-        <v>0.0005462456</v>
+        <v>5.4624559999999988E-4</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6915,10 +6281,10 @@
         <v>21</v>
       </c>
       <c r="C155">
-        <v>7.38464e-6</v>
+        <v>7.3846400000000007E-6</v>
       </c>
       <c r="D155">
-        <v>8.46296e-6</v>
+        <v>8.4629599999999973E-6</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6929,10 +6295,10 @@
         <v>23</v>
       </c>
       <c r="C156">
-        <v>1.569236e-5</v>
+        <v>1.5692360000000003E-5</v>
       </c>
       <c r="D156">
-        <v>1.904166e-5</v>
+        <v>1.9041659999999998E-5</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6943,7 +6309,7 @@
         <v>7</v>
       </c>
       <c r="D157">
-        <v>1.9168e-7</v>
+        <v>1.9168000000000001E-7</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6954,10 +6320,10 @@
         <v>10</v>
       </c>
       <c r="C158">
-        <v>4.01992e-5</v>
+        <v>4.01992E-5</v>
       </c>
       <c r="D158">
-        <v>-3.92944e-5</v>
+        <v>2.4343360000000002E-5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6968,10 +6334,10 @@
         <v>13</v>
       </c>
       <c r="C159">
-        <v>0.0001006824</v>
+        <v>1.0068240000000001E-4</v>
       </c>
       <c r="D159">
-        <v>4.02528e-5</v>
+        <v>4.0252800000000002E-5</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6982,10 +6348,10 @@
         <v>16</v>
       </c>
       <c r="C160">
-        <v>0.0013035236</v>
+        <v>1.3035236E-3</v>
       </c>
       <c r="D160">
-        <v>0.0012804224</v>
+        <v>1.2804224000000002E-3</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6996,10 +6362,10 @@
         <v>19</v>
       </c>
       <c r="C161">
-        <v>0.0003765448</v>
+        <v>3.7654480000000009E-4</v>
       </c>
       <c r="D161">
-        <v>0.0005443712</v>
+        <v>5.4437119999999994E-4</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -7010,10 +6376,10 @@
         <v>21</v>
       </c>
       <c r="C162">
-        <v>7.376e-6</v>
+        <v>7.376000000000001E-6</v>
       </c>
       <c r="D162">
-        <v>8.43392e-6</v>
+        <v>8.4339199999999987E-6</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -7024,10 +6390,10 @@
         <v>23</v>
       </c>
       <c r="C163">
-        <v>1.5674e-5</v>
+        <v>1.5674000000000003E-5</v>
       </c>
       <c r="D163">
-        <v>1.897632e-5</v>
+        <v>1.8976320000000001E-5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -7038,7 +6404,7 @@
         <v>7</v>
       </c>
       <c r="D164">
-        <v>1.95404e-7</v>
+        <v>1.9540399999999999E-7</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -7049,10 +6415,10 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>4.0659616e-5</v>
+        <v>4.0659615999999997E-5</v>
       </c>
       <c r="D165">
-        <v>-4.005782e-5</v>
+        <v>2.4816308E-5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -7063,10 +6429,10 @@
         <v>13</v>
       </c>
       <c r="C166">
-        <v>0.000101835552</v>
+        <v>1.0183555200000001E-4</v>
       </c>
       <c r="D166">
-        <v>4.103484e-5</v>
+        <v>4.1034839999999998E-5</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -7077,10 +6443,10 @@
         <v>16</v>
       </c>
       <c r="C167">
-        <v>0.001318453328</v>
+        <v>1.318453328E-3</v>
       </c>
       <c r="D167">
-        <v>0.00130529872</v>
+        <v>1.30529872E-3</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7091,10 +6457,10 @@
         <v>19</v>
       </c>
       <c r="C168">
-        <v>0.000380857504</v>
+        <v>3.8085750400000006E-4</v>
       </c>
       <c r="D168">
-        <v>0.00055494736</v>
+        <v>5.5494735999999983E-4</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -7105,10 +6471,10 @@
         <v>21</v>
       </c>
       <c r="C169">
-        <v>7.46048e-6</v>
+        <v>7.4604800000000003E-6</v>
       </c>
       <c r="D169">
-        <v>8.597776e-6</v>
+        <v>8.5977759999999986E-6</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -7119,10 +6485,10 @@
         <v>23</v>
       </c>
       <c r="C170">
-        <v>1.585352e-5</v>
+        <v>1.5853520000000001E-5</v>
       </c>
       <c r="D170">
-        <v>1.9344996e-5</v>
+        <v>1.9344995999999998E-5</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -7133,7 +6499,7 @@
         <v>7</v>
       </c>
       <c r="D171">
-        <v>1.99128e-7</v>
+        <v>1.9912800000000003E-7</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -7144,10 +6510,10 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>4.1120032e-5</v>
+        <v>4.1120032E-5</v>
       </c>
       <c r="D172">
-        <v>-4.082124e-5</v>
+        <v>2.5289256000000005E-5</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -7158,10 +6524,10 @@
         <v>13</v>
       </c>
       <c r="C173">
-        <v>0.000102988704</v>
+        <v>1.0298870400000002E-4</v>
       </c>
       <c r="D173">
-        <v>4.181688e-5</v>
+        <v>4.1816880000000008E-5</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -7172,10 +6538,10 @@
         <v>16</v>
       </c>
       <c r="C174">
-        <v>0.001333383056</v>
+        <v>1.333383056E-3</v>
       </c>
       <c r="D174">
-        <v>0.00133017504</v>
+        <v>1.3301750400000003E-3</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -7186,10 +6552,10 @@
         <v>19</v>
       </c>
       <c r="C175">
-        <v>0.000385170208</v>
+        <v>3.8517020800000009E-4</v>
       </c>
       <c r="D175">
-        <v>0.00056552352</v>
+        <v>5.6552352000000005E-4</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -7200,10 +6566,10 @@
         <v>21</v>
       </c>
       <c r="C176">
-        <v>7.54496e-6</v>
+        <v>7.5449600000000012E-6</v>
       </c>
       <c r="D176">
-        <v>8.761632e-6</v>
+        <v>8.7616320000000001E-6</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -7214,10 +6580,10 @@
         <v>23</v>
       </c>
       <c r="C177">
-        <v>1.603304e-5</v>
+        <v>1.6033040000000003E-5</v>
       </c>
       <c r="D177">
-        <v>1.9713672e-5</v>
+        <v>1.9713672000000004E-5</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -7228,10 +6594,10 @@
         <v>7</v>
       </c>
       <c r="C178">
-        <v>3.81472e-7</v>
+        <v>3.8147200000000004E-7</v>
       </c>
       <c r="D178">
-        <v>4.05704e-7</v>
+        <v>4.0570400000000004E-7</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -7242,10 +6608,10 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>0.000126457968</v>
+        <v>1.2645796799999999E-4</v>
       </c>
       <c r="D179">
-        <v>-7.8300872e-5</v>
+        <v>9.1689104E-5</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -7256,10 +6622,10 @@
         <v>13</v>
       </c>
       <c r="C180">
-        <v>0.000114250864</v>
+        <v>1.14250864E-4</v>
       </c>
       <c r="D180">
-        <v>7.9315132e-5</v>
+        <v>7.931513200000001E-5</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -7270,10 +6636,10 @@
         <v>16</v>
       </c>
       <c r="C181">
-        <v>0.001204116368</v>
+        <v>1.2041163679999999E-3</v>
       </c>
       <c r="D181">
-        <v>0.001263565108</v>
+        <v>1.2635651080000001E-3</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -7284,10 +6650,10 @@
         <v>19</v>
       </c>
       <c r="C182">
-        <v>0.000442888992</v>
+        <v>4.42888992E-4</v>
       </c>
       <c r="D182">
-        <v>0.000567174192</v>
+        <v>5.6717419200000014E-4</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -7298,10 +6664,10 @@
         <v>21</v>
       </c>
       <c r="C183">
-        <v>5.531344e-6</v>
+        <v>5.5313440000000011E-6</v>
       </c>
       <c r="D183">
-        <v>8.722636e-6</v>
+        <v>8.722636000000002E-6</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -7312,10 +6678,10 @@
         <v>23</v>
       </c>
       <c r="C184">
-        <v>1.3732992e-5</v>
+        <v>1.3732992E-5</v>
       </c>
       <c r="D184">
-        <v>1.7648124e-5</v>
+        <v>1.7648124E-5</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -7326,10 +6692,10 @@
         <v>7</v>
       </c>
       <c r="C185">
-        <v>3.85696e-7</v>
+        <v>3.8569600000000007E-7</v>
       </c>
       <c r="D185">
-        <v>4.13152e-7</v>
+        <v>4.1315200000000007E-7</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -7340,10 +6706,10 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>0.000127858224</v>
+        <v>1.2785822400000001E-4</v>
       </c>
       <c r="D186">
-        <v>-7.9738336e-5</v>
+        <v>9.3372352000000003E-5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -7354,10 +6720,10 @@
         <v>13</v>
       </c>
       <c r="C187">
-        <v>0.000115515952</v>
+        <v>1.1551595200000001E-4</v>
       </c>
       <c r="D187">
-        <v>8.0771216e-5</v>
+        <v>8.0771216000000021E-5</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -7368,10 +6734,10 @@
         <v>16</v>
       </c>
       <c r="C188">
-        <v>0.001217449424</v>
+        <v>1.217449424E-3</v>
       </c>
       <c r="D188">
-        <v>0.001286761904</v>
+        <v>1.2867619040000003E-3</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -7382,10 +6748,10 @@
         <v>19</v>
       </c>
       <c r="C189">
-        <v>0.000447793056</v>
+        <v>4.4779305600000003E-4</v>
       </c>
       <c r="D189">
-        <v>0.000577586496</v>
+        <v>5.7758649600000013E-4</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -7396,10 +6762,10 @@
         <v>21</v>
       </c>
       <c r="C190">
-        <v>5.592592e-6</v>
+        <v>5.5925920000000011E-6</v>
       </c>
       <c r="D190">
-        <v>8.882768e-6</v>
+        <v>8.8827680000000032E-6</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -7410,10 +6776,10 @@
         <v>23</v>
       </c>
       <c r="C191">
-        <v>1.3885056e-5</v>
+        <v>1.3885056000000002E-5</v>
       </c>
       <c r="D191">
-        <v>1.7972112e-5</v>
+        <v>1.7972112E-5</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -7424,10 +6790,10 @@
         <v>7</v>
       </c>
       <c r="C192">
-        <v>3.8992e-7</v>
+        <v>3.8991999999999999E-7</v>
       </c>
       <c r="D192">
-        <v>4.206e-7</v>
+        <v>4.206000000000001E-7</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -7438,10 +6804,10 @@
         <v>10</v>
       </c>
       <c r="C193">
-        <v>0.00012925848</v>
+        <v>1.2925847999999999E-4</v>
       </c>
       <c r="D193">
-        <v>-8.11758e-5</v>
+        <v>9.5055600000000005E-5</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -7452,10 +6818,10 @@
         <v>13</v>
       </c>
       <c r="C194">
-        <v>0.00011678104</v>
+        <v>1.1678103999999999E-4</v>
       </c>
       <c r="D194">
-        <v>8.22273e-5</v>
+        <v>8.2227300000000018E-5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -7466,10 +6832,10 @@
         <v>16</v>
       </c>
       <c r="C195">
-        <v>0.00123078248</v>
+        <v>1.23078248E-3</v>
       </c>
       <c r="D195">
-        <v>0.0013099587</v>
+        <v>1.3099587000000002E-3</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -7480,10 +6846,10 @@
         <v>19</v>
       </c>
       <c r="C196">
-        <v>0.00045269712</v>
+        <v>4.5269711999999996E-4</v>
       </c>
       <c r="D196">
-        <v>0.0005879988</v>
+        <v>5.8799880000000011E-4</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -7494,10 +6860,10 @@
         <v>21</v>
       </c>
       <c r="C197">
-        <v>5.65384e-6</v>
+        <v>5.6538400000000002E-6</v>
       </c>
       <c r="D197">
-        <v>9.0429e-6</v>
+        <v>9.0429000000000028E-6</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -7508,10 +6874,10 @@
         <v>23</v>
       </c>
       <c r="C198">
-        <v>1.403712e-5</v>
+        <v>1.403712E-5</v>
       </c>
       <c r="D198">
-        <v>1.82961e-5</v>
+        <v>1.8296100000000003E-5</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -7522,10 +6888,10 @@
         <v>7</v>
       </c>
       <c r="C199">
-        <v>3.87088e-7</v>
+        <v>3.87088E-7</v>
       </c>
       <c r="D199">
-        <v>4.18408e-7</v>
+        <v>4.184080000000001E-7</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -7536,10 +6902,10 @@
         <v>10</v>
       </c>
       <c r="C200">
-        <v>0.000128319672</v>
+        <v>1.2831967199999997E-4</v>
       </c>
       <c r="D200">
-        <v>-8.0752744e-5</v>
+        <v>9.4560208000000012E-5</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -7550,10 +6916,10 @@
         <v>13</v>
       </c>
       <c r="C201">
-        <v>0.000115932856</v>
+        <v>1.15932856E-4</v>
       </c>
       <c r="D201">
-        <v>8.1798764e-5</v>
+        <v>8.1798764000000015E-5</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -7564,10 +6930,10 @@
         <v>16</v>
       </c>
       <c r="C202">
-        <v>0.001221843272</v>
+        <v>1.2218432719999998E-3</v>
       </c>
       <c r="D202">
-        <v>0.001303131716</v>
+        <v>1.3031317160000003E-3</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7578,10 +6944,10 @@
         <v>19</v>
       </c>
       <c r="C203">
-        <v>0.000449409168</v>
+        <v>4.4940916799999993E-4</v>
       </c>
       <c r="D203">
-        <v>0.000584934384</v>
+        <v>5.8493438400000015E-4</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -7592,10 +6958,10 @@
         <v>21</v>
       </c>
       <c r="C204">
-        <v>5.612776e-6</v>
+        <v>5.612776E-6</v>
       </c>
       <c r="D204">
-        <v>8.995772e-6</v>
+        <v>8.995772000000003E-6</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7606,10 +6972,10 @@
         <v>23</v>
       </c>
       <c r="C205">
-        <v>1.3935168e-5</v>
+        <v>1.3935167999999999E-5</v>
       </c>
       <c r="D205">
-        <v>1.8200748e-5</v>
+        <v>1.8200748000000001E-5</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7620,10 +6986,10 @@
         <v>7</v>
       </c>
       <c r="C206">
-        <v>3.84256e-7</v>
+        <v>3.8425599999999997E-7</v>
       </c>
       <c r="D206">
-        <v>4.16216e-7</v>
+        <v>4.1621600000000011E-7</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7634,10 +7000,10 @@
         <v>10</v>
       </c>
       <c r="C207">
-        <v>0.000127380864</v>
+        <v>1.2738086399999998E-4</v>
       </c>
       <c r="D207">
-        <v>-8.0329688e-5</v>
+        <v>9.4064816000000005E-5</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7648,10 +7014,10 @@
         <v>13</v>
       </c>
       <c r="C208">
-        <v>0.000115084672</v>
+        <v>1.15084672E-4</v>
       </c>
       <c r="D208">
-        <v>8.1370228e-5</v>
+        <v>8.1370228000000026E-5</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -7662,10 +7028,10 @@
         <v>16</v>
       </c>
       <c r="C209">
-        <v>0.001212904064</v>
+        <v>1.2129040639999999E-3</v>
       </c>
       <c r="D209">
-        <v>0.001296304732</v>
+        <v>1.2963047320000002E-3</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7676,10 +7042,10 @@
         <v>19</v>
       </c>
       <c r="C210">
-        <v>0.000446121216</v>
+        <v>4.4612121599999996E-4</v>
       </c>
       <c r="D210">
-        <v>0.000581869968</v>
+        <v>5.8186996800000008E-4</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -7690,10 +7056,10 @@
         <v>21</v>
       </c>
       <c r="C211">
-        <v>5.571712e-6</v>
+        <v>5.5717119999999999E-6</v>
       </c>
       <c r="D211">
-        <v>8.948644e-6</v>
+        <v>8.9486440000000031E-6</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -7704,10 +7070,10 @@
         <v>23</v>
       </c>
       <c r="C212">
-        <v>1.3833216e-5</v>
+        <v>1.3833215999999999E-5</v>
       </c>
       <c r="D212">
-        <v>1.8105396e-5</v>
+        <v>1.8105396E-5</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -7718,10 +7084,10 @@
         <v>7</v>
       </c>
       <c r="C213">
-        <v>3.81424e-7</v>
+        <v>3.8142400000000004E-7</v>
       </c>
       <c r="D213">
-        <v>4.14024e-7</v>
+        <v>4.14024E-7</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -7732,10 +7098,10 @@
         <v>10</v>
       </c>
       <c r="C214">
-        <v>0.000126442056</v>
+        <v>1.2644205600000001E-4</v>
       </c>
       <c r="D214">
-        <v>-7.9906632e-5</v>
+        <v>9.3569423999999998E-5</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -7746,10 +7112,10 @@
         <v>13</v>
       </c>
       <c r="C215">
-        <v>0.000114236488</v>
+        <v>1.1423648800000001E-4</v>
       </c>
       <c r="D215">
-        <v>8.0941692e-5</v>
+        <v>8.094169200000001E-5</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -7760,10 +7126,10 @@
         <v>16</v>
       </c>
       <c r="C216">
-        <v>0.001203964856</v>
+        <v>1.2039648560000001E-3</v>
       </c>
       <c r="D216">
-        <v>0.001289477748</v>
+        <v>1.2894777480000001E-3</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7774,10 +7140,10 @@
         <v>19</v>
       </c>
       <c r="C217">
-        <v>0.000442833264</v>
+        <v>4.4283326400000004E-4</v>
       </c>
       <c r="D217">
-        <v>0.000578805552</v>
+        <v>5.7880555200000002E-4</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -7788,10 +7154,10 @@
         <v>21</v>
       </c>
       <c r="C218">
-        <v>5.530648e-6</v>
+        <v>5.5306480000000014E-6</v>
       </c>
       <c r="D218">
-        <v>8.901516e-6</v>
+        <v>8.9015160000000015E-6</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -7802,10 +7168,10 @@
         <v>23</v>
       </c>
       <c r="C219">
-        <v>1.3731264e-5</v>
+        <v>1.3731264000000002E-5</v>
       </c>
       <c r="D219">
-        <v>1.8010044e-5</v>
+        <v>1.8010043999999999E-5</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -7816,10 +7182,10 @@
         <v>7</v>
       </c>
       <c r="C220">
-        <v>3.78592e-7</v>
+        <v>3.7859200000000006E-7</v>
       </c>
       <c r="D220">
-        <v>4.11832e-7</v>
+        <v>4.11832E-7</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -7830,10 +7196,10 @@
         <v>10</v>
       </c>
       <c r="C221">
-        <v>0.000125503248</v>
+        <v>1.2550324800000002E-4</v>
       </c>
       <c r="D221">
-        <v>-7.9483576e-5</v>
+        <v>9.3074031999999991E-5</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -7844,10 +7210,10 @@
         <v>13</v>
       </c>
       <c r="C222">
-        <v>0.000113388304</v>
+        <v>1.1338830400000001E-4</v>
       </c>
       <c r="D222">
-        <v>8.0513156e-5</v>
+        <v>8.0513156000000007E-5</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -7858,10 +7224,10 @@
         <v>16</v>
       </c>
       <c r="C223">
-        <v>0.001195025648</v>
+        <v>1.195025648E-3</v>
       </c>
       <c r="D223">
-        <v>0.001282650764</v>
+        <v>1.282650764E-3</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7872,10 +7238,10 @@
         <v>19</v>
       </c>
       <c r="C224">
-        <v>0.000439545312</v>
+        <v>4.3954531200000001E-4</v>
       </c>
       <c r="D224">
-        <v>0.000575741136</v>
+        <v>5.7574113600000006E-4</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -7886,10 +7252,10 @@
         <v>21</v>
       </c>
       <c r="C225">
-        <v>5.489584e-6</v>
+        <v>5.4895840000000012E-6</v>
       </c>
       <c r="D225">
-        <v>8.854388e-6</v>
+        <v>8.8543880000000017E-6</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -7900,10 +7266,10 @@
         <v>23</v>
       </c>
       <c r="C226">
-        <v>1.3629312e-5</v>
+        <v>1.3629312000000001E-5</v>
       </c>
       <c r="D226">
-        <v>1.7914692e-5</v>
+        <v>1.7914691999999998E-5</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -7914,10 +7280,10 @@
         <v>7</v>
       </c>
       <c r="C227">
-        <v>3.7576e-7</v>
+        <v>3.7576000000000002E-7</v>
       </c>
       <c r="D227">
-        <v>4.0964e-7</v>
+        <v>4.0964000000000001E-7</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -7928,10 +7294,10 @@
         <v>10</v>
       </c>
       <c r="C228">
-        <v>0.00012456444</v>
+        <v>1.2456444E-4</v>
       </c>
       <c r="D228">
-        <v>-7.906052e-5</v>
+        <v>9.2578639999999998E-5</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -7942,10 +7308,10 @@
         <v>13</v>
       </c>
       <c r="C229">
-        <v>0.00011254012</v>
+        <v>1.1254012000000001E-4</v>
       </c>
       <c r="D229">
-        <v>8.008462e-5</v>
+        <v>8.0084620000000004E-5</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -7956,10 +7322,10 @@
         <v>16</v>
       </c>
       <c r="C230">
-        <v>0.00118608644</v>
+        <v>1.18608644E-3</v>
       </c>
       <c r="D230">
-        <v>0.00127582378</v>
+        <v>1.2758237800000001E-3</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -7970,10 +7336,10 @@
         <v>19</v>
       </c>
       <c r="C231">
-        <v>0.00043625736</v>
+        <v>4.3625736000000003E-4</v>
       </c>
       <c r="D231">
-        <v>0.00057267672</v>
+        <v>5.7267671999999999E-4</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -7984,10 +7350,10 @@
         <v>21</v>
       </c>
       <c r="C232">
-        <v>5.44852e-6</v>
+        <v>5.448520000000001E-6</v>
       </c>
       <c r="D232">
-        <v>8.80726e-6</v>
+        <v>8.8072600000000018E-6</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -7998,10 +7364,10 @@
         <v>23</v>
       </c>
       <c r="C233">
-        <v>1.352736e-5</v>
+        <v>1.3527360000000001E-5</v>
       </c>
       <c r="D233">
-        <v>1.781934e-5</v>
+        <v>1.781934E-5</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -8012,10 +7378,10 @@
         <v>7</v>
       </c>
       <c r="C234">
-        <v>3.76232e-7</v>
+        <v>3.7623200000000003E-7</v>
       </c>
       <c r="D234">
-        <v>4.14496e-7</v>
+        <v>4.1449600000000001E-7</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -8026,10 +7392,10 @@
         <v>10</v>
       </c>
       <c r="C235">
-        <v>0.000124720908</v>
+        <v>1.2472090799999999E-4</v>
       </c>
       <c r="D235">
-        <v>-7.9997728e-5</v>
+        <v>9.3676095999999985E-5</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -8040,10 +7406,10 @@
         <v>13</v>
       </c>
       <c r="C236">
-        <v>0.000112681484</v>
+        <v>1.12681484E-4</v>
       </c>
       <c r="D236">
-        <v>8.1033968e-5</v>
+        <v>8.1033968000000003E-5</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -8054,10 +7420,10 @@
         <v>16</v>
       </c>
       <c r="C237">
-        <v>0.001187576308</v>
+        <v>1.1875763079999999E-3</v>
       </c>
       <c r="D237">
-        <v>0.001290947792</v>
+        <v>1.2909477919999998E-3</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -8068,10 +7434,10 @@
         <v>19</v>
       </c>
       <c r="C238">
-        <v>0.000436805352</v>
+        <v>4.3680535199999997E-4</v>
       </c>
       <c r="D238">
-        <v>0.000579465408</v>
+        <v>5.7946540799999992E-4</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -8082,10 +7448,10 @@
         <v>21</v>
       </c>
       <c r="C239">
-        <v>5.455364e-6</v>
+        <v>5.4553640000000002E-6</v>
       </c>
       <c r="D239">
-        <v>8.911664e-6</v>
+        <v>8.9116640000000013E-6</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -8096,10 +7462,10 @@
         <v>23</v>
       </c>
       <c r="C240">
-        <v>1.3544352e-5</v>
+        <v>1.3544351999999999E-5</v>
       </c>
       <c r="D240">
-        <v>1.8030576e-5</v>
+        <v>1.8030575999999997E-5</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -8110,10 +7476,10 @@
         <v>7</v>
       </c>
       <c r="C241">
-        <v>3.76704e-7</v>
+        <v>3.7670400000000004E-7</v>
       </c>
       <c r="D241">
-        <v>4.19352e-7</v>
+        <v>4.1935200000000001E-7</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -8124,10 +7490,10 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>0.000124877376</v>
+        <v>1.2487737600000001E-4</v>
       </c>
       <c r="D242">
-        <v>-8.0934936e-5</v>
+        <v>9.4773551999999999E-5</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -8138,10 +7504,10 @@
         <v>13</v>
       </c>
       <c r="C243">
-        <v>0.000112822848</v>
+        <v>1.1282284800000001E-4</v>
       </c>
       <c r="D243">
-        <v>8.1983316e-5</v>
+        <v>8.1983316000000002E-5</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -8152,10 +7518,10 @@
         <v>16</v>
       </c>
       <c r="C244">
-        <v>0.001189066176</v>
+        <v>1.1890661760000001E-3</v>
       </c>
       <c r="D244">
-        <v>0.001306071804</v>
+        <v>1.3060718040000001E-3</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -8166,10 +7532,10 @@
         <v>19</v>
       </c>
       <c r="C245">
-        <v>0.000437353344</v>
+        <v>4.3735334400000001E-4</v>
       </c>
       <c r="D245">
-        <v>0.000586254096</v>
+        <v>5.8625409600000008E-4</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -8180,10 +7546,10 @@
         <v>21</v>
       </c>
       <c r="C246">
-        <v>5.462208e-6</v>
+        <v>5.462208000000001E-6</v>
       </c>
       <c r="D246">
-        <v>9.016068e-6</v>
+        <v>9.0160680000000025E-6</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -8194,10 +7560,10 @@
         <v>23</v>
       </c>
       <c r="C247">
-        <v>1.3561344e-5</v>
+        <v>1.3561344E-5</v>
       </c>
       <c r="D247">
-        <v>1.8241812e-5</v>
+        <v>1.8241811999999998E-5</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -8208,10 +7574,10 @@
         <v>7</v>
       </c>
       <c r="C248">
-        <v>3.77176e-7</v>
+        <v>3.7717599999999999E-7</v>
       </c>
       <c r="D248">
-        <v>2.12104e-7</v>
+        <v>2.1210400000000003E-7</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -8222,10 +7588,10 @@
         <v>10</v>
       </c>
       <c r="C249">
-        <v>0.000182364596</v>
+        <v>1.8236459600000005E-4</v>
       </c>
       <c r="D249">
-        <v>-0.000103082544</v>
+        <v>1.6247166400000003E-4</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -8236,10 +7602,10 @@
         <v>13</v>
       </c>
       <c r="C250">
-        <v>0.000125033844</v>
+        <v>1.25033844E-4</v>
       </c>
       <c r="D250">
-        <v>0.000104143064</v>
+        <v>1.0414306400000002E-4</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -8250,10 +7616,10 @@
         <v>16</v>
       </c>
       <c r="C251">
-        <v>0.001130396472</v>
+        <v>1.1303964719999999E-3</v>
       </c>
       <c r="D251">
-        <v>0.001270290856</v>
+        <v>1.2702908560000004E-3</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -8264,10 +7630,10 @@
         <v>19</v>
       </c>
       <c r="C252">
-        <v>0.000432620872</v>
+        <v>4.3262087200000003E-4</v>
       </c>
       <c r="D252">
-        <v>0.000557621416</v>
+        <v>5.5762141600000008E-4</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -8278,10 +7644,10 @@
         <v>21</v>
       </c>
       <c r="C253">
-        <v>3.960348e-6</v>
+        <v>3.9603480000000013E-6</v>
       </c>
       <c r="D253">
-        <v>9.54468e-6</v>
+        <v>9.5446800000000006E-6</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -8292,10 +7658,10 @@
         <v>23</v>
       </c>
       <c r="C254">
-        <v>1.131528e-5</v>
+        <v>1.131528E-5</v>
       </c>
       <c r="D254">
-        <v>1.6544112e-5</v>
+        <v>1.6544112000000003E-5</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -8306,10 +7672,10 @@
         <v>7</v>
       </c>
       <c r="C255">
-        <v>3.77648e-7</v>
+        <v>3.7764800000000005E-7</v>
       </c>
       <c r="D255">
-        <v>2.14532e-7</v>
+        <v>2.1453200000000006E-7</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -8320,10 +7686,10 @@
         <v>10</v>
       </c>
       <c r="C256">
-        <v>0.000182592808</v>
+        <v>1.8259280800000005E-4</v>
       </c>
       <c r="D256">
-        <v>-0.000104262552</v>
+        <v>1.6433151200000005E-4</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -8334,10 +7700,10 @@
         <v>13</v>
       </c>
       <c r="C257">
-        <v>0.000125190312</v>
+        <v>1.2519031200000001E-4</v>
       </c>
       <c r="D257">
-        <v>0.000105335212</v>
+        <v>1.0533521200000003E-4</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -8348,10 +7714,10 @@
         <v>16</v>
       </c>
       <c r="C258">
-        <v>0.001131811056</v>
+        <v>1.1318110560000001E-3</v>
       </c>
       <c r="D258">
-        <v>0.001284832148</v>
+        <v>1.2848321480000006E-3</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -8362,10 +7728,10 @@
         <v>19</v>
       </c>
       <c r="C259">
-        <v>0.000433162256</v>
+        <v>4.3316225600000007E-4</v>
       </c>
       <c r="D259">
-        <v>0.000564004628</v>
+        <v>5.640046280000002E-4</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -8376,10 +7742,10 @@
         <v>21</v>
       </c>
       <c r="C260">
-        <v>3.965304e-6</v>
+        <v>3.9653040000000018E-6</v>
       </c>
       <c r="D260">
-        <v>9.65394e-6</v>
+        <v>9.653940000000002E-6</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -8390,10 +7756,10 @@
         <v>23</v>
       </c>
       <c r="C261">
-        <v>1.132944e-5</v>
+        <v>1.1329440000000001E-5</v>
       </c>
       <c r="D261">
-        <v>1.6733496e-5</v>
+        <v>1.6733496000000004E-5</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -8404,10 +7770,10 @@
         <v>7</v>
       </c>
       <c r="C262">
-        <v>3.7812e-7</v>
+        <v>3.7812E-7</v>
       </c>
       <c r="D262">
-        <v>2.1696e-7</v>
+        <v>2.1696000000000003E-7</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -8418,10 +7784,10 @@
         <v>10</v>
       </c>
       <c r="C263">
-        <v>0.00018282102</v>
+        <v>1.8282102000000003E-4</v>
       </c>
       <c r="D263">
-        <v>-0.00010544256</v>
+        <v>1.6619136000000002E-4</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -8432,10 +7798,10 @@
         <v>13</v>
       </c>
       <c r="C264">
-        <v>0.00012534678</v>
+        <v>1.2534677999999998E-4</v>
       </c>
       <c r="D264">
-        <v>0.00010652736</v>
+        <v>1.0652736000000002E-4</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -8446,10 +7812,10 @@
         <v>16</v>
       </c>
       <c r="C265">
-        <v>0.00113322564</v>
+        <v>1.1332256399999999E-3</v>
       </c>
       <c r="D265">
-        <v>0.00129937344</v>
+        <v>1.2993734400000003E-3</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -8460,10 +7826,10 @@
         <v>19</v>
       </c>
       <c r="C266">
-        <v>0.00043370364</v>
+        <v>4.3370364000000001E-4</v>
       </c>
       <c r="D266">
-        <v>0.00057038784</v>
+        <v>5.7038784000000011E-4</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -8474,10 +7840,10 @@
         <v>21</v>
       </c>
       <c r="C267">
-        <v>3.97026e-6</v>
+        <v>3.9702600000000014E-6</v>
       </c>
       <c r="D267">
-        <v>9.7632e-6</v>
+        <v>9.7632E-6</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -8488,10 +7854,10 @@
         <v>23</v>
       </c>
       <c r="C268">
-        <v>1.13436e-5</v>
+        <v>1.1343599999999999E-5</v>
       </c>
       <c r="D268">
-        <v>1.692288e-5</v>
+        <v>1.6922880000000002E-5</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -8502,10 +7868,10 @@
         <v>7</v>
       </c>
       <c r="C269">
-        <v>3.70816e-7</v>
+        <v>3.7081599999999998E-7</v>
       </c>
       <c r="D269">
-        <v>2.13568e-7</v>
+        <v>2.1356800000000002E-7</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -8516,10 +7882,10 @@
         <v>10</v>
       </c>
       <c r="C270">
-        <v>0.000179289536</v>
+        <v>1.7928953600000004E-4</v>
       </c>
       <c r="D270">
-        <v>-0.000103794048</v>
+        <v>1.6359308800000002E-4</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -8530,10 +7896,10 @@
         <v>13</v>
       </c>
       <c r="C271">
-        <v>0.000122925504</v>
+        <v>1.2292550399999998E-4</v>
       </c>
       <c r="D271">
-        <v>0.000104861888</v>
+        <v>1.0486188800000001E-4</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -8544,10 +7910,10 @@
         <v>16</v>
       </c>
       <c r="C272">
-        <v>0.001111335552</v>
+        <v>1.1113355519999999E-3</v>
       </c>
       <c r="D272">
-        <v>0.001279058752</v>
+        <v>1.2790587520000003E-3</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -8558,10 +7924,10 @@
         <v>19</v>
       </c>
       <c r="C273">
-        <v>0.000425325952</v>
+        <v>4.2532595200000004E-4</v>
       </c>
       <c r="D273">
-        <v>0.000561470272</v>
+        <v>5.6147027200000011E-4</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -8572,10 +7938,10 @@
         <v>21</v>
       </c>
       <c r="C274">
-        <v>3.893568e-6</v>
+        <v>3.8935680000000011E-6</v>
       </c>
       <c r="D274">
-        <v>9.61056e-6</v>
+        <v>9.6105599999999997E-6</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -8586,10 +7952,10 @@
         <v>23</v>
       </c>
       <c r="C275">
-        <v>1.112448e-5</v>
+        <v>1.112448E-5</v>
       </c>
       <c r="D275">
-        <v>1.6658304e-5</v>
+        <v>1.6658304E-5</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -8600,10 +7966,10 @@
         <v>7</v>
       </c>
       <c r="C276">
-        <v>3.63512e-7</v>
+        <v>3.6351200000000001E-7</v>
       </c>
       <c r="D276">
-        <v>2.10176e-7</v>
+        <v>2.1017600000000004E-7</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -8614,10 +7980,10 @@
         <v>10</v>
       </c>
       <c r="C277">
-        <v>0.000175758052</v>
+        <v>1.7575805200000004E-4</v>
       </c>
       <c r="D277">
-        <v>-0.000102145536</v>
+        <v>1.6099481600000002E-4</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -8628,10 +7994,10 @@
         <v>13</v>
       </c>
       <c r="C278">
-        <v>0.000120504228</v>
+        <v>1.2050422799999999E-4</v>
       </c>
       <c r="D278">
-        <v>0.000103196416</v>
+        <v>1.0319641600000002E-4</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -8642,10 +8008,10 @@
         <v>16</v>
       </c>
       <c r="C279">
-        <v>0.001089445464</v>
+        <v>1.089445464E-3</v>
       </c>
       <c r="D279">
-        <v>0.001258744064</v>
+        <v>1.2587440640000004E-3</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -8656,10 +8022,10 @@
         <v>19</v>
       </c>
       <c r="C280">
-        <v>0.000416948264</v>
+        <v>4.1694826400000002E-4</v>
       </c>
       <c r="D280">
-        <v>0.000552552704</v>
+        <v>5.5255270400000011E-4</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -8670,10 +8036,10 @@
         <v>21</v>
       </c>
       <c r="C281">
-        <v>3.816876e-6</v>
+        <v>3.8168760000000009E-6</v>
       </c>
       <c r="D281">
-        <v>9.45792e-6</v>
+        <v>9.4579200000000011E-6</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -8684,10 +8050,10 @@
         <v>23</v>
       </c>
       <c r="C282">
-        <v>1.090536e-5</v>
+        <v>1.090536E-5</v>
       </c>
       <c r="D282">
-        <v>1.6393728e-5</v>
+        <v>1.6393728000000002E-5</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -8698,10 +8064,10 @@
         <v>7</v>
       </c>
       <c r="C283">
-        <v>3.56208e-7</v>
+        <v>3.5620799999999998E-7</v>
       </c>
       <c r="D283">
-        <v>2.06784e-7</v>
+        <v>2.0678400000000001E-7</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -8712,10 +8078,10 @@
         <v>10</v>
       </c>
       <c r="C284">
-        <v>0.000172226568</v>
+        <v>1.7222656800000002E-4</v>
       </c>
       <c r="D284">
-        <v>-0.000100497024</v>
+        <v>1.5839654400000001E-4</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -8726,10 +8092,10 @@
         <v>13</v>
       </c>
       <c r="C285">
-        <v>0.000118082952</v>
+        <v>1.1808295199999998E-4</v>
       </c>
       <c r="D285">
-        <v>0.000101530944</v>
+        <v>1.0153094400000001E-4</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -8740,10 +8106,10 @@
         <v>16</v>
       </c>
       <c r="C286">
-        <v>0.001067555376</v>
+        <v>1.067555376E-3</v>
       </c>
       <c r="D286">
-        <v>0.001238429376</v>
+        <v>1.2384293760000003E-3</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -8754,10 +8120,10 @@
         <v>19</v>
       </c>
       <c r="C287">
-        <v>0.000408570576</v>
+        <v>4.08570576E-4</v>
       </c>
       <c r="D287">
-        <v>0.000543635136</v>
+        <v>5.436351360000001E-4</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -8768,10 +8134,10 @@
         <v>21</v>
       </c>
       <c r="C288">
-        <v>3.740184e-6</v>
+        <v>3.740184000000001E-6</v>
       </c>
       <c r="D288">
-        <v>9.30528e-6</v>
+        <v>9.3052799999999991E-6</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -8782,10 +8148,10 @@
         <v>23</v>
       </c>
       <c r="C289">
-        <v>1.068624e-5</v>
+        <v>1.0686239999999999E-5</v>
       </c>
       <c r="D289">
-        <v>1.6129152e-5</v>
+        <v>1.6129152E-5</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -8796,10 +8162,10 @@
         <v>7</v>
       </c>
       <c r="C290">
-        <v>3.48904e-7</v>
+        <v>3.4890400000000001E-7</v>
       </c>
       <c r="D290">
-        <v>2.03392e-7</v>
+        <v>2.0339200000000003E-7</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -8810,10 +8176,10 @@
         <v>10</v>
       </c>
       <c r="C291">
-        <v>0.000168695084</v>
+        <v>1.6869508400000005E-4</v>
       </c>
       <c r="D291">
-        <v>-9.8848512e-5</v>
+        <v>1.5579827200000001E-4</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -8824,10 +8190,10 @@
         <v>13</v>
       </c>
       <c r="C292">
-        <v>0.000115661676</v>
+        <v>1.15661676E-4</v>
       </c>
       <c r="D292">
-        <v>9.9865472e-5</v>
+        <v>9.9865472000000018E-5</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -8838,10 +8204,10 @@
         <v>16</v>
       </c>
       <c r="C293">
-        <v>0.001045665288</v>
+        <v>1.045665288E-3</v>
       </c>
       <c r="D293">
-        <v>0.001218114688</v>
+        <v>1.2181146880000005E-3</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -8852,10 +8218,10 @@
         <v>19</v>
       </c>
       <c r="C294">
-        <v>0.000400192888</v>
+        <v>4.0019288800000004E-4</v>
       </c>
       <c r="D294">
-        <v>0.000534717568</v>
+        <v>5.347175680000001E-4</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -8866,10 +8232,10 @@
         <v>21</v>
       </c>
       <c r="C295">
-        <v>3.663492e-6</v>
+        <v>3.6634920000000012E-6</v>
       </c>
       <c r="D295">
-        <v>9.15264e-6</v>
+        <v>9.1526400000000005E-6</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -8880,10 +8246,10 @@
         <v>23</v>
       </c>
       <c r="C296">
-        <v>1.046712e-5</v>
+        <v>1.046712E-5</v>
       </c>
       <c r="D296">
-        <v>1.5864576e-5</v>
+        <v>1.5864576000000002E-5</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -8894,10 +8260,10 @@
         <v>7</v>
       </c>
       <c r="C297">
-        <v>3.416e-7</v>
+        <v>3.4159999999999999E-7</v>
       </c>
       <c r="D297">
-        <v>2e-7</v>
+        <v>2.0000000000000002E-7</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -8908,10 +8274,10 @@
         <v>10</v>
       </c>
       <c r="C298">
-        <v>0.0001651636</v>
+        <v>1.6516360000000003E-4</v>
       </c>
       <c r="D298">
-        <v>-9.72e-5</v>
+        <v>1.5320000000000001E-4</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -8922,10 +8288,10 @@
         <v>13</v>
       </c>
       <c r="C299">
-        <v>0.0001132404</v>
+        <v>1.1324039999999999E-4</v>
       </c>
       <c r="D299">
-        <v>9.82e-5</v>
+        <v>9.8200000000000015E-5</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -8936,10 +8302,10 @@
         <v>16</v>
       </c>
       <c r="C300">
-        <v>0.0010237752</v>
+        <v>1.0237752000000001E-3</v>
       </c>
       <c r="D300">
-        <v>0.0011978</v>
+        <v>1.1978000000000002E-3</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -8950,10 +8316,10 @@
         <v>19</v>
       </c>
       <c r="C301">
-        <v>0.0003918152</v>
+        <v>3.9181520000000002E-4</v>
       </c>
       <c r="D301">
-        <v>0.0005258</v>
+        <v>5.258000000000001E-4</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -8964,10 +8330,10 @@
         <v>21</v>
       </c>
       <c r="C302">
-        <v>3.5868e-6</v>
+        <v>3.586800000000001E-6</v>
       </c>
       <c r="D302">
-        <v>9e-6</v>
+        <v>9.0000000000000002E-6</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -8978,10 +8344,10 @@
         <v>23</v>
       </c>
       <c r="C303">
-        <v>1.0248e-5</v>
+        <v>1.0247999999999999E-5</v>
       </c>
       <c r="D303">
-        <v>1.56e-5</v>
+        <v>1.56E-5</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -8992,10 +8358,10 @@
         <v>7</v>
       </c>
       <c r="C304">
-        <v>3.288e-7</v>
+        <v>3.2879999999999998E-7</v>
       </c>
       <c r="D304">
-        <v>1.92372e-7</v>
+        <v>1.9237200000000005E-7</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -9006,10 +8372,10 @@
         <v>10</v>
       </c>
       <c r="C305">
-        <v>0.0001589748</v>
+        <v>1.5897480000000001E-4</v>
       </c>
       <c r="D305">
-        <v>-9.3492792e-5</v>
+        <v>1.4735695200000003E-4</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -9020,10 +8386,10 @@
         <v>13</v>
       </c>
       <c r="C306">
-        <v>0.0001089972</v>
+        <v>1.0899719999999999E-4</v>
       </c>
       <c r="D306">
-        <v>9.4454652e-5</v>
+        <v>9.4454652000000025E-5</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -9034,10 +8400,10 @@
         <v>16</v>
       </c>
       <c r="C307">
-        <v>0.0009854136</v>
+        <v>9.8541360000000008E-4</v>
       </c>
       <c r="D307">
-        <v>0.001152115908</v>
+        <v>1.1521159080000003E-3</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -9048,10 +8414,10 @@
         <v>19</v>
       </c>
       <c r="C308">
-        <v>0.0003771336</v>
+        <v>3.7713360000000002E-4</v>
       </c>
       <c r="D308">
-        <v>0.000505745988</v>
+        <v>5.0574598800000011E-4</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -9062,10 +8428,10 @@
         <v>21</v>
       </c>
       <c r="C309">
-        <v>3.4524e-6</v>
+        <v>3.452400000000001E-6</v>
       </c>
       <c r="D309">
-        <v>8.65674e-6</v>
+        <v>8.6567400000000007E-6</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -9076,10 +8442,10 @@
         <v>23</v>
       </c>
       <c r="C310">
-        <v>9.864e-6</v>
+        <v>9.8639999999999991E-6</v>
       </c>
       <c r="D310">
-        <v>1.5005016e-5</v>
+        <v>1.5005016000000003E-5</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -9090,10 +8456,10 @@
         <v>7</v>
       </c>
       <c r="C311">
-        <v>3.16e-7</v>
+        <v>3.1600000000000002E-7</v>
       </c>
       <c r="D311">
-        <v>1.84744e-7</v>
+        <v>1.8474400000000003E-7</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -9104,10 +8470,10 @@
         <v>10</v>
       </c>
       <c r="C312">
-        <v>0.000152786</v>
+        <v>1.5278600000000002E-4</v>
       </c>
       <c r="D312">
-        <v>-8.9785584e-5</v>
+        <v>1.41513904E-4</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -9118,10 +8484,10 @@
         <v>13</v>
       </c>
       <c r="C313">
-        <v>0.000104754</v>
+        <v>1.0475399999999999E-4</v>
       </c>
       <c r="D313">
-        <v>9.0709304e-5</v>
+        <v>9.070930400000002E-5</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -9132,10 +8498,10 @@
         <v>16</v>
       </c>
       <c r="C314">
-        <v>0.000947052</v>
+        <v>9.4705200000000009E-4</v>
       </c>
       <c r="D314">
-        <v>0.001106431816</v>
+        <v>1.1064318160000002E-3</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -9146,10 +8512,10 @@
         <v>19</v>
       </c>
       <c r="C315">
-        <v>0.000362452</v>
+        <v>3.6245200000000003E-4</v>
       </c>
       <c r="D315">
-        <v>0.000485691976</v>
+        <v>4.8569197600000007E-4</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -9160,10 +8526,10 @@
         <v>21</v>
       </c>
       <c r="C316">
-        <v>3.318e-6</v>
+        <v>3.3180000000000011E-6</v>
       </c>
       <c r="D316">
-        <v>8.31348e-6</v>
+        <v>8.3134799999999996E-6</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -9174,10 +8540,10 @@
         <v>23</v>
       </c>
       <c r="C317">
-        <v>9.48e-6</v>
+        <v>9.4800000000000007E-6</v>
       </c>
       <c r="D317">
-        <v>1.4410032e-5</v>
+        <v>1.4410032000000002E-5</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -9188,10 +8554,10 @@
         <v>7</v>
       </c>
       <c r="C318">
-        <v>3.032e-7</v>
+        <v>3.0320000000000002E-7</v>
       </c>
       <c r="D318">
-        <v>1.77116e-7</v>
+        <v>1.7711600000000001E-7</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -9202,10 +8568,10 @@
         <v>10</v>
       </c>
       <c r="C319">
-        <v>0.0001465972</v>
+        <v>1.4659720000000003E-4</v>
       </c>
       <c r="D319">
-        <v>-8.6078376e-5</v>
+        <v>1.35670856E-4</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -9216,10 +8582,10 @@
         <v>13</v>
       </c>
       <c r="C320">
-        <v>0.0001005108</v>
+        <v>1.005108E-4</v>
       </c>
       <c r="D320">
-        <v>8.6963956e-5</v>
+        <v>8.6963956000000016E-5</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -9230,10 +8596,10 @@
         <v>16</v>
       </c>
       <c r="C321">
-        <v>0.0009086904</v>
+        <v>9.0869040000000011E-4</v>
       </c>
       <c r="D321">
-        <v>0.001060747724</v>
+        <v>1.0607477240000003E-3</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -9244,10 +8610,10 @@
         <v>19</v>
       </c>
       <c r="C322">
-        <v>0.0003477704</v>
+        <v>3.4777040000000004E-4</v>
       </c>
       <c r="D322">
-        <v>0.000465637964</v>
+        <v>4.6563796400000008E-4</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -9258,10 +8624,10 @@
         <v>21</v>
       </c>
       <c r="C323">
-        <v>3.1836e-6</v>
+        <v>3.1836000000000012E-6</v>
       </c>
       <c r="D323">
-        <v>7.97022e-6</v>
+        <v>7.9702200000000001E-6</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -9272,46 +8638,212 @@
         <v>23</v>
       </c>
       <c r="C324">
-        <v>9.096e-6</v>
+        <v>9.0960000000000007E-6</v>
       </c>
       <c r="D324">
-        <v>1.3815048e-5</v>
+        <v>1.3815048000000002E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1.5364205191440001E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.4662910676960001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1.5438309075E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.4735981660400003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1.584921314892E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.5122987239360001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1.6260117222840003E-3</v>
+      </c>
+      <c r="C5">
+        <v>1.5509992818320004E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1.6671021296760004E-3</v>
+      </c>
+      <c r="C6">
+        <v>1.5896998397280004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.6801808730160001E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.6217009494840001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1.7205974625199999E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.6602422883200006E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1.7523753916719998E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.6831129729040005E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1.7042623012800001E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.6971599851360003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1.7346172747200004E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.719912378184E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>7.6657600000000004E-4</v>
+      </c>
+      <c r="C12">
+        <v>1.6560544000000003E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>7.7976E-4</v>
+      </c>
+      <c r="C13">
+        <v>1.6776760000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>7.7643199999999997E-4</v>
+      </c>
+      <c r="C14">
+        <v>1.6781128000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>7.7310400000000004E-4</v>
+      </c>
+      <c r="C15">
+        <v>1.6785496000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>7.697759999999999E-4</v>
+      </c>
+      <c r="C16">
+        <v>1.6789864000000003E-3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="4:5">
+    <row r="1" spans="1:5">
       <c r="D1" t="s">
         <v>108</v>
       </c>
@@ -9423,6 +8955,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_bar.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_bar.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\auxiliary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74731F83-8573-42B6-B48B-284658D088F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9960" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="popg0" sheetId="1" r:id="rId1"/>
@@ -400,25 +394,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -426,13 +756,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,17 +1012,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -708,19 +1324,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,10 +1351,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.5296400000000001E-3</v>
+        <v>0.00152964</v>
       </c>
       <c r="C2">
-        <v>1.4792400000000002E-3</v>
+        <v>0.00147924</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -744,10 +1362,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.5372000000000001E-3</v>
+        <v>0.0015372</v>
       </c>
       <c r="C3">
-        <v>1.4868000000000001E-3</v>
+        <v>0.0014868</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -755,10 +1373,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.5447600000000001E-3</v>
+        <v>0.00154476</v>
       </c>
       <c r="C4">
-        <v>1.4943600000000001E-3</v>
+        <v>0.00149436</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -766,10 +1384,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.55232E-3</v>
+        <v>0.00155232</v>
       </c>
       <c r="C5">
-        <v>1.5019200000000001E-3</v>
+        <v>0.00150192</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -777,10 +1395,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.55988E-3</v>
+        <v>0.00155988</v>
       </c>
       <c r="C6">
-        <v>1.5094800000000001E-3</v>
+        <v>0.00150948</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -788,10 +1406,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.56744E-3</v>
+        <v>0.00156744</v>
       </c>
       <c r="C7">
-        <v>1.5170400000000001E-3</v>
+        <v>0.00151704</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -799,10 +1417,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.575E-3</v>
+        <v>0.001575</v>
       </c>
       <c r="C8">
-        <v>1.5246000000000001E-3</v>
+        <v>0.0015246</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -810,10 +1428,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.61692E-3</v>
+        <v>0.00161692</v>
       </c>
       <c r="C9">
-        <v>1.56464E-3</v>
+        <v>0.00156464</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -821,10 +1439,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.6588400000000002E-3</v>
+        <v>0.00165884</v>
       </c>
       <c r="C10">
-        <v>1.6046800000000003E-3</v>
+        <v>0.00160468</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -832,10 +1450,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.7007600000000002E-3</v>
+        <v>0.00170076</v>
       </c>
       <c r="C11">
-        <v>1.6447200000000003E-3</v>
+        <v>0.00164472</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -843,10 +1461,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1.7426800000000001E-3</v>
+        <v>0.00174268</v>
       </c>
       <c r="C12">
-        <v>1.68476E-3</v>
+        <v>0.00168476</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -854,10 +1472,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.7846000000000001E-3</v>
+        <v>0.0017846</v>
       </c>
       <c r="C13">
-        <v>1.7248000000000003E-3</v>
+        <v>0.0017248</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -865,10 +1483,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.81756E-3</v>
+        <v>0.00181756</v>
       </c>
       <c r="C14">
-        <v>1.7485600000000003E-3</v>
+        <v>0.00174856</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -876,10 +1494,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.85052E-3</v>
+        <v>0.00185052</v>
       </c>
       <c r="C15">
-        <v>1.7723200000000002E-3</v>
+        <v>0.00177232</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -887,10 +1505,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.8834800000000003E-3</v>
+        <v>0.00188348</v>
       </c>
       <c r="C16">
-        <v>1.79608E-3</v>
+        <v>0.00179608</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -898,10 +1516,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.9164400000000002E-3</v>
+        <v>0.00191644</v>
       </c>
       <c r="C17">
-        <v>1.8198400000000001E-3</v>
+        <v>0.00181984</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -909,10 +1527,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1.9494E-3</v>
+        <v>0.0019494</v>
       </c>
       <c r="C18">
-        <v>1.8436000000000001E-3</v>
+        <v>0.0018436</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -920,10 +1538,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.94108E-3</v>
+        <v>0.00194108</v>
       </c>
       <c r="C19">
-        <v>1.8440800000000001E-3</v>
+        <v>0.00184408</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -931,10 +1549,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.9327600000000002E-3</v>
+        <v>0.00193276</v>
       </c>
       <c r="C20">
-        <v>1.8445600000000001E-3</v>
+        <v>0.00184456</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -942,10 +1560,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.9244399999999999E-3</v>
+        <v>0.00192444</v>
       </c>
       <c r="C21">
-        <v>1.8450400000000003E-3</v>
+        <v>0.00184504</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -953,10 +1571,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.9161200000000001E-3</v>
+        <v>0.00191612</v>
       </c>
       <c r="C22">
-        <v>1.8455200000000002E-3</v>
+        <v>0.00184552</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -964,10 +1582,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1.9078000000000001E-3</v>
+        <v>0.0019078</v>
       </c>
       <c r="C23">
-        <v>1.8460000000000002E-3</v>
+        <v>0.001846</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -975,10 +1593,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.90252E-3</v>
+        <v>0.00190252</v>
       </c>
       <c r="C24">
-        <v>1.8528800000000001E-3</v>
+        <v>0.00185288</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -986,10 +1604,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.8972400000000001E-3</v>
+        <v>0.00189724</v>
       </c>
       <c r="C25">
-        <v>1.85976E-3</v>
+        <v>0.00185976</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -997,10 +1615,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.89196E-3</v>
+        <v>0.00189196</v>
       </c>
       <c r="C26">
-        <v>1.8666400000000001E-3</v>
+        <v>0.00186664</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1008,10 +1626,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.8866800000000002E-3</v>
+        <v>0.00188668</v>
       </c>
       <c r="C27">
-        <v>1.87352E-3</v>
+        <v>0.00187352</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1019,10 +1637,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.8814000000000001E-3</v>
+        <v>0.0018814</v>
       </c>
       <c r="C28">
-        <v>1.8804E-3</v>
+        <v>0.0018804</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1030,10 +1648,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1.86572E-3</v>
+        <v>0.00186572</v>
       </c>
       <c r="C29">
-        <v>1.86776E-3</v>
+        <v>0.00186776</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1041,10 +1659,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.8500400000000001E-3</v>
+        <v>0.00185004</v>
       </c>
       <c r="C30">
-        <v>1.8551199999999998E-3</v>
+        <v>0.00185512</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1052,10 +1670,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1.8343600000000004E-3</v>
+        <v>0.00183436</v>
       </c>
       <c r="C31">
-        <v>1.8424800000000003E-3</v>
+        <v>0.00184248</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1063,10 +1681,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.8186800000000003E-3</v>
+        <v>0.00181868</v>
       </c>
       <c r="C32">
-        <v>1.8298400000000001E-3</v>
+        <v>0.00182984</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1074,10 +1692,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1.8030000000000001E-3</v>
+        <v>0.001803</v>
       </c>
       <c r="C33">
-        <v>1.8172000000000002E-3</v>
+        <v>0.0018172</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1085,10 +1703,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.8133600000000002E-3</v>
+        <v>0.00181336</v>
       </c>
       <c r="C34">
-        <v>1.8437200000000001E-3</v>
+        <v>0.00184372</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1096,10 +1714,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1.8237200000000002E-3</v>
+        <v>0.00182372</v>
       </c>
       <c r="C35">
-        <v>1.8702400000000002E-3</v>
+        <v>0.00187024</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1107,10 +1725,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1.8340799999999999E-3</v>
+        <v>0.00183408</v>
       </c>
       <c r="C36">
-        <v>1.8967600000000002E-3</v>
+        <v>0.00189676</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1118,10 +1736,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1.8444399999999999E-3</v>
+        <v>0.00184444</v>
       </c>
       <c r="C37">
-        <v>1.9232800000000001E-3</v>
+        <v>0.00192328</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1129,10 +1747,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1.8548E-3</v>
+        <v>0.0018548</v>
       </c>
       <c r="C38">
-        <v>1.9498000000000002E-3</v>
+        <v>0.0019498</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1140,10 +1758,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1.85264E-3</v>
+        <v>0.00185264</v>
       </c>
       <c r="C39">
-        <v>1.9432000000000004E-3</v>
+        <v>0.0019432</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1151,10 +1769,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1.8504800000000001E-3</v>
+        <v>0.00185048</v>
       </c>
       <c r="C40">
-        <v>1.9366000000000001E-3</v>
+        <v>0.0019366</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1162,10 +1780,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.8483200000000001E-3</v>
+        <v>0.00184832</v>
       </c>
       <c r="C41">
-        <v>1.9300000000000001E-3</v>
+        <v>0.00193</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1173,10 +1791,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1.8461600000000001E-3</v>
+        <v>0.00184616</v>
       </c>
       <c r="C42">
-        <v>1.9233999999999998E-3</v>
+        <v>0.0019234</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1184,10 +1802,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1.8440000000000002E-3</v>
+        <v>0.001844</v>
       </c>
       <c r="C43">
-        <v>1.9168E-3</v>
+        <v>0.0019168</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1195,10 +1813,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1.8651200000000001E-3</v>
+        <v>0.00186512</v>
       </c>
       <c r="C44">
-        <v>1.9540399999999998E-3</v>
+        <v>0.00195404</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1206,10 +1824,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>1.8862400000000002E-3</v>
+        <v>0.00188624</v>
       </c>
       <c r="C45">
-        <v>1.9912800000000002E-3</v>
+        <v>0.00199128</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1217,10 +1835,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.9073600000000001E-3</v>
+        <v>0.00190736</v>
       </c>
       <c r="C46">
-        <v>2.0285200000000002E-3</v>
+        <v>0.00202852</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1228,10 +1846,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1.9284800000000002E-3</v>
+        <v>0.00192848</v>
       </c>
       <c r="C47">
-        <v>2.0657600000000003E-3</v>
+        <v>0.00206576</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1239,10 +1857,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1.9495999999999999E-3</v>
+        <v>0.0019496</v>
       </c>
       <c r="C48">
-        <v>2.1030000000000003E-3</v>
+        <v>0.002103</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1250,10 +1868,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>1.9354399999999999E-3</v>
+        <v>0.00193544</v>
       </c>
       <c r="C49">
-        <v>2.0920400000000003E-3</v>
+        <v>0.00209204</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1261,10 +1879,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1.9212799999999998E-3</v>
+        <v>0.00192128</v>
       </c>
       <c r="C50">
-        <v>2.0810800000000003E-3</v>
+        <v>0.00208108</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1272,10 +1890,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1.9071200000000002E-3</v>
+        <v>0.00190712</v>
       </c>
       <c r="C51">
-        <v>2.0701199999999999E-3</v>
+        <v>0.00207012</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1283,10 +1901,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1.8929600000000002E-3</v>
+        <v>0.00189296</v>
       </c>
       <c r="C52">
-        <v>2.05916E-3</v>
+        <v>0.00205916</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1294,10 +1912,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1.8788000000000001E-3</v>
+        <v>0.0018788</v>
       </c>
       <c r="C53">
-        <v>2.0482E-3</v>
+        <v>0.0020482</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1305,10 +1923,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>1.88116E-3</v>
+        <v>0.00188116</v>
       </c>
       <c r="C54">
-        <v>2.0724799999999998E-3</v>
+        <v>0.00207248</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1316,10 +1934,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>1.8835200000000001E-3</v>
+        <v>0.00188352</v>
       </c>
       <c r="C55">
-        <v>2.09676E-3</v>
+        <v>0.00209676</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1327,10 +1945,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>1.8858799999999999E-3</v>
+        <v>0.00188588</v>
       </c>
       <c r="C56">
-        <v>2.1210400000000003E-3</v>
+        <v>0.00212104</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1338,10 +1956,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>1.8882400000000002E-3</v>
+        <v>0.00188824</v>
       </c>
       <c r="C57">
-        <v>2.1453200000000005E-3</v>
+        <v>0.00214532</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1349,10 +1967,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>1.8905999999999999E-3</v>
+        <v>0.0018906</v>
       </c>
       <c r="C58">
-        <v>2.1696000000000003E-3</v>
+        <v>0.0021696</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1360,10 +1978,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>1.8540799999999999E-3</v>
+        <v>0.00185408</v>
       </c>
       <c r="C59">
-        <v>2.13568E-3</v>
+        <v>0.00213568</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1371,10 +1989,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1.81756E-3</v>
+        <v>0.00181756</v>
       </c>
       <c r="C60">
-        <v>2.1017600000000003E-3</v>
+        <v>0.00210176</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1382,10 +2000,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>1.7810399999999998E-3</v>
+        <v>0.00178104</v>
       </c>
       <c r="C61">
-        <v>2.06784E-3</v>
+        <v>0.00206784</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1393,10 +2011,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>1.7445200000000001E-3</v>
+        <v>0.00174452</v>
       </c>
       <c r="C62">
-        <v>2.0339200000000003E-3</v>
+        <v>0.00203392</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1404,10 +2022,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>1.7079999999999999E-3</v>
+        <v>0.001708</v>
       </c>
       <c r="C63">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1415,10 +2033,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1.6439999999999998E-3</v>
+        <v>0.001644</v>
       </c>
       <c r="C64">
-        <v>1.9237200000000003E-3</v>
+        <v>0.00192372</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1426,10 +2044,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>1.58E-3</v>
+        <v>0.00158</v>
       </c>
       <c r="C65">
-        <v>1.8474400000000001E-3</v>
+        <v>0.00184744</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1437,10 +2055,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1.516E-3</v>
+        <v>0.001516</v>
       </c>
       <c r="C66">
-        <v>1.7711600000000001E-3</v>
+        <v>0.00177116</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1448,10 +2066,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>1.4519999999999999E-3</v>
+        <v>0.001452</v>
       </c>
       <c r="C67">
-        <v>1.69488E-3</v>
+        <v>0.00169488</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1459,10 +2077,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1.3880000000000001E-3</v>
+        <v>0.001388</v>
       </c>
       <c r="C68">
-        <v>1.6186E-3</v>
+        <v>0.0016186</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1470,10 +2088,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>1.3296800000000002E-3</v>
+        <v>0.00132968</v>
       </c>
       <c r="C69">
-        <v>1.55116E-3</v>
+        <v>0.00155116</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1481,10 +2099,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>1.2713600000000002E-3</v>
+        <v>0.00127136</v>
       </c>
       <c r="C70">
-        <v>1.48372E-3</v>
+        <v>0.00148372</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1492,10 +2110,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>1.2130400000000001E-3</v>
+        <v>0.00121304</v>
       </c>
       <c r="C71">
-        <v>1.4162800000000002E-3</v>
+        <v>0.00141628</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1503,10 +2121,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>1.1547200000000001E-3</v>
+        <v>0.00115472</v>
       </c>
       <c r="C72">
-        <v>1.34884E-3</v>
+        <v>0.00134884</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1514,10 +2132,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>1.0964000000000002E-3</v>
+        <v>0.0010964</v>
       </c>
       <c r="C73">
-        <v>1.2814E-3</v>
+        <v>0.0012814</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1525,10 +2143,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>1.0201600000000002E-3</v>
+        <v>0.00102016</v>
       </c>
       <c r="C74">
-        <v>1.2126800000000001E-3</v>
+        <v>0.00121268</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1536,10 +2154,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>9.4392E-4</v>
+        <v>0.00094392</v>
       </c>
       <c r="C75">
-        <v>1.1439600000000001E-3</v>
+        <v>0.00114396</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1547,10 +2165,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>8.6768000000000001E-4</v>
+        <v>0.00086768</v>
       </c>
       <c r="C76">
-        <v>1.0752400000000001E-3</v>
+        <v>0.00107524</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1558,10 +2176,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>7.9144000000000013E-4</v>
+        <v>0.00079144</v>
       </c>
       <c r="C77">
-        <v>1.0065200000000001E-3</v>
+        <v>0.00100652</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1569,10 +2187,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>7.1520000000000004E-4</v>
+        <v>0.0007152</v>
       </c>
       <c r="C78">
-        <v>9.3780000000000003E-4</v>
+        <v>0.0009378</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1580,10 +2198,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>6.7620000000000006E-4</v>
+        <v>0.0006762</v>
       </c>
       <c r="C79">
-        <v>8.9055999999999998E-4</v>
+        <v>0.00089056</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1591,10 +2209,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>6.3719999999999998E-4</v>
+        <v>0.0006372</v>
       </c>
       <c r="C80">
-        <v>8.4331999999999994E-4</v>
+        <v>0.00084332</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1602,10 +2220,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>5.9820000000000001E-4</v>
+        <v>0.0005982</v>
       </c>
       <c r="C81">
-        <v>7.9608000000000001E-4</v>
+        <v>0.00079608</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1613,10 +2231,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>5.5920000000000004E-4</v>
+        <v>0.0005592</v>
       </c>
       <c r="C82">
-        <v>7.4884000000000007E-4</v>
+        <v>0.00074884</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1624,10 +2242,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>5.2020000000000007E-4</v>
+        <v>0.0005202</v>
       </c>
       <c r="C83">
-        <v>7.0160000000000003E-4</v>
+        <v>0.0007016</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1635,10 +2253,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>4.7688E-4</v>
+        <v>0.00047688</v>
       </c>
       <c r="C84">
-        <v>6.5136000000000002E-4</v>
+        <v>0.00065136</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1646,10 +2264,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>4.3355999999999999E-4</v>
+        <v>0.00043356</v>
       </c>
       <c r="C85">
-        <v>6.0112000000000002E-4</v>
+        <v>0.00060112</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1657,10 +2275,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>3.9024000000000003E-4</v>
+        <v>0.00039024</v>
       </c>
       <c r="C86">
-        <v>5.508799999999999E-4</v>
+        <v>0.00055088</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1668,10 +2286,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>3.4692000000000002E-4</v>
+        <v>0.00034692</v>
       </c>
       <c r="C87">
-        <v>5.0064E-4</v>
+        <v>0.00050064</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1679,10 +2297,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>3.0360000000000001E-4</v>
+        <v>0.0003036</v>
       </c>
       <c r="C88">
-        <v>4.504E-4</v>
+        <v>0.0004504</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1690,10 +2308,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>2.7364000000000002E-4</v>
+        <v>0.00027364</v>
       </c>
       <c r="C89">
-        <v>4.1023999999999998E-4</v>
+        <v>0.00041024</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1701,10 +2319,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>2.4368E-4</v>
+        <v>0.00024368</v>
       </c>
       <c r="C90">
-        <v>3.7008000000000001E-4</v>
+        <v>0.00037008</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1712,10 +2330,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2.1372000000000001E-4</v>
+        <v>0.00021372</v>
       </c>
       <c r="C91">
-        <v>3.2991999999999999E-4</v>
+        <v>0.00032992</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1723,10 +2341,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1.8375999999999999E-4</v>
+        <v>0.00018376</v>
       </c>
       <c r="C92">
-        <v>2.8975999999999996E-4</v>
+        <v>0.00028976</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1734,10 +2352,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>1.538E-4</v>
+        <v>0.0001538</v>
       </c>
       <c r="C93">
-        <v>2.496E-4</v>
+        <v>0.0002496</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1745,10 +2363,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>1.3440000000000001E-4</v>
+        <v>0.0001344</v>
       </c>
       <c r="C94">
-        <v>2.1667999999999999E-4</v>
+        <v>0.00021668</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1756,10 +2374,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>1.1499999999999999E-4</v>
+        <v>0.000115</v>
       </c>
       <c r="C95">
-        <v>1.8376000000000002E-4</v>
+        <v>0.00018376</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1767,10 +2385,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>9.5599999999999993E-5</v>
+        <v>9.56e-5</v>
       </c>
       <c r="C96">
-        <v>1.5084000000000001E-4</v>
+        <v>0.00015084</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1778,10 +2396,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>7.6199999999999995E-5</v>
+        <v>7.62e-5</v>
       </c>
       <c r="C97">
-        <v>1.1792000000000001E-4</v>
+        <v>0.00011792</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1789,10 +2407,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>5.6799999999999998E-5</v>
+        <v>5.68e-5</v>
       </c>
       <c r="C98">
-        <v>8.5000000000000006E-5</v>
+        <v>8.5e-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1800,10 +2418,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>4.9159999999999997E-5</v>
+        <v>4.916e-5</v>
       </c>
       <c r="C99">
-        <v>7.2439999999999991E-5</v>
+        <v>7.244e-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1811,10 +2429,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>4.1519999999999995E-5</v>
+        <v>4.152e-5</v>
       </c>
       <c r="C100">
-        <v>5.9880000000000003E-5</v>
+        <v>5.988e-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1822,26 +2440,30 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>3.3879999999999994E-5</v>
+        <v>3.388e-5</v>
       </c>
       <c r="C101">
-        <v>4.7319999999999994E-5</v>
+        <v>4.732e-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>102</v>
       </c>
@@ -1851,7 +2473,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>2.1500000000000002E-2</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1859,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.1500000000000002E-2</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1867,7 +2489,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>2.1500000000000002E-2</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1875,7 +2497,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>2.1500000000000002E-2</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1883,7 +2505,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>2.1500000000000002E-2</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1891,7 +2513,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>5.9400000000000001E-2</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1899,7 +2521,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>5.9400000000000001E-2</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1907,7 +2529,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>5.9400000000000001E-2</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1915,7 +2537,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>5.9400000000000001E-2</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1923,7 +2545,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>5.9400000000000001E-2</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1931,7 +2553,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>8.1799999999999998E-2</v>
+        <v>0.0818</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1939,7 +2561,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>8.1799999999999998E-2</v>
+        <v>0.0818</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1947,7 +2569,7 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>8.1799999999999998E-2</v>
+        <v>0.0818</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1955,7 +2577,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>8.1799999999999998E-2</v>
+        <v>0.0818</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1963,7 +2585,7 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>8.1799999999999998E-2</v>
+        <v>0.0818</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1971,7 +2593,7 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>8.5099999999999995E-2</v>
+        <v>0.0851</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1979,7 +2601,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>8.5099999999999995E-2</v>
+        <v>0.0851</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1987,7 +2609,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>8.5099999999999995E-2</v>
+        <v>0.0851</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1995,7 +2617,7 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>8.5099999999999995E-2</v>
+        <v>0.0851</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2003,7 +2625,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>8.5099999999999995E-2</v>
+        <v>0.0851</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2011,7 +2633,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2019,7 +2641,7 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2027,7 +2649,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2035,7 +2657,7 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2043,7 +2665,7 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>6.1100000000000002E-2</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2051,7 +2673,7 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2059,7 +2681,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2067,7 +2689,7 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2075,7 +2697,7 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2083,7 +2705,7 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2091,7 +2713,7 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>2.3999999999999998E-3</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2099,7 +2721,7 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>2.3999999999999998E-3</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2107,7 +2729,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>2.3999999999999998E-3</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2115,7 +2737,7 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>2.3999999999999998E-3</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2123,23 +2745,27 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>2.3999999999999998E-3</v>
+        <v>0.0024</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>103</v>
       </c>
@@ -2149,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2157,7 +2783,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2165,7 +2791,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2173,7 +2799,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2181,7 +2807,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2189,7 +2815,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2197,7 +2823,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2205,7 +2831,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2213,7 +2839,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2221,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2229,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2237,7 +2863,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2245,7 +2871,7 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2253,7 +2879,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2261,7 +2887,7 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2269,7 +2895,7 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2277,7 +2903,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2285,7 +2911,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2293,7 +2919,7 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2301,7 +2927,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2309,7 +2935,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2317,7 +2943,7 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2325,7 +2951,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2333,7 +2959,7 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2341,7 +2967,7 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2349,7 +2975,7 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2357,7 +2983,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2365,7 +2991,7 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2373,7 +2999,7 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2381,7 +3007,7 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2389,7 +3015,7 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2397,7 +3023,7 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2405,7 +3031,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2413,7 +3039,7 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2421,23 +3047,27 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
@@ -2456,16 +3086,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.99013100000000009</v>
+        <v>0.990131</v>
       </c>
       <c r="C2">
-        <v>0.9916910000000001</v>
+        <v>0.991691</v>
       </c>
       <c r="D2">
-        <v>0.99558466277631907</v>
+        <v>0.995584662776319</v>
       </c>
       <c r="E2">
-        <v>0.99623006393007918</v>
+        <v>0.996230063930079</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2473,16 +3103,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.99948987926737887</v>
+        <v>0.999489879267379</v>
       </c>
       <c r="C3">
-        <v>0.99956008192530355</v>
+        <v>0.999560081925304</v>
       </c>
       <c r="D3">
-        <v>0.99973810281849629</v>
+        <v>0.999738102818496</v>
       </c>
       <c r="E3">
-        <v>0.99977435331505593</v>
+        <v>0.999774353315056</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2490,16 +3120,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.99948987926737898</v>
+        <v>0.999489879267379</v>
       </c>
       <c r="C4">
-        <v>0.99956008192530355</v>
+        <v>0.999560081925304</v>
       </c>
       <c r="D4">
-        <v>0.9997381028184964</v>
+        <v>0.999738102818496</v>
       </c>
       <c r="E4">
-        <v>0.99977435331505582</v>
+        <v>0.999774353315056</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2507,16 +3137,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.99948987926737898</v>
+        <v>0.999489879267379</v>
       </c>
       <c r="C5">
-        <v>0.99956008192530355</v>
+        <v>0.999560081925304</v>
       </c>
       <c r="D5">
-        <v>0.9997381028184964</v>
+        <v>0.999738102818496</v>
       </c>
       <c r="E5">
-        <v>0.99977435331505604</v>
+        <v>0.999774353315056</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2524,16 +3154,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.99975940549297293</v>
+        <v>0.999759405492973</v>
       </c>
       <c r="C6">
-        <v>1.0001451640307411</v>
+        <v>1.00014516403074</v>
       </c>
       <c r="D6">
-        <v>0.99987979629162838</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E6">
-        <v>0.99989558316354421</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2541,16 +3171,16 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.99975940549297293</v>
+        <v>0.999759405492973</v>
       </c>
       <c r="C7">
-        <v>1.0001451640307408</v>
+        <v>1.00014516403074</v>
       </c>
       <c r="D7">
-        <v>0.99987979629162838</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E7">
-        <v>0.99989558316354421</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2558,16 +3188,16 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.99975940549297293</v>
+        <v>0.999759405492973</v>
       </c>
       <c r="C8">
-        <v>1.0001451640307408</v>
+        <v>1.00014516403074</v>
       </c>
       <c r="D8">
-        <v>0.99987979629162849</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E8">
-        <v>0.9998955831635441</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2575,16 +3205,16 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.99975940549297293</v>
+        <v>0.999759405492973</v>
       </c>
       <c r="C9">
-        <v>1.0001451640307411</v>
+        <v>1.00014516403074</v>
       </c>
       <c r="D9">
-        <v>0.99987979629162826</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E9">
-        <v>0.9998955831635441</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2592,16 +3222,16 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.99975940549297293</v>
+        <v>0.999759405492973</v>
       </c>
       <c r="C10">
-        <v>1.0001451640307411</v>
+        <v>1.00014516403074</v>
       </c>
       <c r="D10">
-        <v>0.99987979629162838</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E10">
-        <v>0.99989558316354432</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2609,16 +3239,16 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.9997568641238197</v>
+        <v>0.99975686412382</v>
       </c>
       <c r="C11">
-        <v>1.0001717475203848</v>
+        <v>1.00017174752038</v>
       </c>
       <c r="D11">
-        <v>0.99983111247330836</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E11">
-        <v>0.99988752457801644</v>
+        <v>0.999887524578016</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2626,16 +3256,16 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.99975686412381981</v>
+        <v>0.99975686412382</v>
       </c>
       <c r="C12">
-        <v>1.0001717475203848</v>
+        <v>1.00017174752038</v>
       </c>
       <c r="D12">
-        <v>0.99983111247330825</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E12">
-        <v>0.99988752457801644</v>
+        <v>0.999887524578016</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2643,16 +3273,16 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.99975686412381992</v>
+        <v>0.99975686412382</v>
       </c>
       <c r="C13">
-        <v>1.0001717475203851</v>
+        <v>1.00017174752039</v>
       </c>
       <c r="D13">
-        <v>0.99983111247330825</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E13">
-        <v>0.99988752457801655</v>
+        <v>0.999887524578017</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2660,16 +3290,16 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.99975686412381981</v>
+        <v>0.99975686412382</v>
       </c>
       <c r="C14">
-        <v>1.0001717475203848</v>
+        <v>1.00017174752038</v>
       </c>
       <c r="D14">
-        <v>0.99983111247330825</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E14">
-        <v>0.99988752457801622</v>
+        <v>0.999887524578016</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2677,16 +3307,16 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.9997568641238197</v>
+        <v>0.99975686412382</v>
       </c>
       <c r="C15">
-        <v>1.0001717475203848</v>
+        <v>1.00017174752038</v>
       </c>
       <c r="D15">
-        <v>0.99983111247330847</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E15">
-        <v>0.99988752457801655</v>
+        <v>0.999887524578017</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2694,16 +3324,16 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.99930382725342382</v>
+        <v>0.999303827253424</v>
       </c>
       <c r="C16">
-        <v>0.99999468405869485</v>
+        <v>0.999994684058695</v>
       </c>
       <c r="D16">
-        <v>0.99956041881441948</v>
+        <v>0.999560418814419</v>
       </c>
       <c r="E16">
-        <v>0.99980613013475417</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2711,16 +3341,16 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.9993038272534237</v>
+        <v>0.999303827253424</v>
       </c>
       <c r="C17">
-        <v>0.99999468405869485</v>
+        <v>0.999994684058695</v>
       </c>
       <c r="D17">
-        <v>0.9995604188144197</v>
+        <v>0.99956041881442</v>
       </c>
       <c r="E17">
-        <v>0.99980613013475417</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2728,16 +3358,16 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.99930382725342393</v>
+        <v>0.999303827253424</v>
       </c>
       <c r="C18">
-        <v>0.99999468405869507</v>
+        <v>0.999994684058695</v>
       </c>
       <c r="D18">
-        <v>0.99956041881441959</v>
+        <v>0.99956041881442</v>
       </c>
       <c r="E18">
-        <v>0.99980613013475406</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2745,16 +3375,16 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.9993038272534237</v>
+        <v>0.999303827253424</v>
       </c>
       <c r="C19">
-        <v>0.99999468405869485</v>
+        <v>0.999994684058695</v>
       </c>
       <c r="D19">
-        <v>0.9995604188144197</v>
+        <v>0.99956041881442</v>
       </c>
       <c r="E19">
-        <v>0.99980613013475417</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2762,16 +3392,16 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.99930382725342382</v>
+        <v>0.999303827253424</v>
       </c>
       <c r="C20">
-        <v>0.99999468405869485</v>
+        <v>0.999994684058695</v>
       </c>
       <c r="D20">
-        <v>0.99956041881441948</v>
+        <v>0.999560418814419</v>
       </c>
       <c r="E20">
-        <v>0.99980613013475417</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2779,16 +3409,16 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.99905886195813232</v>
+        <v>0.999058861958132</v>
       </c>
       <c r="C21">
-        <v>1.0001775408019666</v>
+        <v>1.00017754080197</v>
       </c>
       <c r="D21">
-        <v>0.99921940380538199</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E21">
-        <v>0.99970132343730977</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2796,16 +3426,16 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.99905886195813232</v>
+        <v>0.999058861958132</v>
       </c>
       <c r="C22">
-        <v>1.0001775408019669</v>
+        <v>1.00017754080197</v>
       </c>
       <c r="D22">
-        <v>0.9992194038053821</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E22">
-        <v>0.99970132343730977</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2813,16 +3443,16 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.99905886195813232</v>
+        <v>0.999058861958132</v>
       </c>
       <c r="C23">
-        <v>1.0001775408019666</v>
+        <v>1.00017754080197</v>
       </c>
       <c r="D23">
-        <v>0.99921940380538199</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E23">
-        <v>0.99970132343730989</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2830,16 +3460,16 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.99905886195813243</v>
+        <v>0.999058861958132</v>
       </c>
       <c r="C24">
-        <v>1.0001775408019664</v>
+        <v>1.00017754080197</v>
       </c>
       <c r="D24">
-        <v>0.99921940380538199</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E24">
-        <v>0.99970132343730966</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2847,16 +3477,16 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.99905886195813232</v>
+        <v>0.999058861958132</v>
       </c>
       <c r="C25">
-        <v>1.0001775408019666</v>
+        <v>1.00017754080197</v>
       </c>
       <c r="D25">
-        <v>0.9992194038053821</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E25">
-        <v>0.99970132343730989</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2864,16 +3494,16 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.99908652549330934</v>
+        <v>0.999086525493309</v>
       </c>
       <c r="C26">
-        <v>1.0005220770104311</v>
+        <v>1.00052207701043</v>
       </c>
       <c r="D26">
-        <v>0.99902410238968142</v>
+        <v>0.999024102389681</v>
       </c>
       <c r="E26">
-        <v>0.99959710625470966</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2881,16 +3511,16 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.99908652549330945</v>
+        <v>0.999086525493309</v>
       </c>
       <c r="C27">
-        <v>1.0005220770104308</v>
+        <v>1.00052207701043</v>
       </c>
       <c r="D27">
-        <v>0.99902410238968142</v>
+        <v>0.999024102389681</v>
       </c>
       <c r="E27">
-        <v>0.99959710625470966</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2898,16 +3528,16 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.99908652549330934</v>
+        <v>0.999086525493309</v>
       </c>
       <c r="C28">
-        <v>1.0005220770104311</v>
+        <v>1.00052207701043</v>
       </c>
       <c r="D28">
-        <v>0.99902410238968153</v>
+        <v>0.999024102389682</v>
       </c>
       <c r="E28">
-        <v>0.99959710625470954</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2915,16 +3545,16 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.99908652549330945</v>
+        <v>0.999086525493309</v>
       </c>
       <c r="C29">
-        <v>1.0005220770104311</v>
+        <v>1.00052207701043</v>
       </c>
       <c r="D29">
-        <v>0.99902410238968153</v>
+        <v>0.999024102389682</v>
       </c>
       <c r="E29">
-        <v>0.99959710625470977</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2932,16 +3562,16 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.99908652549330945</v>
+        <v>0.999086525493309</v>
       </c>
       <c r="C30">
-        <v>1.0005220770104311</v>
+        <v>1.00052207701043</v>
       </c>
       <c r="D30">
-        <v>0.99902410238968142</v>
+        <v>0.999024102389681</v>
       </c>
       <c r="E30">
-        <v>0.99959710625470966</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2949,16 +3579,16 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.99896279976155489</v>
+        <v>0.998962799761555</v>
       </c>
       <c r="C31">
-        <v>1.0006407549496603</v>
+        <v>1.00064075494966</v>
       </c>
       <c r="D31">
         <v>0.998907537315608</v>
       </c>
       <c r="E31">
-        <v>0.99947001110695288</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2966,16 +3596,16 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.99896279976155489</v>
+        <v>0.998962799761555</v>
       </c>
       <c r="C32">
-        <v>1.0006407549496601</v>
+        <v>1.00064075494966</v>
       </c>
       <c r="D32">
-        <v>0.99890753731560789</v>
+        <v>0.998907537315608</v>
       </c>
       <c r="E32">
-        <v>0.99947001110695288</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2983,16 +3613,16 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.99896279976155511</v>
+        <v>0.998962799761555</v>
       </c>
       <c r="C33">
-        <v>1.0006407549496603</v>
+        <v>1.00064075494966</v>
       </c>
       <c r="D33">
         <v>0.998907537315608</v>
       </c>
       <c r="E33">
-        <v>0.99947001110695288</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3000,16 +3630,16 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.99896279976155478</v>
+        <v>0.998962799761555</v>
       </c>
       <c r="C34">
-        <v>1.0006407549496605</v>
+        <v>1.00064075494966</v>
       </c>
       <c r="D34">
         <v>0.998907537315608</v>
       </c>
       <c r="E34">
-        <v>0.99947001110695288</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3020,13 +3650,13 @@
         <v>0.998962799761555</v>
       </c>
       <c r="C35">
-        <v>1.0006407549496601</v>
+        <v>1.00064075494966</v>
       </c>
       <c r="D35">
         <v>0.998907537315608</v>
       </c>
       <c r="E35">
-        <v>0.99947001110695277</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3034,16 +3664,16 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.99859503217319956</v>
+        <v>0.9985950321732</v>
       </c>
       <c r="C36">
-        <v>1.0005200998901611</v>
+        <v>1.00052009989016</v>
       </c>
       <c r="D36">
-        <v>0.9986803600558718</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E36">
-        <v>0.99927945683978259</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3051,16 +3681,16 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.99859503217319967</v>
+        <v>0.9985950321732</v>
       </c>
       <c r="C37">
-        <v>1.0005200998901611</v>
+        <v>1.00052009989016</v>
       </c>
       <c r="D37">
-        <v>0.99868036005587191</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E37">
-        <v>0.99927945683978281</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3068,16 +3698,16 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.99859503217319956</v>
+        <v>0.9985950321732</v>
       </c>
       <c r="C38">
-        <v>1.0005200998901609</v>
+        <v>1.00052009989016</v>
       </c>
       <c r="D38">
-        <v>0.9986803600558718</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E38">
-        <v>0.9992794568397827</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3085,16 +3715,16 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.99859503217319956</v>
+        <v>0.9985950321732</v>
       </c>
       <c r="C39">
-        <v>1.0005200998901613</v>
+        <v>1.00052009989016</v>
       </c>
       <c r="D39">
-        <v>0.9986803600558718</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E39">
-        <v>0.9992794568397827</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3102,16 +3732,16 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.99859503217319967</v>
+        <v>0.9985950321732</v>
       </c>
       <c r="C40">
-        <v>1.0005200998901611</v>
+        <v>1.00052009989016</v>
       </c>
       <c r="D40">
-        <v>0.99868036005587169</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E40">
-        <v>0.99927945683978281</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3119,16 +3749,16 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.99787391821085603</v>
+        <v>0.997873918210856</v>
       </c>
       <c r="C41">
-        <v>1.0001562011135405</v>
+        <v>1.00015620111354</v>
       </c>
       <c r="D41">
-        <v>0.99817279575377749</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E41">
-        <v>0.99894213275662436</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3136,16 +3766,16 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.99787391821085603</v>
+        <v>0.997873918210856</v>
       </c>
       <c r="C42">
-        <v>1.0001562011135405</v>
+        <v>1.00015620111354</v>
       </c>
       <c r="D42">
-        <v>0.99817279575377738</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E42">
-        <v>0.99894213275662436</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3153,16 +3783,16 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.99787391821085603</v>
+        <v>0.997873918210856</v>
       </c>
       <c r="C43">
-        <v>1.0001562011135405</v>
+        <v>1.00015620111354</v>
       </c>
       <c r="D43">
-        <v>0.99817279575377738</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E43">
-        <v>0.99894213275662425</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3170,16 +3800,16 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.99787391821085603</v>
+        <v>0.997873918210856</v>
       </c>
       <c r="C44">
-        <v>1.0001562011135405</v>
+        <v>1.00015620111354</v>
       </c>
       <c r="D44">
-        <v>0.99817279575377726</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E44">
-        <v>0.99894213275662447</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3187,16 +3817,16 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.99787391821085614</v>
+        <v>0.997873918210856</v>
       </c>
       <c r="C45">
-        <v>1.0001562011135405</v>
+        <v>1.00015620111354</v>
       </c>
       <c r="D45">
-        <v>0.99817279575377738</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E45">
-        <v>0.99894213275662425</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3204,16 +3834,16 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.99648687277944903</v>
+        <v>0.996486872779449</v>
       </c>
       <c r="C46">
-        <v>0.99951590593444473</v>
+        <v>0.999515905934445</v>
       </c>
       <c r="D46">
-        <v>0.99722588158067382</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E46">
-        <v>0.99837112875345935</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3221,16 +3851,16 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.99648687277944914</v>
+        <v>0.996486872779449</v>
       </c>
       <c r="C47">
-        <v>0.99951590593444462</v>
+        <v>0.999515905934445</v>
       </c>
       <c r="D47">
-        <v>0.99722588158067382</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E47">
-        <v>0.99837112875345935</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3238,16 +3868,16 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.99648687277944903</v>
+        <v>0.996486872779449</v>
       </c>
       <c r="C48">
-        <v>0.99951590593444462</v>
+        <v>0.999515905934445</v>
       </c>
       <c r="D48">
-        <v>0.99722588158067393</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E48">
-        <v>0.99837112875345935</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3255,16 +3885,16 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.99648687277944903</v>
+        <v>0.996486872779449</v>
       </c>
       <c r="C49">
-        <v>0.99951590593444484</v>
+        <v>0.999515905934445</v>
       </c>
       <c r="D49">
-        <v>0.99722588158067382</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E49">
-        <v>0.99837112875345924</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3272,16 +3902,16 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.99648687277944903</v>
+        <v>0.996486872779449</v>
       </c>
       <c r="C50">
-        <v>0.99951590593444462</v>
+        <v>0.999515905934445</v>
       </c>
       <c r="D50">
-        <v>0.99722588158067393</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E50">
-        <v>0.99837112875345935</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3289,16 +3919,16 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.9940922295149659</v>
+        <v>0.994092229514966</v>
       </c>
       <c r="C51">
-        <v>0.99881618925068383</v>
+        <v>0.998816189250684</v>
       </c>
       <c r="D51">
-        <v>0.99562230308280553</v>
+        <v>0.995622303082806</v>
       </c>
       <c r="E51">
-        <v>0.99749897621734984</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3306,16 +3936,16 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.99409222951496568</v>
+        <v>0.994092229514966</v>
       </c>
       <c r="C52">
-        <v>0.99881618925068394</v>
+        <v>0.998816189250684</v>
       </c>
       <c r="D52">
-        <v>0.99562230308280542</v>
+        <v>0.995622303082805</v>
       </c>
       <c r="E52">
-        <v>0.99749897621734962</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3323,16 +3953,16 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.99409222951496568</v>
+        <v>0.994092229514966</v>
       </c>
       <c r="C53">
-        <v>0.99881618925068394</v>
+        <v>0.998816189250684</v>
       </c>
       <c r="D53">
-        <v>0.99562230308280553</v>
+        <v>0.995622303082806</v>
       </c>
       <c r="E53">
-        <v>0.99749897621734984</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3340,16 +3970,16 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.9940922295149659</v>
+        <v>0.994092229514966</v>
       </c>
       <c r="C54">
-        <v>0.99881618925068394</v>
+        <v>0.998816189250684</v>
       </c>
       <c r="D54">
-        <v>0.99562230308280564</v>
+        <v>0.995622303082806</v>
       </c>
       <c r="E54">
-        <v>0.99749897621734973</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3357,16 +3987,16 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.99409222951496568</v>
+        <v>0.994092229514966</v>
       </c>
       <c r="C55">
-        <v>0.99881618925068394</v>
+        <v>0.998816189250684</v>
       </c>
       <c r="D55">
-        <v>0.99562230308280542</v>
+        <v>0.995622303082805</v>
       </c>
       <c r="E55">
-        <v>0.99749897621734995</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3374,16 +4004,16 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.99012173716201002</v>
+        <v>0.99012173716201</v>
       </c>
       <c r="C56">
-        <v>0.99836498172438892</v>
+        <v>0.998364981724389</v>
       </c>
       <c r="D56">
-        <v>0.9931125582448157</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E56">
-        <v>0.99621598618866547</v>
+        <v>0.996215986188665</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3391,16 +4021,16 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.99012173716200991</v>
+        <v>0.99012173716201</v>
       </c>
       <c r="C57">
-        <v>0.99836498172438892</v>
+        <v>0.998364981724389</v>
       </c>
       <c r="D57">
-        <v>0.99311255824481559</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E57">
-        <v>0.99621598618866536</v>
+        <v>0.996215986188665</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3408,16 +4038,16 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.99012173716201013</v>
+        <v>0.99012173716201</v>
       </c>
       <c r="C58">
-        <v>0.99836498172438881</v>
+        <v>0.998364981724389</v>
       </c>
       <c r="D58">
-        <v>0.9931125582448157</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E58">
-        <v>0.99621598618866525</v>
+        <v>0.996215986188665</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3425,16 +4055,16 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.99012173716201013</v>
+        <v>0.99012173716201</v>
       </c>
       <c r="C59">
-        <v>0.99836498172438892</v>
+        <v>0.998364981724389</v>
       </c>
       <c r="D59">
-        <v>0.9931125582448157</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E59">
-        <v>0.99621598618866569</v>
+        <v>0.996215986188666</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3442,16 +4072,16 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.99012173716200991</v>
+        <v>0.99012173716201</v>
       </c>
       <c r="C60">
-        <v>0.99836498172438892</v>
+        <v>0.998364981724389</v>
       </c>
       <c r="D60">
-        <v>0.9931125582448157</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E60">
-        <v>0.99621598618866536</v>
+        <v>0.996215986188665</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3459,16 +4089,16 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.98815636714300026</v>
+        <v>0.988156367143</v>
       </c>
       <c r="C61">
-        <v>1.0001125737779295</v>
+        <v>1.00011257377793</v>
       </c>
       <c r="D61">
-        <v>0.98949964801502366</v>
+        <v>0.989499648015024</v>
       </c>
       <c r="E61">
-        <v>0.99432540155297122</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3476,16 +4106,16 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.98815636714300026</v>
+        <v>0.988156367143</v>
       </c>
       <c r="C62">
-        <v>1.0001125737779295</v>
+        <v>1.00011257377793</v>
       </c>
       <c r="D62">
-        <v>0.98949964801502333</v>
+        <v>0.989499648015023</v>
       </c>
       <c r="E62">
-        <v>0.99432540155297133</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3493,16 +4123,16 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.98815636714300026</v>
+        <v>0.988156367143</v>
       </c>
       <c r="C63">
-        <v>1.0001125737779295</v>
+        <v>1.00011257377793</v>
       </c>
       <c r="D63">
-        <v>0.98949964801502355</v>
+        <v>0.989499648015024</v>
       </c>
       <c r="E63">
-        <v>0.99432540155297111</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3510,16 +4140,16 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.98815636714300026</v>
+        <v>0.988156367143</v>
       </c>
       <c r="C64">
-        <v>1.0001125737779295</v>
+        <v>1.00011257377793</v>
       </c>
       <c r="D64">
-        <v>0.98949964801502355</v>
+        <v>0.989499648015024</v>
       </c>
       <c r="E64">
-        <v>0.99432540155297144</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3527,16 +4157,16 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.98815636714300026</v>
+        <v>0.988156367143</v>
       </c>
       <c r="C65">
-        <v>1.0001125737779295</v>
+        <v>1.00011257377793</v>
       </c>
       <c r="D65">
-        <v>0.98949964801502355</v>
+        <v>0.989499648015024</v>
       </c>
       <c r="E65">
-        <v>0.99432540155297111</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3544,16 +4174,16 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.98576909038721583</v>
+        <v>0.985769090387216</v>
       </c>
       <c r="C66">
-        <v>1.0015242761506795</v>
+        <v>1.00152427615068</v>
       </c>
       <c r="D66">
-        <v>0.98499517490083799</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E66">
-        <v>0.99182094762276485</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3561,16 +4191,16 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.98576909038721583</v>
+        <v>0.985769090387216</v>
       </c>
       <c r="C67">
-        <v>1.0015242761506795</v>
+        <v>1.00152427615068</v>
       </c>
       <c r="D67">
-        <v>0.9849951749008381</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E67">
-        <v>0.99182094762276485</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3578,16 +4208,16 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.98576909038721572</v>
+        <v>0.985769090387216</v>
       </c>
       <c r="C68">
-        <v>1.0015242761506795</v>
+        <v>1.00152427615068</v>
       </c>
       <c r="D68">
-        <v>0.98499517490083788</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E68">
-        <v>0.99182094762276485</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3595,16 +4225,16 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.98576909038721572</v>
+        <v>0.985769090387216</v>
       </c>
       <c r="C69">
-        <v>1.0015242761506793</v>
+        <v>1.00152427615068</v>
       </c>
       <c r="D69">
-        <v>0.9849951749008381</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E69">
-        <v>0.99182094762276496</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3612,16 +4242,16 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.98576909038721572</v>
+        <v>0.985769090387216</v>
       </c>
       <c r="C70">
-        <v>1.0015242761506797</v>
+        <v>1.00152427615068</v>
       </c>
       <c r="D70">
-        <v>0.98499517490083788</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E70">
-        <v>0.99182094762276474</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3629,16 +4259,16 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.97997840081986565</v>
+        <v>0.979978400819866</v>
       </c>
       <c r="C71">
-        <v>0.99957199337994151</v>
+        <v>0.999571993379942</v>
       </c>
       <c r="D71">
-        <v>0.97644293207692445</v>
+        <v>0.976442932076924</v>
       </c>
       <c r="E71">
-        <v>0.98639707652540298</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3646,16 +4276,16 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.97997840081986543</v>
+        <v>0.979978400819865</v>
       </c>
       <c r="C72">
-        <v>0.99957199337994163</v>
+        <v>0.999571993379942</v>
       </c>
       <c r="D72">
-        <v>0.97644293207692445</v>
+        <v>0.976442932076924</v>
       </c>
       <c r="E72">
-        <v>0.98639707652540287</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3663,16 +4293,16 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.97997840081986554</v>
+        <v>0.979978400819866</v>
       </c>
       <c r="C73">
-        <v>0.99957199337994151</v>
+        <v>0.999571993379942</v>
       </c>
       <c r="D73">
-        <v>0.97644293207692456</v>
+        <v>0.976442932076925</v>
       </c>
       <c r="E73">
-        <v>0.98639707652540309</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3680,16 +4310,16 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.97997840081986554</v>
+        <v>0.979978400819866</v>
       </c>
       <c r="C74">
-        <v>0.9995719933799414</v>
+        <v>0.999571993379941</v>
       </c>
       <c r="D74">
-        <v>0.97644293207692445</v>
+        <v>0.976442932076924</v>
       </c>
       <c r="E74">
-        <v>0.98639707652540298</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3697,16 +4327,16 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.97997840081986554</v>
+        <v>0.979978400819866</v>
       </c>
       <c r="C75">
-        <v>0.99957199337994163</v>
+        <v>0.999571993379942</v>
       </c>
       <c r="D75">
-        <v>0.97644293207692445</v>
+        <v>0.976442932076924</v>
       </c>
       <c r="E75">
-        <v>0.98639707652540298</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3717,13 +4347,13 @@
         <v>0.96536390222057</v>
       </c>
       <c r="C76">
-        <v>0.98959275024002846</v>
+        <v>0.989592750240028</v>
       </c>
       <c r="D76">
-        <v>0.96011711981194758</v>
+        <v>0.960117119811948</v>
       </c>
       <c r="E76">
-        <v>0.97495307251260244</v>
+        <v>0.974953072512602</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3731,16 +4361,16 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.96536390222057022</v>
+        <v>0.96536390222057</v>
       </c>
       <c r="C77">
-        <v>0.98959275024002846</v>
+        <v>0.989592750240028</v>
       </c>
       <c r="D77">
-        <v>0.96011711981194736</v>
+        <v>0.960117119811947</v>
       </c>
       <c r="E77">
-        <v>0.97495307251260244</v>
+        <v>0.974953072512602</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3751,13 +4381,13 @@
         <v>0.96536390222057</v>
       </c>
       <c r="C78">
-        <v>0.98959275024002835</v>
+        <v>0.989592750240028</v>
       </c>
       <c r="D78">
-        <v>0.96011711981194758</v>
+        <v>0.960117119811948</v>
       </c>
       <c r="E78">
-        <v>0.97495307251260255</v>
+        <v>0.974953072512603</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3765,16 +4395,16 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.96536390222057022</v>
+        <v>0.96536390222057</v>
       </c>
       <c r="C79">
-        <v>0.98959275024002857</v>
+        <v>0.989592750240029</v>
       </c>
       <c r="D79">
-        <v>0.96011711981194747</v>
+        <v>0.960117119811947</v>
       </c>
       <c r="E79">
-        <v>0.97495307251260266</v>
+        <v>0.974953072512603</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3782,16 +4412,16 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.96536390222057011</v>
+        <v>0.96536390222057</v>
       </c>
       <c r="C80">
-        <v>0.98959275024002846</v>
+        <v>0.989592750240028</v>
       </c>
       <c r="D80">
-        <v>0.96011711981194747</v>
+        <v>0.960117119811947</v>
       </c>
       <c r="E80">
-        <v>0.97495307251260255</v>
+        <v>0.974953072512603</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3799,16 +4429,16 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.9426203926331469</v>
+        <v>0.942620392633147</v>
       </c>
       <c r="C81">
-        <v>0.96997756742042007</v>
+        <v>0.96997756742042</v>
       </c>
       <c r="D81">
-        <v>0.93367204223312084</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E81">
-        <v>0.95456617489585949</v>
+        <v>0.954566174895859</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3816,16 +4446,16 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.9426203926331469</v>
+        <v>0.942620392633147</v>
       </c>
       <c r="C82">
-        <v>0.96997756742042007</v>
+        <v>0.96997756742042</v>
       </c>
       <c r="D82">
-        <v>0.93367204223312084</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E82">
-        <v>0.9545661748958596</v>
+        <v>0.95456617489586</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3833,16 +4463,16 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.94262039263314679</v>
+        <v>0.942620392633147</v>
       </c>
       <c r="C83">
-        <v>0.96997756742042007</v>
+        <v>0.96997756742042</v>
       </c>
       <c r="D83">
-        <v>0.93367204223312072</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E83">
-        <v>0.95456617489585949</v>
+        <v>0.954566174895859</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3850,16 +4480,16 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.94262039263314701</v>
+        <v>0.942620392633147</v>
       </c>
       <c r="C84">
-        <v>0.96997756742041996</v>
+        <v>0.96997756742042</v>
       </c>
       <c r="D84">
-        <v>0.93367204223312084</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E84">
-        <v>0.9545661748958596</v>
+        <v>0.95456617489586</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3867,16 +4497,16 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.9426203926331469</v>
+        <v>0.942620392633147</v>
       </c>
       <c r="C85">
-        <v>0.96997756742042029</v>
+        <v>0.96997756742042</v>
       </c>
       <c r="D85">
-        <v>0.93367204223312084</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E85">
-        <v>0.95456617489585949</v>
+        <v>0.954566174895859</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3884,16 +4514,16 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.90742692562432625</v>
+        <v>0.907426925624326</v>
       </c>
       <c r="C86">
-        <v>0.93388212314560148</v>
+        <v>0.933882123145601</v>
       </c>
       <c r="D86">
-        <v>0.89277841745369035</v>
+        <v>0.89277841745369</v>
       </c>
       <c r="E86">
-        <v>0.91971524176574726</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3901,16 +4531,16 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.90742692562432636</v>
+        <v>0.907426925624326</v>
       </c>
       <c r="C87">
-        <v>0.93388212314560171</v>
+        <v>0.933882123145602</v>
       </c>
       <c r="D87">
-        <v>0.89277841745369046</v>
+        <v>0.89277841745369</v>
       </c>
       <c r="E87">
-        <v>0.91971524176574715</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3918,16 +4548,16 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.90742692562432625</v>
+        <v>0.907426925624326</v>
       </c>
       <c r="C88">
-        <v>0.93388212314560126</v>
+        <v>0.933882123145601</v>
       </c>
       <c r="D88">
-        <v>0.89277841745369035</v>
+        <v>0.89277841745369</v>
       </c>
       <c r="E88">
-        <v>0.91971524176574726</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3935,16 +4565,16 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.90742692562432625</v>
+        <v>0.907426925624326</v>
       </c>
       <c r="C89">
-        <v>0.93388212314560171</v>
+        <v>0.933882123145602</v>
       </c>
       <c r="D89">
-        <v>0.89277841745369058</v>
+        <v>0.892778417453691</v>
       </c>
       <c r="E89">
-        <v>0.91971524176574726</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3952,16 +4582,16 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.90742692562432625</v>
+        <v>0.907426925624326</v>
       </c>
       <c r="C90">
-        <v>0.93388212314560148</v>
+        <v>0.933882123145601</v>
       </c>
       <c r="D90">
-        <v>0.89277841745369035</v>
+        <v>0.89277841745369</v>
       </c>
       <c r="E90">
-        <v>0.91971524176574726</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3969,16 +4599,16 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.86050732638101768</v>
+        <v>0.860507326381018</v>
       </c>
       <c r="C91">
-        <v>0.87877840558866216</v>
+        <v>0.878778405588662</v>
       </c>
       <c r="D91">
-        <v>0.83390189808665172</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E91">
-        <v>0.86416031676071459</v>
+        <v>0.864160316760715</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3986,16 +4616,16 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.86050732638101757</v>
+        <v>0.860507326381018</v>
       </c>
       <c r="C92">
-        <v>0.87877840558866205</v>
+        <v>0.878778405588662</v>
       </c>
       <c r="D92">
-        <v>0.83390189808665172</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E92">
-        <v>0.86416031676071448</v>
+        <v>0.864160316760714</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4003,16 +4633,16 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.8605073263810179</v>
+        <v>0.860507326381018</v>
       </c>
       <c r="C93">
-        <v>0.87877840558866216</v>
+        <v>0.878778405588662</v>
       </c>
       <c r="D93">
-        <v>0.83390189808665194</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E93">
-        <v>0.86416031676071448</v>
+        <v>0.864160316760714</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4020,16 +4650,16 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.86050732638101768</v>
+        <v>0.860507326381018</v>
       </c>
       <c r="C94">
-        <v>0.87877840558866216</v>
+        <v>0.878778405588662</v>
       </c>
       <c r="D94">
-        <v>0.83390189808665183</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E94">
-        <v>0.86416031676071448</v>
+        <v>0.864160316760714</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4037,16 +4667,16 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.86050732638101757</v>
+        <v>0.860507326381018</v>
       </c>
       <c r="C95">
-        <v>0.87877840558866205</v>
+        <v>0.878778405588662</v>
       </c>
       <c r="D95">
-        <v>0.83390189808665183</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E95">
-        <v>0.86416031676071459</v>
+        <v>0.864160316760715</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4054,16 +4684,16 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.80511219060000971</v>
+        <v>0.80511219060001</v>
       </c>
       <c r="C96">
-        <v>0.80087536826682171</v>
+        <v>0.800875368266822</v>
       </c>
       <c r="D96">
-        <v>0.75738226677885234</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E96">
-        <v>0.78483981354597676</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4071,16 +4701,16 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.80511219060000971</v>
+        <v>0.80511219060001</v>
       </c>
       <c r="C97">
-        <v>0.80087536826682171</v>
+        <v>0.800875368266822</v>
       </c>
       <c r="D97">
-        <v>0.75738226677885223</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E97">
-        <v>0.78483981354597676</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4088,16 +4718,16 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.8051121906000096</v>
+        <v>0.80511219060001</v>
       </c>
       <c r="C98">
-        <v>0.80087536826682171</v>
+        <v>0.800875368266822</v>
       </c>
       <c r="D98">
-        <v>0.75738226677885234</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E98">
-        <v>0.78483981354597676</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4105,16 +4735,16 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.80511219060000971</v>
+        <v>0.80511219060001</v>
       </c>
       <c r="C99">
-        <v>0.80087536826682182</v>
+        <v>0.800875368266822</v>
       </c>
       <c r="D99">
-        <v>0.75738226677885245</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E99">
-        <v>0.78483981354597676</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4122,32 +4752,36 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.80511219060000982</v>
+        <v>0.80511219060001</v>
       </c>
       <c r="C100">
-        <v>0.80087536826682171</v>
+        <v>0.800875368266822</v>
       </c>
       <c r="D100">
-        <v>0.75738226677885223</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E100">
-        <v>0.78483981354597687</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D324"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="3:4">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4163,10 +4797,10 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>1.7815906693560001E-3</v>
+        <v>0.001781590669356</v>
       </c>
       <c r="D2">
-        <v>1.6900661217440003E-3</v>
+        <v>0.001690066121744</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4177,10 +4811,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>2.9745073428000006E-5</v>
+        <v>2.9745073428e-5</v>
       </c>
       <c r="D3">
-        <v>7.0476304800000005E-6</v>
+        <v>7.04763048e-6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4191,10 +4825,10 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>1.7841533208240001E-3</v>
+        <v>0.001784153320824</v>
       </c>
       <c r="D4">
-        <v>1.7059836574880004E-3</v>
+        <v>0.001705983657488</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4205,10 +4839,10 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>3.027486917200001E-5</v>
+        <v>3.0274869172e-5</v>
       </c>
       <c r="D5">
-        <v>7.1421121200000005E-6</v>
+        <v>7.14211212e-6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4219,10 +4853,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>1.8159312499760002E-3</v>
+        <v>0.001815931249976</v>
       </c>
       <c r="D6">
-        <v>1.7288543420720002E-3</v>
+        <v>0.001728854342072</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4233,10 +4867,10 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>3.0804664916000004E-5</v>
+        <v>3.0804664916e-5</v>
       </c>
       <c r="D7">
-        <v>7.2365937600000005E-6</v>
+        <v>7.23659376e-6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4247,10 +4881,10 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>1.8477091791280001E-3</v>
+        <v>0.001847709179128</v>
       </c>
       <c r="D8">
-        <v>9.0602554240000012E-6</v>
+        <v>9.060255424e-6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4261,7 +4895,7 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>1.7426647712320002E-3</v>
+        <v>0.001742664771232</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4272,10 +4906,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.1334460660000002E-5</v>
+        <v>3.133446066e-5</v>
       </c>
       <c r="D10">
-        <v>7.3310754000000005E-6</v>
+        <v>7.3310754e-6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4286,10 +4920,10 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>8.4159886680000004E-5</v>
+        <v>8.415988668e-5</v>
       </c>
       <c r="D11">
-        <v>9.1785469600000012E-6</v>
+        <v>9.17854696e-6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4300,10 +4934,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>1.7953272216000001E-3</v>
+        <v>0.0017953272216</v>
       </c>
       <c r="D12">
-        <v>1.7654171642800002E-3</v>
+        <v>0.00176541716428</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4314,10 +4948,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>3.1200725812000006E-5</v>
+        <v>3.1200725812e-5</v>
       </c>
       <c r="D13">
-        <v>7.3329841200000008E-6</v>
+        <v>7.33298412e-6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4328,10 +4962,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>8.3800693976000002E-5</v>
+        <v>8.3800693976e-5</v>
       </c>
       <c r="D14">
-        <v>9.1809366880000014E-6</v>
+        <v>9.180936688e-6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4342,10 +4976,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>1.78766480112E-3</v>
+        <v>0.00178766480112</v>
       </c>
       <c r="D15">
-        <v>1.7658768085840003E-3</v>
+        <v>0.001765876808584</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4356,10 +4990,10 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>3.106699096400001E-5</v>
+        <v>3.1066990964e-5</v>
       </c>
       <c r="D16">
-        <v>7.3348928400000001E-6</v>
+        <v>7.33489284e-6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4370,10 +5004,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>8.3441501272000013E-5</v>
+        <v>8.3441501272e-5</v>
       </c>
       <c r="D17">
-        <v>9.1833264160000016E-6</v>
+        <v>9.183326416e-6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4384,10 +5018,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>1.7800023806400001E-3</v>
+        <v>0.00178000238064</v>
       </c>
       <c r="D18">
-        <v>1.7663364528880002E-3</v>
+        <v>0.001766336452888</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4398,10 +5032,10 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>3.0933256116E-5</v>
+        <v>3.0933256116e-5</v>
       </c>
       <c r="D19">
-        <v>7.3368015600000012E-6</v>
+        <v>7.33680156e-6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4412,10 +5046,10 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>8.3082308567999997E-5</v>
+        <v>8.3082308568e-5</v>
       </c>
       <c r="D20">
-        <v>9.1857161440000018E-6</v>
+        <v>9.185716144e-6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4426,10 +5060,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.7723399601599998E-3</v>
+        <v>0.00177233996016</v>
       </c>
       <c r="D21">
-        <v>1.7667960971920003E-3</v>
+        <v>0.001766796097192</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4440,10 +5074,10 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>3.0799521268000004E-5</v>
+        <v>3.0799521268e-5</v>
       </c>
       <c r="D22">
-        <v>7.3387102800000006E-6</v>
+        <v>7.33871028e-6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4454,10 +5088,10 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>8.2723115864000008E-5</v>
+        <v>8.2723115864e-5</v>
       </c>
       <c r="D23">
-        <v>9.188105872000002E-6</v>
+        <v>9.188105872e-6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4468,10 +5102,10 @@
         <v>19</v>
       </c>
       <c r="C24">
-        <v>1.4315706163400002E-3</v>
+        <v>0.00143157061634</v>
       </c>
       <c r="D24">
-        <v>9.9207920761600001E-4</v>
+        <v>0.000992079207616</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4482,10 +5116,10 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>3.3310692334000006E-4</v>
+        <v>0.00033310692334</v>
       </c>
       <c r="D25">
-        <v>7.7517653388000014E-4</v>
+        <v>0.00077517653388</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4496,10 +5130,10 @@
         <v>13</v>
       </c>
       <c r="C26">
-        <v>3.0665786420000008E-5</v>
+        <v>3.066578642e-5</v>
       </c>
       <c r="D26">
-        <v>7.3406190000000008E-6</v>
+        <v>7.340619e-6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4510,10 +5144,10 @@
         <v>16</v>
       </c>
       <c r="C27">
-        <v>8.2363923160000006E-5</v>
+        <v>8.236392316e-5</v>
       </c>
       <c r="D27">
-        <v>9.1904956000000022E-6</v>
+        <v>9.1904956e-6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4524,10 +5158,10 @@
         <v>19</v>
       </c>
       <c r="C28">
-        <v>1.4253545821000001E-3</v>
+        <v>0.0014253545821</v>
       </c>
       <c r="D28">
-        <v>9.923372368E-4</v>
+        <v>0.0009923372368</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4538,10 +5172,10 @@
         <v>23</v>
       </c>
       <c r="C29">
-        <v>3.3166053710000006E-4</v>
+        <v>0.0003316605371</v>
       </c>
       <c r="D29">
-        <v>7.7537814900000012E-4</v>
+        <v>0.000775378149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4552,10 +5186,10 @@
         <v>13</v>
       </c>
       <c r="C30">
-        <v>3.0580916228000006E-5</v>
+        <v>3.0580916228e-5</v>
       </c>
       <c r="D30">
-        <v>7.3679773200000003E-6</v>
+        <v>7.36797732e-6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4566,10 +5200,10 @@
         <v>16</v>
       </c>
       <c r="C31">
-        <v>8.2135973944000006E-5</v>
+        <v>8.2135973944e-5</v>
       </c>
       <c r="D31">
-        <v>9.2247483680000009E-6</v>
+        <v>9.224748368e-6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4580,10 +5214,10 @@
         <v>19</v>
       </c>
       <c r="C32">
-        <v>1.4214097911400001E-3</v>
+        <v>0.00142140979114</v>
       </c>
       <c r="D32">
-        <v>9.9603565510400006E-4</v>
+        <v>0.000996035655104</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4594,10 +5228,10 @@
         <v>23</v>
       </c>
       <c r="C33">
-        <v>3.3074263814000002E-4</v>
+        <v>0.00033074263814</v>
       </c>
       <c r="D33">
-        <v>7.7826796572000008E-4</v>
+        <v>0.00077826796572</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4608,10 +5242,10 @@
         <v>13</v>
       </c>
       <c r="C34">
-        <v>3.0496046036000005E-5</v>
+        <v>3.0496046036e-5</v>
       </c>
       <c r="D34">
-        <v>7.3953356399999998E-6</v>
+        <v>7.39533564e-6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4622,10 +5256,10 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <v>8.1908024728000005E-5</v>
+        <v>8.1908024728e-5</v>
       </c>
       <c r="D35">
-        <v>9.2590011360000014E-6</v>
+        <v>9.259001136e-6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4636,10 +5270,10 @@
         <v>19</v>
       </c>
       <c r="C36">
-        <v>1.4174650001800002E-3</v>
+        <v>0.00141746500018</v>
       </c>
       <c r="D36">
-        <v>9.997340734079999E-4</v>
+        <v>0.000999734073408</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4650,10 +5284,10 @@
         <v>23</v>
       </c>
       <c r="C37">
-        <v>3.2982473918000002E-4</v>
+        <v>0.00032982473918</v>
       </c>
       <c r="D37">
-        <v>7.8115778244000004E-4</v>
+        <v>0.00078115778244</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4664,10 +5298,10 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>5.297488000000001E-6</v>
+        <v>5.297488e-6</v>
       </c>
       <c r="D38">
-        <v>1.679976E-6</v>
+        <v>1.679976e-6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4678,10 +5312,10 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>1.8919600000000005E-7</v>
+        <v>1.89196e-7</v>
       </c>
       <c r="D39">
-        <v>3.7332800000000007E-7</v>
+        <v>3.73328e-7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4692,10 +5326,10 @@
         <v>13</v>
       </c>
       <c r="C40">
-        <v>7.5678400000000009E-7</v>
+        <v>7.56784e-7</v>
       </c>
       <c r="D40">
-        <v>5.5999200000000003E-7</v>
+        <v>5.59992e-7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4706,10 +5340,10 @@
         <v>16</v>
       </c>
       <c r="C41">
-        <v>1.295425012E-3</v>
+        <v>0.001295425012</v>
       </c>
       <c r="D41">
-        <v>1.0245986960000001E-3</v>
+        <v>0.001024598696</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4720,10 +5354,10 @@
         <v>19</v>
       </c>
       <c r="C42">
-        <v>2.6449600800000005E-4</v>
+        <v>0.000264496008</v>
       </c>
       <c r="D42">
-        <v>3.2106208E-4</v>
+        <v>0.00032106208</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4734,10 +5368,10 @@
         <v>21</v>
       </c>
       <c r="C43">
-        <v>1.33761572E-4</v>
+        <v>0.000133761572</v>
       </c>
       <c r="D43">
-        <v>1.9282391200000005E-4</v>
+        <v>0.000192823912</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4748,10 +5382,10 @@
         <v>23</v>
       </c>
       <c r="C44">
-        <v>1.9222313600000002E-4</v>
+        <v>0.000192223136</v>
       </c>
       <c r="D44">
-        <v>3.2572868E-4</v>
+        <v>0.00032572868</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4762,10 +5396,10 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>5.2827040000000012E-6</v>
+        <v>5.282704e-6</v>
       </c>
       <c r="D45">
-        <v>1.686168E-6</v>
+        <v>1.686168e-6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4776,10 +5410,10 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>1.8866800000000006E-7</v>
+        <v>1.88668e-7</v>
       </c>
       <c r="D46">
-        <v>3.747040000000001E-7</v>
+        <v>3.74704e-7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4790,10 +5424,10 @@
         <v>13</v>
       </c>
       <c r="C47">
-        <v>7.5467200000000013E-7</v>
+        <v>7.54672e-7</v>
       </c>
       <c r="D47">
-        <v>5.6205599999999993E-7</v>
+        <v>5.62056e-7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4804,10 +5438,10 @@
         <v>16</v>
       </c>
       <c r="C48">
-        <v>1.2918097960000002E-3</v>
+        <v>0.001291809796</v>
       </c>
       <c r="D48">
-        <v>1.0283751280000001E-3</v>
+        <v>0.001028375128</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4818,10 +5452,10 @@
         <v>19</v>
       </c>
       <c r="C49">
-        <v>2.6375786400000006E-4</v>
+        <v>0.000263757864</v>
       </c>
       <c r="D49">
-        <v>3.2224544000000001E-4</v>
+        <v>0.00032224544</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4832,10 +5466,10 @@
         <v>21</v>
       </c>
       <c r="C50">
-        <v>1.33388276E-4</v>
+        <v>0.000133388276</v>
       </c>
       <c r="D50">
-        <v>1.9353461600000004E-4</v>
+        <v>0.000193534616</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4846,10 +5480,10 @@
         <v>23</v>
       </c>
       <c r="C51">
-        <v>1.9168668800000004E-4</v>
+        <v>0.000191686688</v>
       </c>
       <c r="D51">
-        <v>3.2692923999999996E-4</v>
+        <v>0.00032692924</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4860,10 +5494,10 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>5.2679200000000014E-6</v>
+        <v>5.26792e-6</v>
       </c>
       <c r="D52">
-        <v>1.6923599999999998E-6</v>
+        <v>1.69236e-6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4874,10 +5508,10 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>1.8814000000000004E-7</v>
+        <v>1.8814e-7</v>
       </c>
       <c r="D53">
-        <v>3.7608000000000007E-7</v>
+        <v>3.7608e-7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4888,10 +5522,10 @@
         <v>13</v>
       </c>
       <c r="C54">
-        <v>7.5256000000000006E-7</v>
+        <v>7.5256e-7</v>
       </c>
       <c r="D54">
-        <v>5.6411999999999995E-7</v>
+        <v>5.6412e-7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4902,10 +5536,10 @@
         <v>16</v>
       </c>
       <c r="C55">
-        <v>1.28819458E-3</v>
+        <v>0.00128819458</v>
       </c>
       <c r="D55">
-        <v>1.0321515600000002E-3</v>
+        <v>0.00103215156</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4916,10 +5550,10 @@
         <v>19</v>
       </c>
       <c r="C56">
-        <v>2.6301972000000002E-4</v>
+        <v>0.00026301972</v>
       </c>
       <c r="D56">
-        <v>3.2342879999999996E-4</v>
+        <v>0.0003234288</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4930,10 +5564,10 @@
         <v>21</v>
       </c>
       <c r="C57">
-        <v>1.3301498E-4</v>
+        <v>0.00013301498</v>
       </c>
       <c r="D57">
-        <v>1.9424532000000003E-4</v>
+        <v>0.00019424532</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4944,10 +5578,10 @@
         <v>23</v>
       </c>
       <c r="C58">
-        <v>1.9115024000000003E-4</v>
+        <v>0.00019115024</v>
       </c>
       <c r="D58">
-        <v>3.2812979999999998E-4</v>
+        <v>0.0003281298</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4958,10 +5592,10 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>5.2240160000000007E-6</v>
+        <v>5.224016e-6</v>
       </c>
       <c r="D59">
-        <v>1.6809839999999999E-6</v>
+        <v>1.680984e-6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4972,10 +5606,10 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>1.8657200000000004E-7</v>
+        <v>1.86572e-7</v>
       </c>
       <c r="D60">
-        <v>3.7355200000000006E-7</v>
+        <v>3.73552e-7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4986,10 +5620,10 @@
         <v>13</v>
       </c>
       <c r="C61">
-        <v>7.4628800000000005E-7</v>
+        <v>7.46288e-7</v>
       </c>
       <c r="D61">
-        <v>5.6032799999999999E-7</v>
+        <v>5.60328e-7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5000,10 +5634,10 @@
         <v>16</v>
       </c>
       <c r="C62">
-        <v>1.277458484E-3</v>
+        <v>0.001277458484</v>
       </c>
       <c r="D62">
-        <v>1.0252134640000002E-3</v>
+        <v>0.001025213464</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5014,10 +5648,10 @@
         <v>19</v>
       </c>
       <c r="C63">
-        <v>2.6082765600000002E-4</v>
+        <v>0.000260827656</v>
       </c>
       <c r="D63">
-        <v>3.2125471999999998E-4</v>
+        <v>0.00032125472</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5028,10 +5662,10 @@
         <v>21</v>
       </c>
       <c r="C64">
-        <v>1.3190640400000001E-4</v>
+        <v>0.000131906404</v>
       </c>
       <c r="D64">
-        <v>1.9293960800000003E-4</v>
+        <v>0.000192939608</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5042,10 +5676,10 @@
         <v>23</v>
       </c>
       <c r="C65">
-        <v>1.8955715200000002E-4</v>
+        <v>0.000189557152</v>
       </c>
       <c r="D65">
-        <v>3.2592411999999996E-4</v>
+        <v>0.00032592412</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5056,10 +5690,10 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>5.1801120000000009E-6</v>
+        <v>5.180112e-6</v>
       </c>
       <c r="D66">
-        <v>1.6696079999999999E-6</v>
+        <v>1.669608e-6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5070,10 +5704,10 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>1.8500400000000003E-7</v>
+        <v>1.85004e-7</v>
       </c>
       <c r="D67">
-        <v>3.7102400000000005E-7</v>
+        <v>3.71024e-7</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5084,10 +5718,10 @@
         <v>13</v>
       </c>
       <c r="C68">
-        <v>7.4001600000000003E-7</v>
+        <v>7.40016e-7</v>
       </c>
       <c r="D68">
-        <v>5.5653599999999992E-7</v>
+        <v>5.56536e-7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5098,10 +5732,10 @@
         <v>16</v>
       </c>
       <c r="C69">
-        <v>1.266722388E-3</v>
+        <v>0.001266722388</v>
       </c>
       <c r="D69">
-        <v>1.018275368E-3</v>
+        <v>0.001018275368</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5112,10 +5746,10 @@
         <v>19</v>
       </c>
       <c r="C70">
-        <v>2.5863559200000003E-4</v>
+        <v>0.000258635592</v>
       </c>
       <c r="D70">
-        <v>3.1908063999999995E-4</v>
+        <v>0.00031908064</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5126,10 +5760,10 @@
         <v>21</v>
       </c>
       <c r="C71">
-        <v>1.3079782800000001E-4</v>
+        <v>0.000130797828</v>
       </c>
       <c r="D71">
-        <v>1.9163389600000002E-4</v>
+        <v>0.000191633896</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5140,10 +5774,10 @@
         <v>23</v>
       </c>
       <c r="C72">
-        <v>1.8796406400000003E-4</v>
+        <v>0.000187964064</v>
       </c>
       <c r="D72">
-        <v>3.2371843999999994E-4</v>
+        <v>0.00032371844</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5154,10 +5788,10 @@
         <v>7</v>
       </c>
       <c r="C73">
-        <v>5.136208000000002E-6</v>
+        <v>5.136208e-6</v>
       </c>
       <c r="D73">
-        <v>1.6582320000000003E-6</v>
+        <v>1.658232e-6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5168,10 +5802,10 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>1.8343600000000008E-7</v>
+        <v>1.83436e-7</v>
       </c>
       <c r="D74">
-        <v>3.6849600000000015E-7</v>
+        <v>3.68496e-7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5182,10 +5816,10 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <v>7.3374400000000022E-7</v>
+        <v>7.33744e-7</v>
       </c>
       <c r="D75">
-        <v>5.5274400000000007E-7</v>
+        <v>5.52744e-7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5196,10 +5830,10 @@
         <v>16</v>
       </c>
       <c r="C76">
-        <v>1.2559862920000003E-3</v>
+        <v>0.001255986292</v>
       </c>
       <c r="D76">
-        <v>1.0113372720000002E-3</v>
+        <v>0.001011337272</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5210,10 +5844,10 @@
         <v>19</v>
       </c>
       <c r="C77">
-        <v>2.5644352800000008E-4</v>
+        <v>0.000256443528</v>
       </c>
       <c r="D77">
-        <v>3.1690656000000003E-4</v>
+        <v>0.00031690656</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5224,10 +5858,10 @@
         <v>21</v>
       </c>
       <c r="C78">
-        <v>1.2968925200000002E-4</v>
+        <v>0.000129689252</v>
       </c>
       <c r="D78">
-        <v>1.9032818400000005E-4</v>
+        <v>0.000190328184</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5238,10 +5872,10 @@
         <v>23</v>
       </c>
       <c r="C79">
-        <v>1.8637097600000005E-4</v>
+        <v>0.000186370976</v>
       </c>
       <c r="D79">
-        <v>3.2151276000000003E-4</v>
+        <v>0.00032151276</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5252,10 +5886,10 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>5.0923040000000013E-6</v>
+        <v>5.092304e-6</v>
       </c>
       <c r="D80">
-        <v>1.6468560000000001E-6</v>
+        <v>1.646856e-6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5266,10 +5900,10 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>1.8186800000000005E-7</v>
+        <v>1.81868e-7</v>
       </c>
       <c r="D81">
-        <v>3.6596800000000009E-7</v>
+        <v>3.65968e-7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5280,10 +5914,10 @@
         <v>13</v>
       </c>
       <c r="C82">
-        <v>7.274720000000001E-7</v>
+        <v>7.27472e-7</v>
       </c>
       <c r="D82">
-        <v>5.48952E-7</v>
+        <v>5.48952e-7</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5294,10 +5928,10 @@
         <v>16</v>
       </c>
       <c r="C83">
-        <v>1.2452501960000001E-3</v>
+        <v>0.001245250196</v>
       </c>
       <c r="D83">
-        <v>1.0043991760000002E-3</v>
+        <v>0.001004399176</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5308,10 +5942,10 @@
         <v>19</v>
       </c>
       <c r="C84">
-        <v>2.5425146400000003E-4</v>
+        <v>0.000254251464</v>
       </c>
       <c r="D84">
-        <v>3.1473248E-4</v>
+        <v>0.00031473248</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5322,10 +5956,10 @@
         <v>21</v>
       </c>
       <c r="C85">
-        <v>1.2858067600000003E-4</v>
+        <v>0.000128580676</v>
       </c>
       <c r="D85">
-        <v>1.8902247200000005E-4</v>
+        <v>0.000189022472</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5336,10 +5970,10 @@
         <v>23</v>
       </c>
       <c r="C86">
-        <v>1.8477788800000004E-4</v>
+        <v>0.000184777888</v>
       </c>
       <c r="D86">
-        <v>3.1930708000000002E-4</v>
+        <v>0.00031930708</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5350,10 +5984,10 @@
         <v>7</v>
       </c>
       <c r="C87">
-        <v>5.0484000000000015E-6</v>
+        <v>5.0484e-6</v>
       </c>
       <c r="D87">
-        <v>1.6354800000000001E-6</v>
+        <v>1.63548e-6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5364,10 +5998,10 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>1.8030000000000005E-7</v>
+        <v>1.803e-7</v>
       </c>
       <c r="D88">
-        <v>3.6344000000000008E-7</v>
+        <v>3.6344e-7</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5378,10 +6012,10 @@
         <v>13</v>
       </c>
       <c r="C89">
-        <v>7.2120000000000008E-7</v>
+        <v>7.212e-7</v>
       </c>
       <c r="D89">
-        <v>5.4516000000000005E-7</v>
+        <v>5.4516e-7</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5392,10 +6026,10 @@
         <v>16</v>
       </c>
       <c r="C90">
-        <v>1.2345141E-3</v>
+        <v>0.0012345141</v>
       </c>
       <c r="D90">
-        <v>9.9746108000000016E-4</v>
+        <v>0.00099746108</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5406,10 +6040,10 @@
         <v>19</v>
       </c>
       <c r="C91">
-        <v>2.5205940000000003E-4</v>
+        <v>0.0002520594</v>
       </c>
       <c r="D91">
-        <v>3.1255840000000003E-4</v>
+        <v>0.0003125584</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5420,10 +6054,10 @@
         <v>21</v>
       </c>
       <c r="C92">
-        <v>1.2747210000000001E-4</v>
+        <v>0.0001274721</v>
       </c>
       <c r="D92">
-        <v>1.8771676000000004E-4</v>
+        <v>0.00018771676</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5434,10 +6068,10 @@
         <v>23</v>
       </c>
       <c r="C93">
-        <v>1.8318480000000003E-4</v>
+        <v>0.0001831848</v>
       </c>
       <c r="D93">
-        <v>3.171014E-4</v>
+        <v>0.0003171014</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5448,10 +6082,10 @@
         <v>7</v>
       </c>
       <c r="C94">
-        <v>5.0774080000000009E-6</v>
+        <v>5.077408e-6</v>
       </c>
       <c r="D94">
-        <v>1.659348E-6</v>
+        <v>1.659348e-6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5462,10 +6096,10 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>1.8133600000000006E-7</v>
+        <v>1.81336e-7</v>
       </c>
       <c r="D95">
-        <v>3.6874400000000006E-7</v>
+        <v>3.68744e-7</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5476,10 +6110,10 @@
         <v>13</v>
       </c>
       <c r="C96">
-        <v>7.2534400000000012E-7</v>
+        <v>7.25344e-7</v>
       </c>
       <c r="D96">
-        <v>5.5311599999999996E-7</v>
+        <v>5.53116e-7</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5490,10 +6124,10 @@
         <v>16</v>
       </c>
       <c r="C97">
-        <v>1.2416075920000001E-3</v>
+        <v>0.001241607592</v>
       </c>
       <c r="D97">
-        <v>1.0120179080000001E-3</v>
+        <v>0.001012017908</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5504,10 +6138,10 @@
         <v>19</v>
       </c>
       <c r="C98">
-        <v>2.5350772800000006E-4</v>
+        <v>0.000253507728</v>
       </c>
       <c r="D98">
-        <v>3.1711983999999999E-4</v>
+        <v>0.00031711984</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5518,10 +6152,10 @@
         <v>21</v>
       </c>
       <c r="C99">
-        <v>1.2820455200000002E-4</v>
+        <v>0.000128204552</v>
       </c>
       <c r="D99">
-        <v>1.9045627600000004E-4</v>
+        <v>0.000190456276</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5532,10 +6166,10 @@
         <v>23</v>
       </c>
       <c r="C100">
-        <v>1.8423737600000003E-4</v>
+        <v>0.000184237376</v>
       </c>
       <c r="D100">
-        <v>3.2172914000000002E-4</v>
+        <v>0.00032172914</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5546,10 +6180,10 @@
         <v>7</v>
       </c>
       <c r="C101">
-        <v>5.1064160000000012E-6</v>
+        <v>5.106416e-6</v>
       </c>
       <c r="D101">
-        <v>1.6832160000000001E-6</v>
+        <v>1.683216e-6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5560,10 +6194,10 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>1.8237200000000007E-7</v>
+        <v>1.82372e-7</v>
       </c>
       <c r="D102">
-        <v>3.7404800000000009E-7</v>
+        <v>3.74048e-7</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5574,10 +6208,10 @@
         <v>13</v>
       </c>
       <c r="C103">
-        <v>7.2948800000000016E-7</v>
+        <v>7.29488e-7</v>
       </c>
       <c r="D103">
-        <v>5.6107199999999998E-7</v>
+        <v>5.61072e-7</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5588,10 +6222,10 @@
         <v>16</v>
       </c>
       <c r="C104">
-        <v>1.2487010840000002E-3</v>
+        <v>0.001248701084</v>
       </c>
       <c r="D104">
-        <v>1.0265747360000002E-3</v>
+        <v>0.001026574736</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5602,10 +6236,10 @@
         <v>19</v>
       </c>
       <c r="C105">
-        <v>2.5495605600000002E-4</v>
+        <v>0.000254956056</v>
       </c>
       <c r="D105">
-        <v>3.2168128E-4</v>
+        <v>0.00032168128</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5616,10 +6250,10 @@
         <v>21</v>
       </c>
       <c r="C106">
-        <v>1.2893700400000001E-4</v>
+        <v>0.000128937004</v>
       </c>
       <c r="D106">
-        <v>1.9319579200000004E-4</v>
+        <v>0.000193195792</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5630,10 +6264,10 @@
         <v>23</v>
       </c>
       <c r="C107">
-        <v>1.8528995200000004E-4</v>
+        <v>0.000185289952</v>
       </c>
       <c r="D107">
-        <v>3.2635688000000004E-4</v>
+        <v>0.00032635688</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5644,7 +6278,7 @@
         <v>7</v>
       </c>
       <c r="D108">
-        <v>1.8967600000000004E-7</v>
+        <v>1.89676e-7</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5655,10 +6289,10 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>3.9982943999999993E-5</v>
+        <v>3.9982944e-5</v>
       </c>
       <c r="D109">
-        <v>2.4088852000000004E-5</v>
+        <v>2.4088852e-5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5669,10 +6303,10 @@
         <v>13</v>
       </c>
       <c r="C110">
-        <v>1.0014076799999999E-4</v>
+        <v>0.000100140768</v>
       </c>
       <c r="D110">
-        <v>3.9831960000000005E-5</v>
+        <v>3.983196e-5</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5683,10 +6317,10 @@
         <v>16</v>
       </c>
       <c r="C111">
-        <v>1.2965111519999998E-3</v>
+        <v>0.001296511152</v>
       </c>
       <c r="D111">
-        <v>1.2670356800000004E-3</v>
+        <v>0.00126703568</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5697,10 +6331,10 @@
         <v>19</v>
       </c>
       <c r="C112">
-        <v>3.7451913600000002E-4</v>
+        <v>0.000374519136</v>
       </c>
       <c r="D112">
-        <v>5.3867984000000003E-4</v>
+        <v>0.00053867984</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5711,10 +6345,10 @@
         <v>21</v>
       </c>
       <c r="C113">
-        <v>7.3363199999999992E-6</v>
+        <v>7.33632e-6</v>
       </c>
       <c r="D113">
-        <v>8.3457439999999991E-6</v>
+        <v>8.345744e-6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5725,10 +6359,10 @@
         <v>23</v>
       </c>
       <c r="C114">
-        <v>1.5589679999999999E-5</v>
+        <v>1.558968e-5</v>
       </c>
       <c r="D114">
-        <v>1.8777924000000004E-5</v>
+        <v>1.8777924e-5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5739,7 +6373,7 @@
         <v>7</v>
       </c>
       <c r="D115">
-        <v>1.9232800000000003E-7</v>
+        <v>1.92328e-7</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5750,10 +6384,10 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>4.0208791999999992E-5</v>
+        <v>4.0208792e-5</v>
       </c>
       <c r="D116">
-        <v>2.4425656000000002E-5</v>
+        <v>2.4425656e-5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5764,10 +6398,10 @@
         <v>13</v>
       </c>
       <c r="C117">
-        <v>1.0070642399999999E-4</v>
+        <v>0.000100706424</v>
       </c>
       <c r="D117">
-        <v>4.0388880000000008E-5</v>
+        <v>4.038888e-5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5778,10 +6412,10 @@
         <v>16</v>
       </c>
       <c r="C118">
-        <v>1.3038346359999999E-3</v>
+        <v>0.001303834636</v>
       </c>
       <c r="D118">
-        <v>1.2847510400000003E-3</v>
+        <v>0.00128475104</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5792,10 +6426,10 @@
         <v>19</v>
       </c>
       <c r="C119">
-        <v>3.76634648E-4</v>
+        <v>0.000376634648</v>
       </c>
       <c r="D119">
-        <v>5.4621151999999999E-4</v>
+        <v>0.00054621152</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5806,10 +6440,10 @@
         <v>21</v>
       </c>
       <c r="C120">
-        <v>7.3777599999999996E-6</v>
+        <v>7.37776e-6</v>
       </c>
       <c r="D120">
-        <v>8.4624319999999997E-6</v>
+        <v>8.462432e-6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5820,10 +6454,10 @@
         <v>23</v>
       </c>
       <c r="C121">
-        <v>1.567774E-5</v>
+        <v>1.567774e-5</v>
       </c>
       <c r="D121">
-        <v>1.9040472000000002E-5</v>
+        <v>1.9040472e-5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5834,7 +6468,7 @@
         <v>7</v>
       </c>
       <c r="D122">
-        <v>1.9498000000000004E-7</v>
+        <v>1.9498e-7</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5845,10 +6479,10 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>4.043463999999999E-5</v>
+        <v>4.043464e-5</v>
       </c>
       <c r="D123">
-        <v>2.4762460000000006E-5</v>
+        <v>2.476246e-5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5859,10 +6493,10 @@
         <v>13</v>
       </c>
       <c r="C124">
-        <v>1.0127208000000001E-4</v>
+        <v>0.00010127208</v>
       </c>
       <c r="D124">
-        <v>4.094580000000001E-5</v>
+        <v>4.09458e-5</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5873,10 +6507,10 @@
         <v>16</v>
       </c>
       <c r="C125">
-        <v>1.3111581199999999E-3</v>
+        <v>0.00131115812</v>
       </c>
       <c r="D125">
-        <v>1.3024664000000005E-3</v>
+        <v>0.0013024664</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5887,10 +6521,10 @@
         <v>19</v>
       </c>
       <c r="C126">
-        <v>3.7875016000000003E-4</v>
+        <v>0.00037875016</v>
       </c>
       <c r="D126">
-        <v>5.5374320000000006E-4</v>
+        <v>0.0005537432</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5901,10 +6535,10 @@
         <v>21</v>
       </c>
       <c r="C127">
-        <v>7.4192E-6</v>
+        <v>7.4192e-6</v>
       </c>
       <c r="D127">
-        <v>8.5791200000000003E-6</v>
+        <v>8.57912e-6</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5915,10 +6549,10 @@
         <v>23</v>
       </c>
       <c r="C128">
-        <v>1.5765800000000001E-5</v>
+        <v>1.57658e-5</v>
       </c>
       <c r="D128">
-        <v>1.9303020000000003E-5</v>
+        <v>1.930302e-5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5929,7 +6563,7 @@
         <v>7</v>
       </c>
       <c r="D129">
-        <v>1.9432000000000006E-7</v>
+        <v>1.9432e-7</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5940,10 +6574,10 @@
         <v>10</v>
       </c>
       <c r="C130">
-        <v>4.0387551999999995E-5</v>
+        <v>4.0387552e-5</v>
       </c>
       <c r="D130">
-        <v>2.4678640000000007E-5</v>
+        <v>2.467864e-5</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5954,10 +6588,10 @@
         <v>13</v>
       </c>
       <c r="C131">
-        <v>1.0115414400000001E-4</v>
+        <v>0.000101154144</v>
       </c>
       <c r="D131">
-        <v>4.0807200000000011E-5</v>
+        <v>4.08072e-5</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5968,10 +6602,10 @@
         <v>16</v>
       </c>
       <c r="C132">
-        <v>1.3096312159999999E-3</v>
+        <v>0.001309631216</v>
       </c>
       <c r="D132">
-        <v>1.2980576000000005E-3</v>
+        <v>0.0012980576</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5982,10 +6616,10 @@
         <v>19</v>
       </c>
       <c r="C133">
-        <v>3.7830908800000004E-4</v>
+        <v>0.000378309088</v>
       </c>
       <c r="D133">
-        <v>5.5186880000000001E-4</v>
+        <v>0.0005518688</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5996,10 +6630,10 @@
         <v>21</v>
       </c>
       <c r="C134">
-        <v>7.4105600000000004E-6</v>
+        <v>7.41056e-6</v>
       </c>
       <c r="D134">
-        <v>8.55008E-6</v>
+        <v>8.55008e-6</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6010,10 +6644,10 @@
         <v>23</v>
       </c>
       <c r="C135">
-        <v>1.574744E-5</v>
+        <v>1.574744e-5</v>
       </c>
       <c r="D135">
-        <v>1.9237680000000006E-5</v>
+        <v>1.923768e-5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6024,7 +6658,7 @@
         <v>7</v>
       </c>
       <c r="D136">
-        <v>1.9366000000000003E-7</v>
+        <v>1.9366e-7</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6035,10 +6669,10 @@
         <v>10</v>
       </c>
       <c r="C137">
-        <v>4.0340463999999992E-5</v>
+        <v>4.0340464e-5</v>
       </c>
       <c r="D137">
-        <v>2.4594820000000005E-5</v>
+        <v>2.459482e-5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6049,10 +6683,10 @@
         <v>13</v>
       </c>
       <c r="C138">
-        <v>1.0103620800000001E-4</v>
+        <v>0.000101036208</v>
       </c>
       <c r="D138">
-        <v>4.0668600000000006E-5</v>
+        <v>4.06686e-5</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6063,10 +6697,10 @@
         <v>16</v>
       </c>
       <c r="C139">
-        <v>1.3081043120000001E-3</v>
+        <v>0.001308104312</v>
       </c>
       <c r="D139">
-        <v>1.2936488000000004E-3</v>
+        <v>0.0012936488</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6077,10 +6711,10 @@
         <v>19</v>
       </c>
       <c r="C140">
-        <v>3.7786801600000005E-4</v>
+        <v>0.000377868016</v>
       </c>
       <c r="D140">
-        <v>5.4999439999999997E-4</v>
+        <v>0.0005499944</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6091,10 +6725,10 @@
         <v>21</v>
       </c>
       <c r="C141">
-        <v>7.4019199999999999E-6</v>
+        <v>7.40192e-6</v>
       </c>
       <c r="D141">
-        <v>8.5210399999999997E-6</v>
+        <v>8.52104e-6</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6105,10 +6739,10 @@
         <v>23</v>
       </c>
       <c r="C142">
-        <v>1.572908E-5</v>
+        <v>1.572908e-5</v>
       </c>
       <c r="D142">
-        <v>1.9172340000000002E-5</v>
+        <v>1.917234e-5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6119,7 +6753,7 @@
         <v>7</v>
       </c>
       <c r="D143">
-        <v>1.9300000000000002E-7</v>
+        <v>1.93e-7</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6130,10 +6764,10 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>4.0293375999999997E-5</v>
+        <v>4.0293376e-5</v>
       </c>
       <c r="D144">
-        <v>2.4511000000000003E-5</v>
+        <v>2.4511e-5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6144,10 +6778,10 @@
         <v>13</v>
       </c>
       <c r="C145">
-        <v>1.0091827200000001E-4</v>
+        <v>0.000100918272</v>
       </c>
       <c r="D145">
-        <v>4.0530000000000007E-5</v>
+        <v>4.053e-5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6158,10 +6792,10 @@
         <v>16</v>
       </c>
       <c r="C146">
-        <v>1.3065774080000001E-3</v>
+        <v>0.001306577408</v>
       </c>
       <c r="D146">
-        <v>1.2892400000000003E-3</v>
+        <v>0.00128924</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6172,10 +6806,10 @@
         <v>19</v>
       </c>
       <c r="C147">
-        <v>3.7742694400000006E-4</v>
+        <v>0.000377426944</v>
       </c>
       <c r="D147">
-        <v>5.4811999999999992E-4</v>
+        <v>0.00054812</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6186,10 +6820,10 @@
         <v>21</v>
       </c>
       <c r="C148">
-        <v>7.3932800000000003E-6</v>
+        <v>7.39328e-6</v>
       </c>
       <c r="D148">
-        <v>8.4919999999999993E-6</v>
+        <v>8.492e-6</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6200,10 +6834,10 @@
         <v>23</v>
       </c>
       <c r="C149">
-        <v>1.5710720000000003E-5</v>
+        <v>1.571072e-5</v>
       </c>
       <c r="D149">
-        <v>1.9107000000000002E-5</v>
+        <v>1.9107e-5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6214,7 +6848,7 @@
         <v>7</v>
       </c>
       <c r="D150">
-        <v>1.9233999999999999E-7</v>
+        <v>1.9234e-7</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6225,10 +6859,10 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>4.0246287999999995E-5</v>
+        <v>4.0246288e-5</v>
       </c>
       <c r="D151">
-        <v>2.4427180000000001E-5</v>
+        <v>2.442718e-5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6239,10 +6873,10 @@
         <v>13</v>
       </c>
       <c r="C152">
-        <v>1.0080033600000001E-4</v>
+        <v>0.000100800336</v>
       </c>
       <c r="D152">
-        <v>4.0391400000000001E-5</v>
+        <v>4.03914e-5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6253,10 +6887,10 @@
         <v>16</v>
       </c>
       <c r="C153">
-        <v>1.305050504E-3</v>
+        <v>0.001305050504</v>
       </c>
       <c r="D153">
-        <v>1.2848312000000002E-3</v>
+        <v>0.0012848312</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6267,10 +6901,10 @@
         <v>19</v>
       </c>
       <c r="C154">
-        <v>3.7698587200000008E-4</v>
+        <v>0.000376985872</v>
       </c>
       <c r="D154">
-        <v>5.4624559999999988E-4</v>
+        <v>0.0005462456</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6281,10 +6915,10 @@
         <v>21</v>
       </c>
       <c r="C155">
-        <v>7.3846400000000007E-6</v>
+        <v>7.38464e-6</v>
       </c>
       <c r="D155">
-        <v>8.4629599999999973E-6</v>
+        <v>8.46296e-6</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6295,10 +6929,10 @@
         <v>23</v>
       </c>
       <c r="C156">
-        <v>1.5692360000000003E-5</v>
+        <v>1.569236e-5</v>
       </c>
       <c r="D156">
-        <v>1.9041659999999998E-5</v>
+        <v>1.904166e-5</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6309,7 +6943,7 @@
         <v>7</v>
       </c>
       <c r="D157">
-        <v>1.9168000000000001E-7</v>
+        <v>1.9168e-7</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6320,10 +6954,10 @@
         <v>10</v>
       </c>
       <c r="C158">
-        <v>4.01992E-5</v>
+        <v>4.01992e-5</v>
       </c>
       <c r="D158">
-        <v>2.4343360000000002E-5</v>
+        <v>2.434336e-5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6334,10 +6968,10 @@
         <v>13</v>
       </c>
       <c r="C159">
-        <v>1.0068240000000001E-4</v>
+        <v>0.0001006824</v>
       </c>
       <c r="D159">
-        <v>4.0252800000000002E-5</v>
+        <v>4.02528e-5</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6348,10 +6982,10 @@
         <v>16</v>
       </c>
       <c r="C160">
-        <v>1.3035236E-3</v>
+        <v>0.0013035236</v>
       </c>
       <c r="D160">
-        <v>1.2804224000000002E-3</v>
+        <v>0.0012804224</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6362,10 +6996,10 @@
         <v>19</v>
       </c>
       <c r="C161">
-        <v>3.7654480000000009E-4</v>
+        <v>0.0003765448</v>
       </c>
       <c r="D161">
-        <v>5.4437119999999994E-4</v>
+        <v>0.0005443712</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6376,10 +7010,10 @@
         <v>21</v>
       </c>
       <c r="C162">
-        <v>7.376000000000001E-6</v>
+        <v>7.376e-6</v>
       </c>
       <c r="D162">
-        <v>8.4339199999999987E-6</v>
+        <v>8.43392e-6</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6390,10 +7024,10 @@
         <v>23</v>
       </c>
       <c r="C163">
-        <v>1.5674000000000003E-5</v>
+        <v>1.5674e-5</v>
       </c>
       <c r="D163">
-        <v>1.8976320000000001E-5</v>
+        <v>1.897632e-5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -6404,7 +7038,7 @@
         <v>7</v>
       </c>
       <c r="D164">
-        <v>1.9540399999999999E-7</v>
+        <v>1.95404e-7</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6415,10 +7049,10 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>4.0659615999999997E-5</v>
+        <v>4.0659616e-5</v>
       </c>
       <c r="D165">
-        <v>2.4816308E-5</v>
+        <v>2.4816308e-5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -6429,10 +7063,10 @@
         <v>13</v>
       </c>
       <c r="C166">
-        <v>1.0183555200000001E-4</v>
+        <v>0.000101835552</v>
       </c>
       <c r="D166">
-        <v>4.1034839999999998E-5</v>
+        <v>4.103484e-5</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -6443,10 +7077,10 @@
         <v>16</v>
       </c>
       <c r="C167">
-        <v>1.318453328E-3</v>
+        <v>0.001318453328</v>
       </c>
       <c r="D167">
-        <v>1.30529872E-3</v>
+        <v>0.00130529872</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6457,10 +7091,10 @@
         <v>19</v>
       </c>
       <c r="C168">
-        <v>3.8085750400000006E-4</v>
+        <v>0.000380857504</v>
       </c>
       <c r="D168">
-        <v>5.5494735999999983E-4</v>
+        <v>0.00055494736</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -6471,10 +7105,10 @@
         <v>21</v>
       </c>
       <c r="C169">
-        <v>7.4604800000000003E-6</v>
+        <v>7.46048e-6</v>
       </c>
       <c r="D169">
-        <v>8.5977759999999986E-6</v>
+        <v>8.597776e-6</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -6485,10 +7119,10 @@
         <v>23</v>
       </c>
       <c r="C170">
-        <v>1.5853520000000001E-5</v>
+        <v>1.585352e-5</v>
       </c>
       <c r="D170">
-        <v>1.9344995999999998E-5</v>
+        <v>1.9344996e-5</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6499,7 +7133,7 @@
         <v>7</v>
       </c>
       <c r="D171">
-        <v>1.9912800000000003E-7</v>
+        <v>1.99128e-7</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -6510,10 +7144,10 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>4.1120032E-5</v>
+        <v>4.1120032e-5</v>
       </c>
       <c r="D172">
-        <v>2.5289256000000005E-5</v>
+        <v>2.5289256e-5</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6524,10 +7158,10 @@
         <v>13</v>
       </c>
       <c r="C173">
-        <v>1.0298870400000002E-4</v>
+        <v>0.000102988704</v>
       </c>
       <c r="D173">
-        <v>4.1816880000000008E-5</v>
+        <v>4.181688e-5</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6538,10 +7172,10 @@
         <v>16</v>
       </c>
       <c r="C174">
-        <v>1.333383056E-3</v>
+        <v>0.001333383056</v>
       </c>
       <c r="D174">
-        <v>1.3301750400000003E-3</v>
+        <v>0.00133017504</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6552,10 +7186,10 @@
         <v>19</v>
       </c>
       <c r="C175">
-        <v>3.8517020800000009E-4</v>
+        <v>0.000385170208</v>
       </c>
       <c r="D175">
-        <v>5.6552352000000005E-4</v>
+        <v>0.00056552352</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -6566,10 +7200,10 @@
         <v>21</v>
       </c>
       <c r="C176">
-        <v>7.5449600000000012E-6</v>
+        <v>7.54496e-6</v>
       </c>
       <c r="D176">
-        <v>8.7616320000000001E-6</v>
+        <v>8.761632e-6</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6580,10 +7214,10 @@
         <v>23</v>
       </c>
       <c r="C177">
-        <v>1.6033040000000003E-5</v>
+        <v>1.603304e-5</v>
       </c>
       <c r="D177">
-        <v>1.9713672000000004E-5</v>
+        <v>1.9713672e-5</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6594,10 +7228,10 @@
         <v>7</v>
       </c>
       <c r="C178">
-        <v>3.8147200000000004E-7</v>
+        <v>3.81472e-7</v>
       </c>
       <c r="D178">
-        <v>4.0570400000000004E-7</v>
+        <v>4.05704e-7</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6608,10 +7242,10 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>1.2645796799999999E-4</v>
+        <v>0.000126457968</v>
       </c>
       <c r="D179">
-        <v>9.1689104E-5</v>
+        <v>9.1689104e-5</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6622,10 +7256,10 @@
         <v>13</v>
       </c>
       <c r="C180">
-        <v>1.14250864E-4</v>
+        <v>0.000114250864</v>
       </c>
       <c r="D180">
-        <v>7.931513200000001E-5</v>
+        <v>7.9315132e-5</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6636,10 +7270,10 @@
         <v>16</v>
       </c>
       <c r="C181">
-        <v>1.2041163679999999E-3</v>
+        <v>0.001204116368</v>
       </c>
       <c r="D181">
-        <v>1.2635651080000001E-3</v>
+        <v>0.001263565108</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6650,10 +7284,10 @@
         <v>19</v>
       </c>
       <c r="C182">
-        <v>4.42888992E-4</v>
+        <v>0.000442888992</v>
       </c>
       <c r="D182">
-        <v>5.6717419200000014E-4</v>
+        <v>0.000567174192</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -6664,10 +7298,10 @@
         <v>21</v>
       </c>
       <c r="C183">
-        <v>5.5313440000000011E-6</v>
+        <v>5.531344e-6</v>
       </c>
       <c r="D183">
-        <v>8.722636000000002E-6</v>
+        <v>8.722636e-6</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -6678,10 +7312,10 @@
         <v>23</v>
       </c>
       <c r="C184">
-        <v>1.3732992E-5</v>
+        <v>1.3732992e-5</v>
       </c>
       <c r="D184">
-        <v>1.7648124E-5</v>
+        <v>1.7648124e-5</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6692,10 +7326,10 @@
         <v>7</v>
       </c>
       <c r="C185">
-        <v>3.8569600000000007E-7</v>
+        <v>3.85696e-7</v>
       </c>
       <c r="D185">
-        <v>4.1315200000000007E-7</v>
+        <v>4.13152e-7</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -6706,10 +7340,10 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>1.2785822400000001E-4</v>
+        <v>0.000127858224</v>
       </c>
       <c r="D186">
-        <v>9.3372352000000003E-5</v>
+        <v>9.3372352e-5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -6720,10 +7354,10 @@
         <v>13</v>
       </c>
       <c r="C187">
-        <v>1.1551595200000001E-4</v>
+        <v>0.000115515952</v>
       </c>
       <c r="D187">
-        <v>8.0771216000000021E-5</v>
+        <v>8.0771216e-5</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -6734,10 +7368,10 @@
         <v>16</v>
       </c>
       <c r="C188">
-        <v>1.217449424E-3</v>
+        <v>0.001217449424</v>
       </c>
       <c r="D188">
-        <v>1.2867619040000003E-3</v>
+        <v>0.001286761904</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -6748,10 +7382,10 @@
         <v>19</v>
       </c>
       <c r="C189">
-        <v>4.4779305600000003E-4</v>
+        <v>0.000447793056</v>
       </c>
       <c r="D189">
-        <v>5.7758649600000013E-4</v>
+        <v>0.000577586496</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -6762,10 +7396,10 @@
         <v>21</v>
       </c>
       <c r="C190">
-        <v>5.5925920000000011E-6</v>
+        <v>5.592592e-6</v>
       </c>
       <c r="D190">
-        <v>8.8827680000000032E-6</v>
+        <v>8.882768e-6</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6776,10 +7410,10 @@
         <v>23</v>
       </c>
       <c r="C191">
-        <v>1.3885056000000002E-5</v>
+        <v>1.3885056e-5</v>
       </c>
       <c r="D191">
-        <v>1.7972112E-5</v>
+        <v>1.7972112e-5</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6790,10 +7424,10 @@
         <v>7</v>
       </c>
       <c r="C192">
-        <v>3.8991999999999999E-7</v>
+        <v>3.8992e-7</v>
       </c>
       <c r="D192">
-        <v>4.206000000000001E-7</v>
+        <v>4.206e-7</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6804,10 +7438,10 @@
         <v>10</v>
       </c>
       <c r="C193">
-        <v>1.2925847999999999E-4</v>
+        <v>0.00012925848</v>
       </c>
       <c r="D193">
-        <v>9.5055600000000005E-5</v>
+        <v>9.50556e-5</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -6818,10 +7452,10 @@
         <v>13</v>
       </c>
       <c r="C194">
-        <v>1.1678103999999999E-4</v>
+        <v>0.00011678104</v>
       </c>
       <c r="D194">
-        <v>8.2227300000000018E-5</v>
+        <v>8.22273e-5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -6832,10 +7466,10 @@
         <v>16</v>
       </c>
       <c r="C195">
-        <v>1.23078248E-3</v>
+        <v>0.00123078248</v>
       </c>
       <c r="D195">
-        <v>1.3099587000000002E-3</v>
+        <v>0.0013099587</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -6846,10 +7480,10 @@
         <v>19</v>
       </c>
       <c r="C196">
-        <v>4.5269711999999996E-4</v>
+        <v>0.00045269712</v>
       </c>
       <c r="D196">
-        <v>5.8799880000000011E-4</v>
+        <v>0.0005879988</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6860,10 +7494,10 @@
         <v>21</v>
       </c>
       <c r="C197">
-        <v>5.6538400000000002E-6</v>
+        <v>5.65384e-6</v>
       </c>
       <c r="D197">
-        <v>9.0429000000000028E-6</v>
+        <v>9.0429e-6</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6874,10 +7508,10 @@
         <v>23</v>
       </c>
       <c r="C198">
-        <v>1.403712E-5</v>
+        <v>1.403712e-5</v>
       </c>
       <c r="D198">
-        <v>1.8296100000000003E-5</v>
+        <v>1.82961e-5</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6888,10 +7522,10 @@
         <v>7</v>
       </c>
       <c r="C199">
-        <v>3.87088E-7</v>
+        <v>3.87088e-7</v>
       </c>
       <c r="D199">
-        <v>4.184080000000001E-7</v>
+        <v>4.18408e-7</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6902,10 +7536,10 @@
         <v>10</v>
       </c>
       <c r="C200">
-        <v>1.2831967199999997E-4</v>
+        <v>0.000128319672</v>
       </c>
       <c r="D200">
-        <v>9.4560208000000012E-5</v>
+        <v>9.4560208e-5</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6916,10 +7550,10 @@
         <v>13</v>
       </c>
       <c r="C201">
-        <v>1.15932856E-4</v>
+        <v>0.000115932856</v>
       </c>
       <c r="D201">
-        <v>8.1798764000000015E-5</v>
+        <v>8.1798764e-5</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6930,10 +7564,10 @@
         <v>16</v>
       </c>
       <c r="C202">
-        <v>1.2218432719999998E-3</v>
+        <v>0.001221843272</v>
       </c>
       <c r="D202">
-        <v>1.3031317160000003E-3</v>
+        <v>0.001303131716</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6944,10 +7578,10 @@
         <v>19</v>
       </c>
       <c r="C203">
-        <v>4.4940916799999993E-4</v>
+        <v>0.000449409168</v>
       </c>
       <c r="D203">
-        <v>5.8493438400000015E-4</v>
+        <v>0.000584934384</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6958,10 +7592,10 @@
         <v>21</v>
       </c>
       <c r="C204">
-        <v>5.612776E-6</v>
+        <v>5.612776e-6</v>
       </c>
       <c r="D204">
-        <v>8.995772000000003E-6</v>
+        <v>8.995772e-6</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6972,10 +7606,10 @@
         <v>23</v>
       </c>
       <c r="C205">
-        <v>1.3935167999999999E-5</v>
+        <v>1.3935168e-5</v>
       </c>
       <c r="D205">
-        <v>1.8200748000000001E-5</v>
+        <v>1.8200748e-5</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6986,10 +7620,10 @@
         <v>7</v>
       </c>
       <c r="C206">
-        <v>3.8425599999999997E-7</v>
+        <v>3.84256e-7</v>
       </c>
       <c r="D206">
-        <v>4.1621600000000011E-7</v>
+        <v>4.16216e-7</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7000,10 +7634,10 @@
         <v>10</v>
       </c>
       <c r="C207">
-        <v>1.2738086399999998E-4</v>
+        <v>0.000127380864</v>
       </c>
       <c r="D207">
-        <v>9.4064816000000005E-5</v>
+        <v>9.4064816e-5</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7014,10 +7648,10 @@
         <v>13</v>
       </c>
       <c r="C208">
-        <v>1.15084672E-4</v>
+        <v>0.000115084672</v>
       </c>
       <c r="D208">
-        <v>8.1370228000000026E-5</v>
+        <v>8.1370228e-5</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -7028,10 +7662,10 @@
         <v>16</v>
       </c>
       <c r="C209">
-        <v>1.2129040639999999E-3</v>
+        <v>0.001212904064</v>
       </c>
       <c r="D209">
-        <v>1.2963047320000002E-3</v>
+        <v>0.001296304732</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7042,10 +7676,10 @@
         <v>19</v>
       </c>
       <c r="C210">
-        <v>4.4612121599999996E-4</v>
+        <v>0.000446121216</v>
       </c>
       <c r="D210">
-        <v>5.8186996800000008E-4</v>
+        <v>0.000581869968</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -7056,10 +7690,10 @@
         <v>21</v>
       </c>
       <c r="C211">
-        <v>5.5717119999999999E-6</v>
+        <v>5.571712e-6</v>
       </c>
       <c r="D211">
-        <v>8.9486440000000031E-6</v>
+        <v>8.948644e-6</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -7070,10 +7704,10 @@
         <v>23</v>
       </c>
       <c r="C212">
-        <v>1.3833215999999999E-5</v>
+        <v>1.3833216e-5</v>
       </c>
       <c r="D212">
-        <v>1.8105396E-5</v>
+        <v>1.8105396e-5</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -7084,10 +7718,10 @@
         <v>7</v>
       </c>
       <c r="C213">
-        <v>3.8142400000000004E-7</v>
+        <v>3.81424e-7</v>
       </c>
       <c r="D213">
-        <v>4.14024E-7</v>
+        <v>4.14024e-7</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -7098,10 +7732,10 @@
         <v>10</v>
       </c>
       <c r="C214">
-        <v>1.2644205600000001E-4</v>
+        <v>0.000126442056</v>
       </c>
       <c r="D214">
-        <v>9.3569423999999998E-5</v>
+        <v>9.3569424e-5</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -7112,10 +7746,10 @@
         <v>13</v>
       </c>
       <c r="C215">
-        <v>1.1423648800000001E-4</v>
+        <v>0.000114236488</v>
       </c>
       <c r="D215">
-        <v>8.094169200000001E-5</v>
+        <v>8.0941692e-5</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -7126,10 +7760,10 @@
         <v>16</v>
       </c>
       <c r="C216">
-        <v>1.2039648560000001E-3</v>
+        <v>0.001203964856</v>
       </c>
       <c r="D216">
-        <v>1.2894777480000001E-3</v>
+        <v>0.001289477748</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7140,10 +7774,10 @@
         <v>19</v>
       </c>
       <c r="C217">
-        <v>4.4283326400000004E-4</v>
+        <v>0.000442833264</v>
       </c>
       <c r="D217">
-        <v>5.7880555200000002E-4</v>
+        <v>0.000578805552</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -7154,10 +7788,10 @@
         <v>21</v>
       </c>
       <c r="C218">
-        <v>5.5306480000000014E-6</v>
+        <v>5.530648e-6</v>
       </c>
       <c r="D218">
-        <v>8.9015160000000015E-6</v>
+        <v>8.901516e-6</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -7168,10 +7802,10 @@
         <v>23</v>
       </c>
       <c r="C219">
-        <v>1.3731264000000002E-5</v>
+        <v>1.3731264e-5</v>
       </c>
       <c r="D219">
-        <v>1.8010043999999999E-5</v>
+        <v>1.8010044e-5</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -7182,10 +7816,10 @@
         <v>7</v>
       </c>
       <c r="C220">
-        <v>3.7859200000000006E-7</v>
+        <v>3.78592e-7</v>
       </c>
       <c r="D220">
-        <v>4.11832E-7</v>
+        <v>4.11832e-7</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -7196,10 +7830,10 @@
         <v>10</v>
       </c>
       <c r="C221">
-        <v>1.2550324800000002E-4</v>
+        <v>0.000125503248</v>
       </c>
       <c r="D221">
-        <v>9.3074031999999991E-5</v>
+        <v>9.3074032e-5</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -7210,10 +7844,10 @@
         <v>13</v>
       </c>
       <c r="C222">
-        <v>1.1338830400000001E-4</v>
+        <v>0.000113388304</v>
       </c>
       <c r="D222">
-        <v>8.0513156000000007E-5</v>
+        <v>8.0513156e-5</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -7224,10 +7858,10 @@
         <v>16</v>
       </c>
       <c r="C223">
-        <v>1.195025648E-3</v>
+        <v>0.001195025648</v>
       </c>
       <c r="D223">
-        <v>1.282650764E-3</v>
+        <v>0.001282650764</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7238,10 +7872,10 @@
         <v>19</v>
       </c>
       <c r="C224">
-        <v>4.3954531200000001E-4</v>
+        <v>0.000439545312</v>
       </c>
       <c r="D224">
-        <v>5.7574113600000006E-4</v>
+        <v>0.000575741136</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -7252,10 +7886,10 @@
         <v>21</v>
       </c>
       <c r="C225">
-        <v>5.4895840000000012E-6</v>
+        <v>5.489584e-6</v>
       </c>
       <c r="D225">
-        <v>8.8543880000000017E-6</v>
+        <v>8.854388e-6</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -7266,10 +7900,10 @@
         <v>23</v>
       </c>
       <c r="C226">
-        <v>1.3629312000000001E-5</v>
+        <v>1.3629312e-5</v>
       </c>
       <c r="D226">
-        <v>1.7914691999999998E-5</v>
+        <v>1.7914692e-5</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -7280,10 +7914,10 @@
         <v>7</v>
       </c>
       <c r="C227">
-        <v>3.7576000000000002E-7</v>
+        <v>3.7576e-7</v>
       </c>
       <c r="D227">
-        <v>4.0964000000000001E-7</v>
+        <v>4.0964e-7</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -7294,10 +7928,10 @@
         <v>10</v>
       </c>
       <c r="C228">
-        <v>1.2456444E-4</v>
+        <v>0.00012456444</v>
       </c>
       <c r="D228">
-        <v>9.2578639999999998E-5</v>
+        <v>9.257864e-5</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -7308,10 +7942,10 @@
         <v>13</v>
       </c>
       <c r="C229">
-        <v>1.1254012000000001E-4</v>
+        <v>0.00011254012</v>
       </c>
       <c r="D229">
-        <v>8.0084620000000004E-5</v>
+        <v>8.008462e-5</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -7322,10 +7956,10 @@
         <v>16</v>
       </c>
       <c r="C230">
-        <v>1.18608644E-3</v>
+        <v>0.00118608644</v>
       </c>
       <c r="D230">
-        <v>1.2758237800000001E-3</v>
+        <v>0.00127582378</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -7336,10 +7970,10 @@
         <v>19</v>
       </c>
       <c r="C231">
-        <v>4.3625736000000003E-4</v>
+        <v>0.00043625736</v>
       </c>
       <c r="D231">
-        <v>5.7267671999999999E-4</v>
+        <v>0.00057267672</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -7350,10 +7984,10 @@
         <v>21</v>
       </c>
       <c r="C232">
-        <v>5.448520000000001E-6</v>
+        <v>5.44852e-6</v>
       </c>
       <c r="D232">
-        <v>8.8072600000000018E-6</v>
+        <v>8.80726e-6</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -7364,10 +7998,10 @@
         <v>23</v>
       </c>
       <c r="C233">
-        <v>1.3527360000000001E-5</v>
+        <v>1.352736e-5</v>
       </c>
       <c r="D233">
-        <v>1.781934E-5</v>
+        <v>1.781934e-5</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -7378,10 +8012,10 @@
         <v>7</v>
       </c>
       <c r="C234">
-        <v>3.7623200000000003E-7</v>
+        <v>3.76232e-7</v>
       </c>
       <c r="D234">
-        <v>4.1449600000000001E-7</v>
+        <v>4.14496e-7</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -7392,10 +8026,10 @@
         <v>10</v>
       </c>
       <c r="C235">
-        <v>1.2472090799999999E-4</v>
+        <v>0.000124720908</v>
       </c>
       <c r="D235">
-        <v>9.3676095999999985E-5</v>
+        <v>9.3676096e-5</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -7406,10 +8040,10 @@
         <v>13</v>
       </c>
       <c r="C236">
-        <v>1.12681484E-4</v>
+        <v>0.000112681484</v>
       </c>
       <c r="D236">
-        <v>8.1033968000000003E-5</v>
+        <v>8.1033968e-5</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -7420,10 +8054,10 @@
         <v>16</v>
       </c>
       <c r="C237">
-        <v>1.1875763079999999E-3</v>
+        <v>0.001187576308</v>
       </c>
       <c r="D237">
-        <v>1.2909477919999998E-3</v>
+        <v>0.001290947792</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -7434,10 +8068,10 @@
         <v>19</v>
       </c>
       <c r="C238">
-        <v>4.3680535199999997E-4</v>
+        <v>0.000436805352</v>
       </c>
       <c r="D238">
-        <v>5.7946540799999992E-4</v>
+        <v>0.000579465408</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -7448,10 +8082,10 @@
         <v>21</v>
       </c>
       <c r="C239">
-        <v>5.4553640000000002E-6</v>
+        <v>5.455364e-6</v>
       </c>
       <c r="D239">
-        <v>8.9116640000000013E-6</v>
+        <v>8.911664e-6</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -7462,10 +8096,10 @@
         <v>23</v>
       </c>
       <c r="C240">
-        <v>1.3544351999999999E-5</v>
+        <v>1.3544352e-5</v>
       </c>
       <c r="D240">
-        <v>1.8030575999999997E-5</v>
+        <v>1.8030576e-5</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -7476,10 +8110,10 @@
         <v>7</v>
       </c>
       <c r="C241">
-        <v>3.7670400000000004E-7</v>
+        <v>3.76704e-7</v>
       </c>
       <c r="D241">
-        <v>4.1935200000000001E-7</v>
+        <v>4.19352e-7</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -7490,10 +8124,10 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>1.2487737600000001E-4</v>
+        <v>0.000124877376</v>
       </c>
       <c r="D242">
-        <v>9.4773551999999999E-5</v>
+        <v>9.4773552e-5</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -7504,10 +8138,10 @@
         <v>13</v>
       </c>
       <c r="C243">
-        <v>1.1282284800000001E-4</v>
+        <v>0.000112822848</v>
       </c>
       <c r="D243">
-        <v>8.1983316000000002E-5</v>
+        <v>8.1983316e-5</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -7518,10 +8152,10 @@
         <v>16</v>
       </c>
       <c r="C244">
-        <v>1.1890661760000001E-3</v>
+        <v>0.001189066176</v>
       </c>
       <c r="D244">
-        <v>1.3060718040000001E-3</v>
+        <v>0.001306071804</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -7532,10 +8166,10 @@
         <v>19</v>
       </c>
       <c r="C245">
-        <v>4.3735334400000001E-4</v>
+        <v>0.000437353344</v>
       </c>
       <c r="D245">
-        <v>5.8625409600000008E-4</v>
+        <v>0.000586254096</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -7546,10 +8180,10 @@
         <v>21</v>
       </c>
       <c r="C246">
-        <v>5.462208000000001E-6</v>
+        <v>5.462208e-6</v>
       </c>
       <c r="D246">
-        <v>9.0160680000000025E-6</v>
+        <v>9.016068e-6</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -7560,10 +8194,10 @@
         <v>23</v>
       </c>
       <c r="C247">
-        <v>1.3561344E-5</v>
+        <v>1.3561344e-5</v>
       </c>
       <c r="D247">
-        <v>1.8241811999999998E-5</v>
+        <v>1.8241812e-5</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -7574,10 +8208,10 @@
         <v>7</v>
       </c>
       <c r="C248">
-        <v>3.7717599999999999E-7</v>
+        <v>3.77176e-7</v>
       </c>
       <c r="D248">
-        <v>2.1210400000000003E-7</v>
+        <v>2.12104e-7</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -7588,10 +8222,10 @@
         <v>10</v>
       </c>
       <c r="C249">
-        <v>1.8236459600000005E-4</v>
+        <v>0.000182364596</v>
       </c>
       <c r="D249">
-        <v>1.6247166400000003E-4</v>
+        <v>0.000162471664</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -7602,10 +8236,10 @@
         <v>13</v>
       </c>
       <c r="C250">
-        <v>1.25033844E-4</v>
+        <v>0.000125033844</v>
       </c>
       <c r="D250">
-        <v>1.0414306400000002E-4</v>
+        <v>0.000104143064</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -7616,10 +8250,10 @@
         <v>16</v>
       </c>
       <c r="C251">
-        <v>1.1303964719999999E-3</v>
+        <v>0.001130396472</v>
       </c>
       <c r="D251">
-        <v>1.2702908560000004E-3</v>
+        <v>0.001270290856</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -7630,10 +8264,10 @@
         <v>19</v>
       </c>
       <c r="C252">
-        <v>4.3262087200000003E-4</v>
+        <v>0.000432620872</v>
       </c>
       <c r="D252">
-        <v>5.5762141600000008E-4</v>
+        <v>0.000557621416</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -7644,10 +8278,10 @@
         <v>21</v>
       </c>
       <c r="C253">
-        <v>3.9603480000000013E-6</v>
+        <v>3.960348e-6</v>
       </c>
       <c r="D253">
-        <v>9.5446800000000006E-6</v>
+        <v>9.54468e-6</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -7658,10 +8292,10 @@
         <v>23</v>
       </c>
       <c r="C254">
-        <v>1.131528E-5</v>
+        <v>1.131528e-5</v>
       </c>
       <c r="D254">
-        <v>1.6544112000000003E-5</v>
+        <v>1.6544112e-5</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -7672,10 +8306,10 @@
         <v>7</v>
       </c>
       <c r="C255">
-        <v>3.7764800000000005E-7</v>
+        <v>3.77648e-7</v>
       </c>
       <c r="D255">
-        <v>2.1453200000000006E-7</v>
+        <v>2.14532e-7</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -7686,10 +8320,10 @@
         <v>10</v>
       </c>
       <c r="C256">
-        <v>1.8259280800000005E-4</v>
+        <v>0.000182592808</v>
       </c>
       <c r="D256">
-        <v>1.6433151200000005E-4</v>
+        <v>0.000164331512</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -7700,10 +8334,10 @@
         <v>13</v>
       </c>
       <c r="C257">
-        <v>1.2519031200000001E-4</v>
+        <v>0.000125190312</v>
       </c>
       <c r="D257">
-        <v>1.0533521200000003E-4</v>
+        <v>0.000105335212</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -7714,10 +8348,10 @@
         <v>16</v>
       </c>
       <c r="C258">
-        <v>1.1318110560000001E-3</v>
+        <v>0.001131811056</v>
       </c>
       <c r="D258">
-        <v>1.2848321480000006E-3</v>
+        <v>0.001284832148</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -7728,10 +8362,10 @@
         <v>19</v>
       </c>
       <c r="C259">
-        <v>4.3316225600000007E-4</v>
+        <v>0.000433162256</v>
       </c>
       <c r="D259">
-        <v>5.640046280000002E-4</v>
+        <v>0.000564004628</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -7742,10 +8376,10 @@
         <v>21</v>
       </c>
       <c r="C260">
-        <v>3.9653040000000018E-6</v>
+        <v>3.965304e-6</v>
       </c>
       <c r="D260">
-        <v>9.653940000000002E-6</v>
+        <v>9.65394e-6</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7756,10 +8390,10 @@
         <v>23</v>
       </c>
       <c r="C261">
-        <v>1.1329440000000001E-5</v>
+        <v>1.132944e-5</v>
       </c>
       <c r="D261">
-        <v>1.6733496000000004E-5</v>
+        <v>1.6733496e-5</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -7770,10 +8404,10 @@
         <v>7</v>
       </c>
       <c r="C262">
-        <v>3.7812E-7</v>
+        <v>3.7812e-7</v>
       </c>
       <c r="D262">
-        <v>2.1696000000000003E-7</v>
+        <v>2.1696e-7</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -7784,10 +8418,10 @@
         <v>10</v>
       </c>
       <c r="C263">
-        <v>1.8282102000000003E-4</v>
+        <v>0.00018282102</v>
       </c>
       <c r="D263">
-        <v>1.6619136000000002E-4</v>
+        <v>0.00016619136</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7798,10 +8432,10 @@
         <v>13</v>
       </c>
       <c r="C264">
-        <v>1.2534677999999998E-4</v>
+        <v>0.00012534678</v>
       </c>
       <c r="D264">
-        <v>1.0652736000000002E-4</v>
+        <v>0.00010652736</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7812,10 +8446,10 @@
         <v>16</v>
       </c>
       <c r="C265">
-        <v>1.1332256399999999E-3</v>
+        <v>0.00113322564</v>
       </c>
       <c r="D265">
-        <v>1.2993734400000003E-3</v>
+        <v>0.00129937344</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7826,10 +8460,10 @@
         <v>19</v>
       </c>
       <c r="C266">
-        <v>4.3370364000000001E-4</v>
+        <v>0.00043370364</v>
       </c>
       <c r="D266">
-        <v>5.7038784000000011E-4</v>
+        <v>0.00057038784</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -7840,10 +8474,10 @@
         <v>21</v>
       </c>
       <c r="C267">
-        <v>3.9702600000000014E-6</v>
+        <v>3.97026e-6</v>
       </c>
       <c r="D267">
-        <v>9.7632E-6</v>
+        <v>9.7632e-6</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -7854,10 +8488,10 @@
         <v>23</v>
       </c>
       <c r="C268">
-        <v>1.1343599999999999E-5</v>
+        <v>1.13436e-5</v>
       </c>
       <c r="D268">
-        <v>1.6922880000000002E-5</v>
+        <v>1.692288e-5</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7868,10 +8502,10 @@
         <v>7</v>
       </c>
       <c r="C269">
-        <v>3.7081599999999998E-7</v>
+        <v>3.70816e-7</v>
       </c>
       <c r="D269">
-        <v>2.1356800000000002E-7</v>
+        <v>2.13568e-7</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7882,10 +8516,10 @@
         <v>10</v>
       </c>
       <c r="C270">
-        <v>1.7928953600000004E-4</v>
+        <v>0.000179289536</v>
       </c>
       <c r="D270">
-        <v>1.6359308800000002E-4</v>
+        <v>0.000163593088</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7896,10 +8530,10 @@
         <v>13</v>
       </c>
       <c r="C271">
-        <v>1.2292550399999998E-4</v>
+        <v>0.000122925504</v>
       </c>
       <c r="D271">
-        <v>1.0486188800000001E-4</v>
+        <v>0.000104861888</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7910,10 +8544,10 @@
         <v>16</v>
       </c>
       <c r="C272">
-        <v>1.1113355519999999E-3</v>
+        <v>0.001111335552</v>
       </c>
       <c r="D272">
-        <v>1.2790587520000003E-3</v>
+        <v>0.001279058752</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7924,10 +8558,10 @@
         <v>19</v>
       </c>
       <c r="C273">
-        <v>4.2532595200000004E-4</v>
+        <v>0.000425325952</v>
       </c>
       <c r="D273">
-        <v>5.6147027200000011E-4</v>
+        <v>0.000561470272</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7938,10 +8572,10 @@
         <v>21</v>
       </c>
       <c r="C274">
-        <v>3.8935680000000011E-6</v>
+        <v>3.893568e-6</v>
       </c>
       <c r="D274">
-        <v>9.6105599999999997E-6</v>
+        <v>9.61056e-6</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7952,10 +8586,10 @@
         <v>23</v>
       </c>
       <c r="C275">
-        <v>1.112448E-5</v>
+        <v>1.112448e-5</v>
       </c>
       <c r="D275">
-        <v>1.6658304E-5</v>
+        <v>1.6658304e-5</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7966,10 +8600,10 @@
         <v>7</v>
       </c>
       <c r="C276">
-        <v>3.6351200000000001E-7</v>
+        <v>3.63512e-7</v>
       </c>
       <c r="D276">
-        <v>2.1017600000000004E-7</v>
+        <v>2.10176e-7</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7980,10 +8614,10 @@
         <v>10</v>
       </c>
       <c r="C277">
-        <v>1.7575805200000004E-4</v>
+        <v>0.000175758052</v>
       </c>
       <c r="D277">
-        <v>1.6099481600000002E-4</v>
+        <v>0.000160994816</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7994,10 +8628,10 @@
         <v>13</v>
       </c>
       <c r="C278">
-        <v>1.2050422799999999E-4</v>
+        <v>0.000120504228</v>
       </c>
       <c r="D278">
-        <v>1.0319641600000002E-4</v>
+        <v>0.000103196416</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -8008,10 +8642,10 @@
         <v>16</v>
       </c>
       <c r="C279">
-        <v>1.089445464E-3</v>
+        <v>0.001089445464</v>
       </c>
       <c r="D279">
-        <v>1.2587440640000004E-3</v>
+        <v>0.001258744064</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -8022,10 +8656,10 @@
         <v>19</v>
       </c>
       <c r="C280">
-        <v>4.1694826400000002E-4</v>
+        <v>0.000416948264</v>
       </c>
       <c r="D280">
-        <v>5.5255270400000011E-4</v>
+        <v>0.000552552704</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -8036,10 +8670,10 @@
         <v>21</v>
       </c>
       <c r="C281">
-        <v>3.8168760000000009E-6</v>
+        <v>3.816876e-6</v>
       </c>
       <c r="D281">
-        <v>9.4579200000000011E-6</v>
+        <v>9.45792e-6</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -8050,10 +8684,10 @@
         <v>23</v>
       </c>
       <c r="C282">
-        <v>1.090536E-5</v>
+        <v>1.090536e-5</v>
       </c>
       <c r="D282">
-        <v>1.6393728000000002E-5</v>
+        <v>1.6393728e-5</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -8064,10 +8698,10 @@
         <v>7</v>
       </c>
       <c r="C283">
-        <v>3.5620799999999998E-7</v>
+        <v>3.56208e-7</v>
       </c>
       <c r="D283">
-        <v>2.0678400000000001E-7</v>
+        <v>2.06784e-7</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -8078,10 +8712,10 @@
         <v>10</v>
       </c>
       <c r="C284">
-        <v>1.7222656800000002E-4</v>
+        <v>0.000172226568</v>
       </c>
       <c r="D284">
-        <v>1.5839654400000001E-4</v>
+        <v>0.000158396544</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -8092,10 +8726,10 @@
         <v>13</v>
       </c>
       <c r="C285">
-        <v>1.1808295199999998E-4</v>
+        <v>0.000118082952</v>
       </c>
       <c r="D285">
-        <v>1.0153094400000001E-4</v>
+        <v>0.000101530944</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -8106,10 +8740,10 @@
         <v>16</v>
       </c>
       <c r="C286">
-        <v>1.067555376E-3</v>
+        <v>0.001067555376</v>
       </c>
       <c r="D286">
-        <v>1.2384293760000003E-3</v>
+        <v>0.001238429376</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -8120,10 +8754,10 @@
         <v>19</v>
       </c>
       <c r="C287">
-        <v>4.08570576E-4</v>
+        <v>0.000408570576</v>
       </c>
       <c r="D287">
-        <v>5.436351360000001E-4</v>
+        <v>0.000543635136</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -8134,10 +8768,10 @@
         <v>21</v>
       </c>
       <c r="C288">
-        <v>3.740184000000001E-6</v>
+        <v>3.740184e-6</v>
       </c>
       <c r="D288">
-        <v>9.3052799999999991E-6</v>
+        <v>9.30528e-6</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -8148,10 +8782,10 @@
         <v>23</v>
       </c>
       <c r="C289">
-        <v>1.0686239999999999E-5</v>
+        <v>1.068624e-5</v>
       </c>
       <c r="D289">
-        <v>1.6129152E-5</v>
+        <v>1.6129152e-5</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -8162,10 +8796,10 @@
         <v>7</v>
       </c>
       <c r="C290">
-        <v>3.4890400000000001E-7</v>
+        <v>3.48904e-7</v>
       </c>
       <c r="D290">
-        <v>2.0339200000000003E-7</v>
+        <v>2.03392e-7</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -8176,10 +8810,10 @@
         <v>10</v>
       </c>
       <c r="C291">
-        <v>1.6869508400000005E-4</v>
+        <v>0.000168695084</v>
       </c>
       <c r="D291">
-        <v>1.5579827200000001E-4</v>
+        <v>0.000155798272</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -8190,10 +8824,10 @@
         <v>13</v>
       </c>
       <c r="C292">
-        <v>1.15661676E-4</v>
+        <v>0.000115661676</v>
       </c>
       <c r="D292">
-        <v>9.9865472000000018E-5</v>
+        <v>9.9865472e-5</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -8204,10 +8838,10 @@
         <v>16</v>
       </c>
       <c r="C293">
-        <v>1.045665288E-3</v>
+        <v>0.001045665288</v>
       </c>
       <c r="D293">
-        <v>1.2181146880000005E-3</v>
+        <v>0.001218114688</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -8218,10 +8852,10 @@
         <v>19</v>
       </c>
       <c r="C294">
-        <v>4.0019288800000004E-4</v>
+        <v>0.000400192888</v>
       </c>
       <c r="D294">
-        <v>5.347175680000001E-4</v>
+        <v>0.000534717568</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -8232,10 +8866,10 @@
         <v>21</v>
       </c>
       <c r="C295">
-        <v>3.6634920000000012E-6</v>
+        <v>3.663492e-6</v>
       </c>
       <c r="D295">
-        <v>9.1526400000000005E-6</v>
+        <v>9.15264e-6</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -8246,10 +8880,10 @@
         <v>23</v>
       </c>
       <c r="C296">
-        <v>1.046712E-5</v>
+        <v>1.046712e-5</v>
       </c>
       <c r="D296">
-        <v>1.5864576000000002E-5</v>
+        <v>1.5864576e-5</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -8260,10 +8894,10 @@
         <v>7</v>
       </c>
       <c r="C297">
-        <v>3.4159999999999999E-7</v>
+        <v>3.416e-7</v>
       </c>
       <c r="D297">
-        <v>2.0000000000000002E-7</v>
+        <v>2e-7</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -8274,10 +8908,10 @@
         <v>10</v>
       </c>
       <c r="C298">
-        <v>1.6516360000000003E-4</v>
+        <v>0.0001651636</v>
       </c>
       <c r="D298">
-        <v>1.5320000000000001E-4</v>
+        <v>0.0001532</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -8288,10 +8922,10 @@
         <v>13</v>
       </c>
       <c r="C299">
-        <v>1.1324039999999999E-4</v>
+        <v>0.0001132404</v>
       </c>
       <c r="D299">
-        <v>9.8200000000000015E-5</v>
+        <v>9.82e-5</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -8302,10 +8936,10 @@
         <v>16</v>
       </c>
       <c r="C300">
-        <v>1.0237752000000001E-3</v>
+        <v>0.0010237752</v>
       </c>
       <c r="D300">
-        <v>1.1978000000000002E-3</v>
+        <v>0.0011978</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -8316,10 +8950,10 @@
         <v>19</v>
       </c>
       <c r="C301">
-        <v>3.9181520000000002E-4</v>
+        <v>0.0003918152</v>
       </c>
       <c r="D301">
-        <v>5.258000000000001E-4</v>
+        <v>0.0005258</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -8330,10 +8964,10 @@
         <v>21</v>
       </c>
       <c r="C302">
-        <v>3.586800000000001E-6</v>
+        <v>3.5868e-6</v>
       </c>
       <c r="D302">
-        <v>9.0000000000000002E-6</v>
+        <v>9e-6</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -8344,10 +8978,10 @@
         <v>23</v>
       </c>
       <c r="C303">
-        <v>1.0247999999999999E-5</v>
+        <v>1.0248e-5</v>
       </c>
       <c r="D303">
-        <v>1.56E-5</v>
+        <v>1.56e-5</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -8358,10 +8992,10 @@
         <v>7</v>
       </c>
       <c r="C304">
-        <v>3.2879999999999998E-7</v>
+        <v>3.288e-7</v>
       </c>
       <c r="D304">
-        <v>1.9237200000000005E-7</v>
+        <v>1.92372e-7</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -8372,10 +9006,10 @@
         <v>10</v>
       </c>
       <c r="C305">
-        <v>1.5897480000000001E-4</v>
+        <v>0.0001589748</v>
       </c>
       <c r="D305">
-        <v>1.4735695200000003E-4</v>
+        <v>0.000147356952</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -8386,10 +9020,10 @@
         <v>13</v>
       </c>
       <c r="C306">
-        <v>1.0899719999999999E-4</v>
+        <v>0.0001089972</v>
       </c>
       <c r="D306">
-        <v>9.4454652000000025E-5</v>
+        <v>9.4454652e-5</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -8400,10 +9034,10 @@
         <v>16</v>
       </c>
       <c r="C307">
-        <v>9.8541360000000008E-4</v>
+        <v>0.0009854136</v>
       </c>
       <c r="D307">
-        <v>1.1521159080000003E-3</v>
+        <v>0.001152115908</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -8414,10 +9048,10 @@
         <v>19</v>
       </c>
       <c r="C308">
-        <v>3.7713360000000002E-4</v>
+        <v>0.0003771336</v>
       </c>
       <c r="D308">
-        <v>5.0574598800000011E-4</v>
+        <v>0.000505745988</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -8428,10 +9062,10 @@
         <v>21</v>
       </c>
       <c r="C309">
-        <v>3.452400000000001E-6</v>
+        <v>3.4524e-6</v>
       </c>
       <c r="D309">
-        <v>8.6567400000000007E-6</v>
+        <v>8.65674e-6</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -8442,10 +9076,10 @@
         <v>23</v>
       </c>
       <c r="C310">
-        <v>9.8639999999999991E-6</v>
+        <v>9.864e-6</v>
       </c>
       <c r="D310">
-        <v>1.5005016000000003E-5</v>
+        <v>1.5005016e-5</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -8456,10 +9090,10 @@
         <v>7</v>
       </c>
       <c r="C311">
-        <v>3.1600000000000002E-7</v>
+        <v>3.16e-7</v>
       </c>
       <c r="D311">
-        <v>1.8474400000000003E-7</v>
+        <v>1.84744e-7</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -8470,10 +9104,10 @@
         <v>10</v>
       </c>
       <c r="C312">
-        <v>1.5278600000000002E-4</v>
+        <v>0.000152786</v>
       </c>
       <c r="D312">
-        <v>1.41513904E-4</v>
+        <v>0.000141513904</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -8484,10 +9118,10 @@
         <v>13</v>
       </c>
       <c r="C313">
-        <v>1.0475399999999999E-4</v>
+        <v>0.000104754</v>
       </c>
       <c r="D313">
-        <v>9.070930400000002E-5</v>
+        <v>9.0709304e-5</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -8498,10 +9132,10 @@
         <v>16</v>
       </c>
       <c r="C314">
-        <v>9.4705200000000009E-4</v>
+        <v>0.000947052</v>
       </c>
       <c r="D314">
-        <v>1.1064318160000002E-3</v>
+        <v>0.001106431816</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -8512,10 +9146,10 @@
         <v>19</v>
       </c>
       <c r="C315">
-        <v>3.6245200000000003E-4</v>
+        <v>0.000362452</v>
       </c>
       <c r="D315">
-        <v>4.8569197600000007E-4</v>
+        <v>0.000485691976</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -8526,10 +9160,10 @@
         <v>21</v>
       </c>
       <c r="C316">
-        <v>3.3180000000000011E-6</v>
+        <v>3.318e-6</v>
       </c>
       <c r="D316">
-        <v>8.3134799999999996E-6</v>
+        <v>8.31348e-6</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -8540,10 +9174,10 @@
         <v>23</v>
       </c>
       <c r="C317">
-        <v>9.4800000000000007E-6</v>
+        <v>9.48e-6</v>
       </c>
       <c r="D317">
-        <v>1.4410032000000002E-5</v>
+        <v>1.4410032e-5</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -8554,10 +9188,10 @@
         <v>7</v>
       </c>
       <c r="C318">
-        <v>3.0320000000000002E-7</v>
+        <v>3.032e-7</v>
       </c>
       <c r="D318">
-        <v>1.7711600000000001E-7</v>
+        <v>1.77116e-7</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -8568,10 +9202,10 @@
         <v>10</v>
       </c>
       <c r="C319">
-        <v>1.4659720000000003E-4</v>
+        <v>0.0001465972</v>
       </c>
       <c r="D319">
-        <v>1.35670856E-4</v>
+        <v>0.000135670856</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -8582,10 +9216,10 @@
         <v>13</v>
       </c>
       <c r="C320">
-        <v>1.005108E-4</v>
+        <v>0.0001005108</v>
       </c>
       <c r="D320">
-        <v>8.6963956000000016E-5</v>
+        <v>8.6963956e-5</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -8596,10 +9230,10 @@
         <v>16</v>
       </c>
       <c r="C321">
-        <v>9.0869040000000011E-4</v>
+        <v>0.0009086904</v>
       </c>
       <c r="D321">
-        <v>1.0607477240000003E-3</v>
+        <v>0.001060747724</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -8610,10 +9244,10 @@
         <v>19</v>
       </c>
       <c r="C322">
-        <v>3.4777040000000004E-4</v>
+        <v>0.0003477704</v>
       </c>
       <c r="D322">
-        <v>4.6563796400000008E-4</v>
+        <v>0.000465637964</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -8624,10 +9258,10 @@
         <v>21</v>
       </c>
       <c r="C323">
-        <v>3.1836000000000012E-6</v>
+        <v>3.1836e-6</v>
       </c>
       <c r="D323">
-        <v>7.9702200000000001E-6</v>
+        <v>7.97022e-6</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -8638,26 +9272,30 @@
         <v>23</v>
       </c>
       <c r="C324">
-        <v>9.0960000000000007E-6</v>
+        <v>9.096e-6</v>
       </c>
       <c r="D324">
-        <v>1.3815048000000002E-5</v>
+        <v>1.3815048e-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8670,10 +9308,10 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1.5364205191440001E-3</v>
+        <v>0.001536420519144</v>
       </c>
       <c r="C2">
-        <v>1.4662910676960001E-3</v>
+        <v>0.001466291067696</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8681,10 +9319,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.5438309075E-3</v>
+        <v>0.0015438309075</v>
       </c>
       <c r="C3">
-        <v>1.4735981660400003E-3</v>
+        <v>0.00147359816604</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8692,10 +9330,10 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.584921314892E-3</v>
+        <v>0.001584921314892</v>
       </c>
       <c r="C4">
-        <v>1.5122987239360001E-3</v>
+        <v>0.001512298723936</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8703,10 +9341,10 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.6260117222840003E-3</v>
+        <v>0.001626011722284</v>
       </c>
       <c r="C5">
-        <v>1.5509992818320004E-3</v>
+        <v>0.001550999281832</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8714,10 +9352,10 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.6671021296760004E-3</v>
+        <v>0.001667102129676</v>
       </c>
       <c r="C6">
-        <v>1.5896998397280004E-3</v>
+        <v>0.001589699839728</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8725,10 +9363,10 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1.6801808730160001E-3</v>
+        <v>0.001680180873016</v>
       </c>
       <c r="C7">
-        <v>1.6217009494840001E-3</v>
+        <v>0.001621700949484</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8736,10 +9374,10 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1.7205974625199999E-3</v>
+        <v>0.00172059746252</v>
       </c>
       <c r="C8">
-        <v>1.6602422883200006E-3</v>
+        <v>0.00166024228832</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8747,10 +9385,10 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1.7523753916719998E-3</v>
+        <v>0.001752375391672</v>
       </c>
       <c r="C9">
-        <v>1.6831129729040005E-3</v>
+        <v>0.001683112972904</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8758,10 +9396,10 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1.7042623012800001E-3</v>
+        <v>0.00170426230128</v>
       </c>
       <c r="C10">
-        <v>1.6971599851360003E-3</v>
+        <v>0.001697159985136</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8769,10 +9407,10 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>1.7346172747200004E-3</v>
+        <v>0.00173461727472</v>
       </c>
       <c r="C11">
-        <v>1.719912378184E-3</v>
+        <v>0.001719912378184</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8780,10 +9418,10 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>7.6657600000000004E-4</v>
+        <v>0.000766576</v>
       </c>
       <c r="C12">
-        <v>1.6560544000000003E-3</v>
+        <v>0.0016560544</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8791,10 +9429,10 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>7.7976E-4</v>
+        <v>0.00077976</v>
       </c>
       <c r="C13">
-        <v>1.6776760000000001E-3</v>
+        <v>0.001677676</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8802,10 +9440,10 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>7.7643199999999997E-4</v>
+        <v>0.000776432</v>
       </c>
       <c r="C14">
-        <v>1.6781128000000001E-3</v>
+        <v>0.0016781128</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8813,10 +9451,10 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>7.7310400000000004E-4</v>
+        <v>0.000773104</v>
       </c>
       <c r="C15">
-        <v>1.6785496000000001E-3</v>
+        <v>0.0016785496</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8824,26 +9462,30 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>7.697759999999999E-4</v>
+        <v>0.000769776</v>
       </c>
       <c r="C16">
-        <v>1.6789864000000003E-3</v>
+        <v>0.0016789864</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="4:5">
       <c r="D1" t="s">
         <v>108</v>
       </c>
@@ -8955,5 +9597,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>